--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -11,25 +11,36 @@
     <sheet state="visible" name="Advisor List" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Course List" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Courses by Department" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Sample Course Plan" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$T$2</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
+    <definedName localSheetId="8" name="Protect_LeftMargin">'Sample Course Plan'!$A:$A</definedName>
+    <definedName localSheetId="8" name="Protect_TopMargin">'Sample Course Plan'!$B$1:$F$5</definedName>
+    <definedName localSheetId="8" name="Template_Names">'Sample Course Plan'!$A$1:$A$2</definedName>
+    <definedName localSheetId="8" name="Protect_AfterStudiesCommittee">'Sample Course Plan'!$B$27:$F$29</definedName>
+    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$5</definedName>
+    <definedName localSheetId="8" name="Template_Years">'Sample Course Plan'!$B$5:$F$5</definedName>
+    <definedName name="Enrollment_Order">'Historical Enrollment'!$S$2</definedName>
+    <definedName localSheetId="8" name="Protect_AfterAdvisor">'Sample Course Plan'!$B$22:$F$24</definedName>
+    <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$A$2</definedName>
+    <definedName name="Param_StudiesCommittee">Parameters!$B$6</definedName>
+    <definedName name="Enrollment_Department">'Historical Enrollment'!$P$2</definedName>
+    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$4</definedName>
+    <definedName localSheetId="8" name="Protect_Advisor">'Sample Course Plan'!$B$20:$F$21</definedName>
+    <definedName localSheetId="8" name="Protect_CollegeCounselingOffice">'Sample Course Plan'!$B$30:$F$31</definedName>
     <definedName name="Enrollment_Original_Title">'Historical Enrollment'!$I$2</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$G$2</definedName>
+    <definedName localSheetId="8" name="Protect_StudiesCommittee">'Sample Course Plan'!$B$25:$F$26</definedName>
     <definedName name="Param_CollegeCounselingOffice">Parameters!$B$7</definedName>
-    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$5</definedName>
-    <definedName name="Enrollment_Order">'Historical Enrollment'!$S$2</definedName>
+    <definedName localSheetId="8" name="Template_Anchor">'Sample Course Plan'!$B$6</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
     <definedName name="AdvisorList_StudentData">#REF!</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$8</definedName>
-    <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$A$2</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
     <definedName name="Enrollment_Term">'Historical Enrollment'!$R$2</definedName>
-    <definedName name="Param_StudiesCommittee">Parameters!$B$6</definedName>
-    <definedName name="Enrollment_Department">'Historical Enrollment'!$P$2</definedName>
     <definedName name="Course_Titles">'Course List'!$C$2</definedName>
-    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$4</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr/>
@@ -82,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Number of Options per Department</t>
   </si>
@@ -262,13 +273,70 @@
   </si>
   <si>
     <t>Non-Departmental</t>
+  </si>
+  <si>
+    <t>Samuel Clemens '27</t>
+  </si>
+  <si>
+    <t>Advisor: Horace Bixby</t>
+  </si>
+  <si>
+    <t>II Form</t>
+  </si>
+  <si>
+    <t>III Form</t>
+  </si>
+  <si>
+    <t>IV Form</t>
+  </si>
+  <si>
+    <t>V Form</t>
+  </si>
+  <si>
+    <t>VI Form</t>
+  </si>
+  <si>
+    <t>2019 - 2020</t>
+  </si>
+  <si>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>2021 - 2022</t>
+  </si>
+  <si>
+    <t>2022 - 2023</t>
+  </si>
+  <si>
+    <t>2023 - 2024</t>
+  </si>
+  <si>
+    <t>Comments from Faculty Advisor</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>Comments from Studies Committee</t>
+  </si>
+  <si>
+    <t>Comments from College Counseling Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -291,13 +359,42 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <b/>
+      <sz val="18.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -308,18 +405,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -344,24 +485,94 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -394,6 +605,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -842,7 +1057,7 @@
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -936,19 +1151,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="Q2" s="9" t="str">
+      <c r="Q2" s="6" t="str">
         <f t="array" ref="Q2">iferror(left(I2,find(" (",I2)-1),I2)</f>
         <v/>
       </c>
-      <c r="R2" s="9" t="str">
+      <c r="R2" s="6" t="str">
         <f t="array" ref="R2">SWITCH(right(I2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="8">
         <f t="array" ref="S2">switch(R2,"Fall",1,"Winter",2,"Spring",3,0)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="9" t="str">
+      <c r="T2" s="8" t="str">
         <f t="array" ref="T2">if(R2&lt;&gt;"",if(countif(Enrollment_Original_Title,Q2&amp;" (Y)"),,Q2&amp;" ("&amp;R2&amp;")"),Q2)</f>
         <v/>
       </c>
@@ -1022,7 +1237,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1059,11 +1274,11 @@
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <f t="array" ref="H2">switch(G2,"Fall",1,"Winter",2,"Spring",3,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="12" t="str">
+      <c r="I2" s="8" t="str">
         <f t="array" ref="I2">if(G2&lt;&gt;"",if(countif(Course_Titles,F2&amp;" (Y)"),,F2&amp;" ("&amp;G2&amp;")"),F2)</f>
         <v/>
       </c>
@@ -1126,47 +1341,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=A1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="B2" s="12" t="str">
+      <c r="B2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=B1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=C1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=D1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=E1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="12" t="str">
+      <c r="F2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=F1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=G1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=H1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="12" t="str">
+      <c r="I2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=I1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="J2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=J1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="K2" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("unique(index(sort(filter('Course List'!$F:$I,'Course List'!$D:$D=K1),3,true,1,true),,4))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
@@ -1174,4 +1389,496 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.5"/>
+    <col customWidth="1" min="2" max="6" width="22.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""English""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""English""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""English""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""English""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Mathematics and Computer Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Mathematics and Computer Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Mathematics and Computer Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Mathematics and Computer Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""World Language and Culture""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""World Language and Culture""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""World Language and Culture""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""World Language and Culture""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Classics""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Classics""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Classics""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Classics""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Philosophy and Religious Studies""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Philosophy and Religious Studies""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Philosophy and Religious Studies""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Philosophy and Religious Studies""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""History and Social Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""History and Social Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""History and Social Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""History and Social Science""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Theater and Dance""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Theater and Dance""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Theater and Dance""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Theater and Dance""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Visual Arts""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Visual Arts""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Visual Arts""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Visual Arts""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Music""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Music""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Music""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="20" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Music""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Non-Departmental""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2020 - 2021"",Enrollment_Department=""Non-Departmental""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2021 - 2022"",Enrollment_Department=""Non-Departmental""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2022 - 2023"",Enrollment_Department=""Non-Departmental""),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="21"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="21"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="21"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F20:F21 F25:F31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>and(C20&lt;&gt;"",F20="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B31">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>and(C19&lt;&gt;"",B19="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B20:B21 B25:B26 B30:B31">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B20))), AND(ISNUMBER(B20), LEFT(CELL("format", B20))="D"))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -36,7 +36,6 @@
     <definedName name="Param_CollegeCounselingOffice">Parameters!$B$7</definedName>
     <definedName localSheetId="8" name="Template_Anchor">'Sample Course Plan'!$B$6</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
-    <definedName name="AdvisorList_StudentData">#REF!</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$8</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
     <definedName name="Enrollment_Term">'Historical Enrollment'!$R$2</definedName>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>Number of Options per Department</t>
   </si>
@@ -146,13 +145,16 @@
     <t>Advisor Folder URL</t>
   </si>
   <si>
+    <t>Permissions Set</t>
+  </si>
+  <si>
     <t>ROOT</t>
   </si>
   <si>
-    <t>2MITXPb0E1F1t9tNHMF7nCHGQDWmcRQjc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/2MITXPb0E1F1t9tNHMF7nCHGQDWmcRQjc</t>
+    <t>FOLDER_ID</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/FOLDER_ID</t>
   </si>
   <si>
     <t>Form</t>
@@ -162,12 +164,6 @@
   </si>
   <si>
     <t>Form Folder URL</t>
-  </si>
-  <si>
-    <t>jyX5tcvxQA2UW3KcmTHcLtvDWy1GWxz8E</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/jyX5tcvxQA2UW3KcmTHcLtvDWy1GWxz8E</t>
   </si>
   <si>
     <t>Student Email</t>
@@ -917,6 +913,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
+    <col customWidth="1" min="11" max="11" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -956,6 +953,14 @@
       <c r="J1" s="1" t="str">
         <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
         <v>Advisor Last Name</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor Folder Inventory'!B:B,vlookup($H:$H,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
+        <v>Advisor Folder ID</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Form Folder Inventory'!C:C,vlookup($G:$G,'Form Folder Inventory'!$A:$B,2,false)),)</f>
+        <v>Form Folder URL</v>
       </c>
     </row>
     <row r="2">
@@ -967,6 +972,8 @@
       <c r="H2" s="3"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1007,19 +1014,25 @@
         <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
         <v>Advisor Last Name</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1044,24 +1057,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1093,61 +1106,61 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1192,25 +1205,25 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1238,31 +1251,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1307,37 +1320,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -1407,7 +1420,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1417,7 +1430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1436,42 +1449,42 @@
     <row r="4">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""English""),2,true,1,true),,1))),)"),"")</f>
@@ -1493,7 +1506,7 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Mathematics and Computer Science""),2,true,1,true),,1))),)"),"")</f>
@@ -1515,7 +1528,7 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""World Language and Culture""),2,true,1,true),,1))),)"),"")</f>
@@ -1537,7 +1550,7 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Classics""),2,true,1,true),,1))),)"),"")</f>
@@ -1559,7 +1572,7 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Science""),2,true,1,true),,1))),)"),"")</f>
@@ -1581,7 +1594,7 @@
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Philosophy and Religious Studies""),2,true,1,true),,1))),)"),"")</f>
@@ -1603,7 +1616,7 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""History and Social Science""),2,true,1,true),,1))),)"),"")</f>
@@ -1625,7 +1638,7 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Theater and Dance""),2,true,1,true),,1))),)"),"")</f>
@@ -1647,7 +1660,7 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Visual Arts""),2,true,1,true),,1))),)"),"")</f>
@@ -1669,7 +1682,7 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="20" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Music""),2,true,1,true),,1))),)"),"")</f>
@@ -1691,7 +1704,7 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Host_ID=""A61003"",Enrollment_Year=""2019 - 2020"",Enrollment_Department=""Non-Departmental""),2,true,1,true),,1))),)"),"")</f>
@@ -1722,7 +1735,7 @@
     <row r="18">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1732,15 +1745,15 @@
     <row r="19">
       <c r="A19" s="19"/>
       <c r="B19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -1770,7 +1783,7 @@
     <row r="23">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -1780,15 +1793,15 @@
     <row r="24">
       <c r="A24" s="19"/>
       <c r="B24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
       <c r="F24" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -1818,7 +1831,7 @@
     <row r="28">
       <c r="A28" s="21"/>
       <c r="B28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -1828,15 +1841,15 @@
     <row r="29">
       <c r="A29" s="19"/>
       <c r="B29" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="25"/>
       <c r="F29" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$X$2</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
+    <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
-    <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
     <definedName name="Enrollment_Original_Title">'Historical Enrollment'!$I$2</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$G$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
@@ -54,7 +54,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Historical Enrollment for Course Planning" 3/8/2023, 1:46:34 PM</t>
+        <t xml:space="preserve">Last updated from "Historical Enrollment for Course Planning" 3/30/2023, 10:58:44 AM</t>
       </text>
     </comment>
   </commentList>
@@ -84,7 +84,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Course List" 3/24/2023, 10:08:01 AM</t>
+        <t xml:space="preserve">Last updated from "Course List" 3/31/2023, 8:52:02 AM</t>
       </text>
     </comment>
   </commentList>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -459,7 +459,7 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -512,7 +512,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -523,6 +523,35 @@
           <fgColor rgb="FFCC0000"/>
           <bgColor rgb="FFCC0000"/>
         </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
       </fill>
       <border/>
     </dxf>
@@ -875,154 +904,187 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=A1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="B2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=B1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="C2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=C1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="D2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=D1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=E1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="F2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=F1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="G2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=G1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="H2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=H1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="I2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=I1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="J2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=J1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
       <c r="K2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I31,Course_Department=K1,Course_Available),3,true,1,true),,4));""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="B3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="C3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="D3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="G3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="J3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="B3" s="31" t="str">
+      <c r="B4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="D3" s="31" t="str">
+      <c r="D4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="E3" s="31" t="str">
+      <c r="E4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="F3" s="31" t="str">
+      <c r="F4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="G3" s="31" t="str">
+      <c r="G4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="H3" s="31" t="str">
+      <c r="H4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="I3" s="31" t="str">
+      <c r="I4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="K3" s="31" t="str">
+      <c r="K4" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="31" t="str">
+    <row r="5">
+      <c r="A5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="B4" s="31" t="str">
+      <c r="B5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="D4" s="31" t="str">
+      <c r="D5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="F4" s="31" t="str">
+      <c r="F5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="G4" s="31" t="str">
+      <c r="G5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="H4" s="31" t="str">
+      <c r="H5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="I4" s="31" t="str">
+      <c r="I5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="J4" s="31" t="str">
+      <c r="J5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="K4" s="31" t="str">
+      <c r="K5" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
     </row>
     <row r="6">
       <c r="A6" s="31"/>
@@ -1361,6 +1423,71 @@
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1483,9 +1610,9 @@
     <col customWidth="1" min="4" max="4" width="27.88"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ifna(""Missing: ""&amp;filter(Course_Title,isna(Course_Available)),""All courses synced from Blackbaud are available in this list"")"),"Missing: ")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ifna(""Missing: ""&amp;join("", "",filter(Course_Title,isna(Course_Available))),""All courses synced from Blackbaud are shown in this list. Scan the list for red/yellow highlighted duplicates if necessary."")"),"Missing: ")</f>
         <v>Missing: </v>
       </c>
     </row>
@@ -1524,14 +1651,13 @@
       <c r="E3" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="F3" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$F$3">
     <sortState ref="A2:F3">
       <sortCondition ref="D2:D3"/>
+      <sortCondition ref="B2:B3"/>
       <sortCondition ref="C2:C3"/>
     </sortState>
   </autoFilter>
@@ -1541,6 +1667,16 @@
   <conditionalFormatting sqref="A1:F1">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>left($A1,7)="Missing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>and(countif($A$1:$A2,$A3),not($F3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>and(countif($A$1:$A2,$A3),$F3)</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -1968,8 +2104,9 @@
       <c r="E1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>52</v>
+      <c r="F1" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
+        <v>Course Title</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>60</v>
@@ -1995,10 +2132,7 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="30" t="str">
-        <f t="array" ref="F2">iferror(left(C2,find(" (",C2)-1),C2)</f>
-        <v/>
-      </c>
+      <c r="F2" s="30"/>
       <c r="G2" s="30" t="str">
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
@@ -2020,6 +2154,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:K2">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>not($K2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$X$2</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
+    <definedName name="Course_ID">'Course List'!$A$2</definedName>
     <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
-    <definedName name="Course_ID">'Course List'!$A$2</definedName>
     <definedName name="Enrollment_Original_Title">'Historical Enrollment'!$I$2</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$G$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
@@ -54,7 +54,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Historical Enrollment for Course Planning" 3/30/2023, 10:58:44 AM</t>
+        <t xml:space="preserve">Last updated from "Historical Enrollment for Course Planning" 4/3/2023, 11:38:09 AM</t>
       </text>
     </comment>
   </commentList>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>Dropped Comment</t>
-  </si>
-  <si>
-    <t>Course Title</t>
   </si>
   <si>
     <t>Term</t>
@@ -869,37 +866,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -1651,7 +1648,9 @@
       <c r="E3" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$F$3">
@@ -1951,17 +1950,18 @@
       <c r="T1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Course Title"",iferror(index(REGEXEXTRACT(I:I,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
+        <v>Course Title</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="Y1" s="26" t="str">
         <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Include",not((((H:H=6100)+(H:H=6130)+(H:H=6132))*(P:P="Philosophy and Religious Studies"))))</f>
@@ -1989,10 +1989,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
-      <c r="U2" s="30" t="str">
-        <f t="array" ref="U2">iferror(left(Enrollment_TitleWithTerm,find(" (",Enrollment_TitleWithTerm)-1),Enrollment_TitleWithTerm)</f>
-        <v/>
-      </c>
+      <c r="U2" s="30"/>
       <c r="V2" s="30" t="str">
         <f t="array" ref="V2">SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
@@ -2043,16 +2040,16 @@
         <v>39</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -2102,20 +2099,20 @@
         <v>20</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="J1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -7,18 +7,20 @@
     <sheet state="visible" name="Parameters" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Available Courses" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Course Plan Inventory" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Advisor Folder Inventory" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Form Folder Inventory" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Historical Enrollment" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Advisor List" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Course List" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Courses by Department" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Student Folder Inventory" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Advisor Folder Inventory" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Plans Form Folder Inventory" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Folders Form Folder Inventory" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Historical Enrollment" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Advisor List" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Course List" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Courses by Department" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$X$2</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
+    <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
-    <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
     <definedName name="Enrollment_Original_Title">'Historical Enrollment'!$I$2</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$G$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
@@ -39,8 +41,8 @@
     <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$U$2</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$4</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Historical Enrollment'!$A$1:$Y$2</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$H$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'Historical Enrollment'!$A$1:$Y$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -172,6 +174,18 @@
     <t>Course Plan URL</t>
   </si>
   <si>
+    <t>Student Folder</t>
+  </si>
+  <si>
+    <t>Student Folder ID</t>
+  </si>
+  <si>
+    <t>Student Folder URL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Advisor Email</t>
   </si>
   <si>
@@ -200,6 +214,12 @@
   </si>
   <si>
     <t>Form Folder URL</t>
+  </si>
+  <si>
+    <t>Folder ID</t>
+  </si>
+  <si>
+    <t>Folder URL</t>
   </si>
   <si>
     <t>Student Email</t>
@@ -315,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -355,6 +375,13 @@
     <font>
       <i/>
       <color rgb="FFB7B7B7"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -407,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -465,6 +492,7 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -480,7 +508,9 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -501,7 +531,6 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
@@ -509,7 +538,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -545,6 +574,19 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -561,6 +603,14 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -860,631 +910,961 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$H$2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="11" width="15.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
+        <v>Course Title</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
+        <v>Formatted Description</v>
+      </c>
+      <c r="K1" s="18" t="str">
+        <f t="array" ref="K1:K2">if(row(K:K)=1,"Available",vlookup(A:A,'Available Courses'!A2:F$3,6,false))</f>
+        <v>Available</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="str">
+        <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
+        <v/>
+      </c>
+      <c r="H2" s="26">
+        <f t="array" ref="H2">switch(G2,"Fall",1,"Winter",2,"Spring",3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="str">
+        <f t="array" ref="I2">if(G2&lt;&gt;"",if(countif(Course_Title,F2&amp;" (Y)"),,F2&amp;" ("&amp;G2&amp;")"),F2)</f>
+        <v/>
+      </c>
+      <c r="J2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
+      </c>
+      <c r="K2" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:K2">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>not($K2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="A2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="B2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="B2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="C2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="D2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="E2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="F2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="G2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="H2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="I2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="J2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I36,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="K2" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="str">
+      <c r="A3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="B3" s="31" t="str">
+      <c r="B3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="D3" s="31" t="str">
+      <c r="D3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="E3" s="31" t="str">
+      <c r="E3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="31" t="str">
+      <c r="F3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="G3" s="31" t="str">
+      <c r="G3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="H3" s="31" t="str">
+      <c r="H3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="31" t="str">
+      <c r="I3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="J3" s="31" t="str">
+      <c r="J3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="31" t="str">
+      <c r="K3" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="str">
+      <c r="A4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="B4" s="31" t="str">
+      <c r="B4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="D4" s="31" t="str">
+      <c r="D4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="E4" s="31" t="str">
+      <c r="E4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="F4" s="31" t="str">
+      <c r="F4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="G4" s="31" t="str">
+      <c r="G4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="H4" s="31" t="str">
+      <c r="H4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="I4" s="31" t="str">
+      <c r="I4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="J4" s="31" t="str">
+      <c r="J4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="K4" s="31" t="str">
+      <c r="K4" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="str">
+      <c r="A5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="D5" s="31" t="str">
+      <c r="D5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="E5" s="31" t="str">
+      <c r="E5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="F5" s="31" t="str">
+      <c r="F5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="G5" s="31" t="str">
+      <c r="G5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="H5" s="31" t="str">
+      <c r="H5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="I5" s="31" t="str">
+      <c r="I5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="J5" s="31" t="str">
+      <c r="J5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="K5" s="31" t="str">
+      <c r="K5" s="26" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1613,7 +1993,7 @@
         <v>Missing: </v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1678,6 +2058,11 @@
       <formula>and(countif($A$1:$A2,$A3),$F3)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>isna($B3)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1696,7 +2081,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
-    <col customWidth="1" min="11" max="11" width="15.13"/>
+    <col customWidth="1" min="12" max="12" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1726,39 +2111,50 @@
         <v>Grad Year</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f t="array" ref="H1:H2">ifna(if(row(H:H)=1,'Advisor List'!F1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
+        <f t="array" ref="H1:H2">ifna(if(row(H:H)=1,'Student Folder Inventory'!B1,vlookup($A:$A,'Student Folder Inventory'!$A:$B,2,false)),)</f>
+        <v>Student Folder ID</v>
+      </c>
+      <c r="I1" s="20" t="str">
+        <f t="array" ref="I1:I2">ifna(if(row(I:I)=1,'Advisor List'!F1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor Email</v>
       </c>
-      <c r="I1" s="18" t="str">
-        <f t="array" ref="I1:I2">ifna(if(row(I:I)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
+      <c r="J1" s="18" t="str">
+        <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor First Name</v>
       </c>
-      <c r="J1" s="18" t="str">
-        <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
+      <c r="K1" s="18" t="str">
+        <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor Last Name</v>
       </c>
-      <c r="K1" s="18" t="str">
-        <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor Folder Inventory'!B1,vlookup($H:$H,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
+      <c r="L1" s="18" t="str">
+        <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Advisor Folder Inventory'!B1,vlookup($I:$I,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Advisor Folder ID</v>
       </c>
-      <c r="L1" s="18" t="str">
-        <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Form Folder Inventory'!B1,vlookup($G:$G,'Form Folder Inventory'!$A:$B,2,false)),)</f>
+      <c r="M1" s="18" t="str">
+        <f t="array" ref="M1:M2">ifna(if(row(M:M)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Form Folder ID</v>
       </c>
+      <c r="N1" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1766,6 +2162,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="25" t="str">
+        <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,2,false),"")</f>
+        <v>Student Email</v>
+      </c>
+      <c r="E1" s="25" t="str">
+        <f t="array" ref="E1:E2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,3,false),"")</f>
+        <v>Student First Name</v>
+      </c>
+      <c r="F1" s="25" t="str">
+        <f t="array" ref="F1:F2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,4,false),"")</f>
+        <v>Student Last Name</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1783,13 +2234,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="18" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
@@ -1800,22 +2251,22 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21" t="b">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1827,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1842,24 +2293,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +2321,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1890,119 +2384,119 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="C1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="J1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="25" t="s">
+      <c r="M1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>51</v>
+      <c r="Q1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="U1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Course Title"",iferror(index(REGEXEXTRACT(I:I,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="26" t="str">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="29" t="str">
         <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Include",not((((H:H=6100)+(H:H=6130)+(H:H=6132))*(P:P="Philosophy and Religious Studies"))))</f>
         <v>Include</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30" t="str">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33" t="str">
         <f t="array" ref="V2">SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="26">
         <f t="array" ref="W2">switch(Enrollment_Term,"Fall",1,"Winter",2,"Spring",3,0)-if(Enrollment_Dropped,0.5,0)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="31" t="str">
+      <c r="X2" s="26" t="str">
         <f t="array" ref="X2">if(Enrollment_Term&lt;&gt;"",if(countif(Enrollment_Original_Title,Enrollment_BaseTitle&amp;" (Y)"),,Enrollment_BaseTitle&amp;" ("&amp;Enrollment_Term&amp;")"),Enrollment_BaseTitle)&amp;if(Enrollment_Dropped," (Dropped)","")</f>
         <v/>
       </c>
-      <c r="Y2" s="31" t="b">
+      <c r="Y2" s="26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2011,152 +2505,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="$A$1:$H$2"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="8" max="11" width="15.13"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
-        <v>Course Title</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
-        <v>Formatted Description</v>
-      </c>
-      <c r="K1" s="18" t="str">
-        <f t="array" ref="K1:K2">if(row(K:K)=1,"Available",vlookup(A:A,'Available Courses'!A2:F$3,6,false))</f>
-        <v>Available</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="str">
-        <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
-        <v/>
-      </c>
-      <c r="H2" s="31">
-        <f t="array" ref="H2">switch(G2,"Fall",1,"Winter",2,"Spring",3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="31" t="str">
-        <f t="array" ref="I2">if(G2&lt;&gt;"",if(countif(Course_Title,F2&amp;" (Y)"),,F2&amp;" ("&amp;G2&amp;")"),F2)</f>
-        <v/>
-      </c>
-      <c r="J2" s="31" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="31" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:K2">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>not($K2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Course Plan URL</t>
-  </si>
-  <si>
-    <t>Student Folder</t>
   </si>
   <si>
     <t>Student Folder ID</t>
@@ -916,25 +913,25 @@
         <v>23</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -975,7 +972,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>19</v>
@@ -984,20 +981,20 @@
         <v>20</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="J1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
@@ -1064,37 +1061,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -2134,9 +2131,6 @@
         <f t="array" ref="M1:M2">ifna(if(row(M:M)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Form Folder ID</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="21"/>
@@ -2152,9 +2146,6 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="22" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2179,10 +2170,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="25" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,2,false),"")</f>
@@ -2202,13 +2193,13 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2234,13 +2225,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="18" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
@@ -2251,18 +2242,18 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2293,24 +2284,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2336,24 +2327,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2388,74 +2379,74 @@
         <v>23</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="U1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Course Title"",iferror(index(REGEXEXTRACT(I:I,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="V1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="Y1" s="29" t="str">
         <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Include",not((((H:H=6100)+(H:H=6130)+(H:H=6132))*(P:P="Philosophy and Religious Studies"))))</f>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -11,59 +11,49 @@
     <sheet state="visible" name="Advisor Folder Inventory" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Plans Form Folder Inventory" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Folders Form Folder Inventory" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Historical Enrollment" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Advisor List" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Course List" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Courses by Department" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Advisor List" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Course List" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Courses by Department" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Historical Enrollment" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Individual Enrollment History" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="Enrollment_Title">'Historical Enrollment'!$X$2</definedName>
+    <definedName name="Enrollment_Title">'Historical Enrollment'!$S:$S</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
-    <definedName name="Enrollment_Include">'Historical Enrollment'!$Y$2</definedName>
+    <definedName name="Param_StudentFolderNameFormat">Parameters!$B$4</definedName>
+    <definedName name="Enrollment_CourseCode">'Historical Enrollment'!$G:$G</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
-    <definedName name="Enrollment_Original_Title">'Historical Enrollment'!$I$2</definedName>
-    <definedName name="Enrollment_Year">'Historical Enrollment'!$G$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
-    <definedName name="Param_CollegeCounselingOffice">Parameters!$B$7</definedName>
-    <definedName name="Enrollment_TitleWithTerm">'Historical Enrollment'!$I$2</definedName>
-    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$5</definedName>
-    <definedName name="Enrollment_Dropped">'Historical Enrollment'!$S$2</definedName>
-    <definedName name="Enrollment_Order">'Historical Enrollment'!$W$2</definedName>
+    <definedName name="IEH_GradYear">'Individual Enrollment History'!$C$2</definedName>
+    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$6</definedName>
+    <definedName name="Enrollment_Order">'Historical Enrollment'!$R:$R</definedName>
+    <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$A:$A</definedName>
+    <definedName name="Course_Department">'Course List'!$D$2</definedName>
+    <definedName name="Param_StudiesCommittee">Parameters!$B$7</definedName>
+    <definedName name="Enrollment_Department">'Historical Enrollment'!$P:$P</definedName>
+    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$5</definedName>
+    <definedName name="Enrollment_Include">'Historical Enrollment'!$T:$T</definedName>
+    <definedName name="Enrollment_Year">'Historical Enrollment'!$F:$F</definedName>
+    <definedName name="IEH_HostID">'Individual Enrollment History'!$B$2</definedName>
+    <definedName name="Param_CollegeCounselingOffice">Parameters!$B$8</definedName>
+    <definedName name="Enrollment_TitleWithTerm">'Historical Enrollment'!$H:$H</definedName>
+    <definedName name="Enrollment_Status">'Historical Enrollment'!$N:$N</definedName>
+    <definedName name="Enrollment_Type">'Historical Enrollment'!$M:$M</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
-    <definedName name="Param_CoursePlanTemplate">Parameters!$B$8</definedName>
-    <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$A$2</definedName>
+    <definedName name="Param_CoursePlanTemplate">Parameters!$B$9</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
-    <definedName name="Course_Department">'Course List'!$D$2</definedName>
-    <definedName name="Enrollment_Term">'Historical Enrollment'!$V$2</definedName>
-    <definedName name="Param_StudiesCommittee">Parameters!$B$6</definedName>
-    <definedName name="Enrollment_Department">'Historical Enrollment'!$P$2</definedName>
+    <definedName name="Enrollment_Term">'Historical Enrollment'!$Q:$Q</definedName>
     <definedName name="Course_Title">'Course List'!$C$2</definedName>
-    <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$U$2</definedName>
-    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$4</definedName>
+    <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$O:$O</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'Historical Enrollment'!$A$1:$Y$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$H$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$I$2</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'Historical Enrollment'!$A$1:$T$2</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">Last updated from "Historical Enrollment for Course Planning" 4/3/2023, 11:38:09 AM</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -78,7 +68,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -94,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -129,6 +119,12 @@
     <t>Class of {{gradYear}}</t>
   </si>
   <si>
+    <t>Student Folder Name Format</t>
+  </si>
+  <si>
+    <t>{{lastName}}, {{firstName}} ‘{{abbrevGradYear}}</t>
+  </si>
+  <si>
     <t>Advisor Folder Name Format</t>
   </si>
   <si>
@@ -222,117 +218,143 @@
     <t>Student Email</t>
   </si>
   <si>
-    <t>Student User ID</t>
-  </si>
-  <si>
     <t>Student First Name</t>
   </si>
   <si>
     <t>Student Last Name</t>
   </si>
   <si>
-    <t>Student Grad Year</t>
-  </si>
-  <si>
-    <t>School Year</t>
+    <t>Grad Year</t>
+  </si>
+  <si>
+    <t>Advisor First Name</t>
+  </si>
+  <si>
+    <t>Advisor Last Name</t>
+  </si>
+  <si>
+    <t>,  ’-2000 []</t>
   </si>
   <si>
     <t>Course Code</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Group Identifier</t>
-  </si>
-  <si>
-    <t>Faculty User ID</t>
-  </si>
-  <si>
-    <t>Faculty First Name</t>
-  </si>
-  <si>
-    <t>Faculty Last Name</t>
-  </si>
-  <si>
-    <t>Begin Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Dropped</t>
-  </si>
-  <si>
-    <t>Dropped Comment</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Course Term</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Formatted Course Title</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Mathematics and Computer Science</t>
+  </si>
+  <si>
+    <t>World Language and Culture</t>
+  </si>
+  <si>
+    <t>Classics</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Philosophy and Religious Studies</t>
+  </si>
+  <si>
+    <t>History and Social Science</t>
+  </si>
+  <si>
+    <t>Theater and Dance</t>
+  </si>
+  <si>
+    <t>Visual Arts</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Non-Departmental</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Graduation year</t>
+  </si>
+  <si>
+    <t>School year</t>
+  </si>
+  <si>
+    <t>Course code</t>
+  </si>
+  <si>
+    <t>Course title</t>
   </si>
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Formatted Course Title</t>
-  </si>
-  <si>
-    <t>Grad Year</t>
-  </si>
-  <si>
-    <t>Advisor First Name</t>
-  </si>
-  <si>
-    <t>Advisor Last Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Course Term</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Mathematics and Computer Science</t>
-  </si>
-  <si>
-    <t>World Language and Culture</t>
-  </si>
-  <si>
-    <t>Classics</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Philosophy and Religious Studies</t>
-  </si>
-  <si>
-    <t>History and Social Science</t>
-  </si>
-  <si>
-    <t>Theater and Dance</t>
-  </si>
-  <si>
-    <t>Visual Arts</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Non-Departmental</t>
+    <t>Section identifier</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>Is incomplete</t>
+  </si>
+  <si>
+    <t>Enrollment type</t>
+  </si>
+  <si>
+    <t>Enrollment status</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Graduation Year</t>
+  </si>
+  <si>
+    <t>Numerical Year</t>
+  </si>
+  <si>
+    <t>II Form</t>
+  </si>
+  <si>
+    <t>III Form</t>
+  </si>
+  <si>
+    <t>IV Form</t>
+  </si>
+  <si>
+    <t>V Form</t>
+  </si>
+  <si>
+    <t>VI Form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -386,6 +408,19 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -425,13 +460,70 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -513,23 +605,62 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,6 +739,10 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -907,94 +1042,38 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="$A$1:$H$2"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="8" max="11" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>18</v>
+      <c r="A1" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
@@ -1006,13 +1085,13 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33" t="str">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="str">
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
@@ -1043,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1061,37 +1140,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1864,6 +1943,526 @@
       <c r="K50" s="26"/>
     </row>
   </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4.0" ySplit="1.0" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E1" sqref="E1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="E2" sqref="E2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.38"/>
+    <col customWidth="1" min="8" max="8" width="37.25"/>
+    <col customWidth="1" min="11" max="11" width="27.88"/>
+    <col customWidth="1" min="19" max="19" width="55.38"/>
+    <col customWidth="1" min="20" max="20" width="9.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="18" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(O:O)=1,""Course Title"",if(G:G=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(H:H,""^(.+)( \([FWSY]\))$""),0,1),H:H))))"),"Course Title")</f>
+        <v>Course Title</v>
+      </c>
+      <c r="P1" s="18" t="str">
+        <f t="array" ref="P1:P2">if(row(P:P)=1,"Department",if(K:K="History and Social Science | Philosophy and Religious Studies","History and Social Science",K:K))</f>
+        <v>Department</v>
+      </c>
+      <c r="Q1" s="18" t="str">
+        <f t="array" ref="Q1:Q2">if(row(Q:Q)=1,"Term",if(G:G=5741,"Fall, Winter",SWITCH(right(H:H,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "Year","Year")))</f>
+        <v>Term</v>
+      </c>
+      <c r="R1" s="18" t="str">
+        <f t="array" ref="R1:R2">if(row(R:R)=1,"Order",switch(I:I,"Fall Term",1,"Winter Term",2,"Spring Term",3,0)-if(N:N="Dropped",0.5,0))</f>
+        <v>Order</v>
+      </c>
+      <c r="S1" s="18" t="str">
+        <f t="array" ref="S1:S2">if(row(S:S)=1,"Formatted Course Title",O:O&amp;if((M:M="Audit")+(N:N="Dropped")+((Q:Q&lt;&gt;"Year")*(Q:Q&lt;&gt;""))," ("&amp;if((Q:Q&lt;&gt;"")*(Q:Q&lt;&gt;"Year"),Q:Q,"")&amp;if((Q:Q&lt;&gt;"")*(Q:Q&lt;&gt;"Year")*(M:M="Audit"),", ","")&amp;if(M:M="Audit","Audit","")&amp;If((M:M="Audit")*(N:N="Dropped"),", ","")&amp;if(N:N="Dropped","Dropped","")&amp;")",""))</f>
+        <v>Formatted Course Title</v>
+      </c>
+      <c r="T1" s="32" t="str">
+        <f t="array" ref="T1:T2">if(row(T:T)=1,"Include",(N:N="Enrolled")+((N:N="Dropped")*(countifs(Enrollment_Host_ID,A:A,Enrollment_CourseCode,G:G,Enrollment_Year,F:F,Enrollment_Term,Q:Q,Enrollment_Status,"Enrolled")=0)))</f>
+        <v>Include</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$T$2">
+    <sortState ref="A1:T2">
+      <sortCondition ref="D1:D2"/>
+      <sortCondition ref="C1:C2"/>
+      <sortCondition ref="F1:F2"/>
+      <sortCondition ref="I1:I2"/>
+      <sortCondition ref="P1:P2"/>
+      <sortCondition ref="G1:G2"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="30.5"/>
+    <col customWidth="1" min="2" max="6" width="22.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("if(A2&lt;&gt;"""",A2,REGEXEXTRACT(A1,""\[(.+)\]$""))"),"#N/A")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="38" t="str">
+        <f t="array" ref="C2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="40" t="str">
+        <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45" t="str">
+        <f t="array" ref="B5:F5">(B3:F3-1)&amp;" - "&amp;B3:F3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1">
+      <formula1>'Advisor List'!$I$2:$I16</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1929,33 +2528,41 @@
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B6:B7">
-      <formula1>IFERROR(ISEMAIL(B6), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B7:B8">
+      <formula1>IFERROR(ISEMAIL(B7), true)</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2">
       <formula1>2.0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B3:B5">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B3:B6">
       <formula1>NOT(ISERROR(SEARCH(("{{"),(B3))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B8">
-      <formula1>IFERROR(ISURL(B8), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B9">
+      <formula1>IFERROR(ISURL(B9), true)</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
       <formula1>1.0</formula1>
@@ -1992,23 +2599,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14" t="str">
         <f t="array" ref="B2:E3">vlookup($A2:$A3,{'Course List'!$A:$D,'Course List'!$J:$J},column(B:E),false)</f>
         <v>Course Code</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -2083,13 +2690,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="18" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!B1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
@@ -2167,13 +2774,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="25" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,2,false),"")</f>
@@ -2193,13 +2800,13 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2225,13 +2832,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="18" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
@@ -2242,18 +2849,18 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -2284,24 +2891,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2327,24 +2934,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2368,131 +2975,54 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="9" max="9" width="37.25"/>
-    <col customWidth="1" min="16" max="16" width="27.88"/>
-    <col customWidth="1" min="24" max="24" width="55.38"/>
-    <col customWidth="1" min="25" max="25" width="9.38"/>
+    <col customWidth="1" min="9" max="9" width="32.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="18" t="str">
+        <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
+        <v>Menu Option</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="18" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Course Title"",iferror(index(REGEXEXTRACT(I:I,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
-        <v>Course Title</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="29" t="str">
-        <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Include",not((((H:H=6100)+(H:H=6130)+(H:H=6132))*(P:P="Philosophy and Religious Studies"))))</f>
-        <v>Include</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="str">
-        <f t="array" ref="V2">SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
-        <v/>
-      </c>
-      <c r="W2" s="26">
-        <f t="array" ref="W2">switch(Enrollment_Term,"Fall",1,"Winter",2,"Spring",3,0)-if(Enrollment_Dropped,0.5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="26" t="str">
-        <f t="array" ref="X2">if(Enrollment_Term&lt;&gt;"",if(countif(Enrollment_Original_Title,Enrollment_BaseTitle&amp;" (Y)"),,Enrollment_BaseTitle&amp;" ("&amp;Enrollment_Term&amp;")"),Enrollment_BaseTitle)&amp;if(Enrollment_Dropped," (Dropped)","")</f>
-        <v/>
-      </c>
-      <c r="Y2" s="26" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Y$2"/>
+  <autoFilter ref="$A$1:$I$2"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -194,7 +194,7 @@
     <t>ROOT</t>
   </si>
   <si>
-    <t>FOLDER_ID</t>
+    <t>FILE_ID</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/FOLDER_ID</t>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -578,27 +578,35 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1047,67 +1055,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="18" t="str">
+      <c r="F1" s="28" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="18" t="str">
+      <c r="J1" s="28" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
         <v>Formatted Description</v>
       </c>
-      <c r="K1" s="18" t="str">
+      <c r="K1" s="28" t="str">
         <f t="array" ref="K1:K2">if(row(K:K)=1,"Available",vlookup(A:A,'Available Courses'!A2:F$3,6,false))</f>
         <v>Available</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="str">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="str">
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="27">
         <f t="array" ref="H2">switch(G2,"Fall",1,"Winter",2,"Spring",3,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="27" t="str">
         <f t="array" ref="I2">if(G2&lt;&gt;"",if(countif(Course_Title,F2&amp;" (Y)"),,F2&amp;" ("&amp;G2&amp;")"),F2)</f>
         <v/>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K2" s="26" t="e">
+      <c r="K2" s="27" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -1139,808 +1147,808 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="26" t="str">
+      <c r="G2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="26" t="str">
+      <c r="H2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="26" t="str">
+      <c r="K2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="H3" s="26" t="str">
+      <c r="H3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="26" t="str">
+      <c r="I3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="J3" s="26" t="str">
+      <c r="J3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="26" t="str">
+      <c r="K3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="E4" s="26" t="str">
+      <c r="E4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="F4" s="26" t="str">
+      <c r="F4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="I4" s="26" t="str">
+      <c r="I4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
+      <c r="A5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="E5" s="26" t="str">
+      <c r="E5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="F5" s="26" t="str">
+      <c r="F5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="J5" s="26" t="str">
+      <c r="J5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1970,101 +1978,101 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="18" t="str">
+      <c r="O1" s="28" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(O:O)=1,""Course Title"",if(G:G=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(H:H,""^(.+)( \([FWSY]\))$""),0,1),H:H))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
-      <c r="P1" s="18" t="str">
+      <c r="P1" s="28" t="str">
         <f t="array" ref="P1:P2">if(row(P:P)=1,"Department",if(K:K="History and Social Science | Philosophy and Religious Studies","History and Social Science",K:K))</f>
         <v>Department</v>
       </c>
-      <c r="Q1" s="18" t="str">
+      <c r="Q1" s="28" t="str">
         <f t="array" ref="Q1:Q2">if(row(Q:Q)=1,"Term",if(G:G=5741,"Fall, Winter",SWITCH(right(H:H,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "Year","Year")))</f>
         <v>Term</v>
       </c>
-      <c r="R1" s="18" t="str">
+      <c r="R1" s="28" t="str">
         <f t="array" ref="R1:R2">if(row(R:R)=1,"Order",switch(I:I,"Fall Term",1,"Winter Term",2,"Spring Term",3,0)-if(N:N="Dropped",0.5,0))</f>
         <v>Order</v>
       </c>
-      <c r="S1" s="18" t="str">
+      <c r="S1" s="28" t="str">
         <f t="array" ref="S1:S2">if(row(S:S)=1,"Formatted Course Title",O:O&amp;if((M:M="Audit")+(N:N="Dropped")+((Q:Q&lt;&gt;"Year")*(Q:Q&lt;&gt;""))," ("&amp;if((Q:Q&lt;&gt;"")*(Q:Q&lt;&gt;"Year"),Q:Q,"")&amp;if((Q:Q&lt;&gt;"")*(Q:Q&lt;&gt;"Year")*(M:M="Audit"),", ","")&amp;if(M:M="Audit","Audit","")&amp;If((M:M="Audit")*(N:N="Dropped"),", ","")&amp;if(N:N="Dropped","Dropped","")&amp;")",""))</f>
         <v>Formatted Course Title</v>
       </c>
-      <c r="T1" s="32" t="str">
-        <f t="array" ref="T1:T2">if(row(T:T)=1,"Include",(N:N="Enrolled")+((N:N="Dropped")*(countifs(Enrollment_Host_ID,A:A,Enrollment_CourseCode,G:G,Enrollment_Year,F:F,Enrollment_Term,Q:Q,Enrollment_Status,"Enrolled")=0)))</f>
-        <v>Include</v>
+      <c r="T1" s="34" t="b">
+        <f t="array" ref="T1:T2">if(row(T:T)=1,"Include",(N:N="Enrolled")+((N:N="Dropped")*(countifs(Enrollment_Host_ID,A:A,Enrollment_CourseCode,G:G,Enrollment_Year,F:F,Enrollment_Term,Q:Q,Enrollment_Status,"Enrolled")=0)))&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="32">
         <v>0.0</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="30">
-        <v>0.0</v>
+      <c r="T2" s="32" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2097,362 +2105,360 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38" t="str">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("if(A2&lt;&gt;"""",A2,REGEXEXTRACT(A1,""\[(.+)\]$""))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="38" t="str">
+      <c r="C2" s="40" t="str">
         <f t="array" ref="C2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="40" t="e">
+      <c r="C3" s="42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="41" t="e">
+      <c r="D3" s="43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="41" t="e">
+      <c r="E3" s="43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="42" t="e">
+      <c r="F3" s="44" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45" t="str">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47" t="str">
         <f t="array" ref="B5:F5">(B3:F3-1)&amp;" - "&amp;B3:F3</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="45" t="e">
+      <c r="C5" s="47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D5" s="45" t="e">
+      <c r="D5" s="47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="45" t="e">
+      <c r="E5" s="47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" s="45" t="e">
+      <c r="F5" s="47" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="47" t="str">
+      <c r="B6" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C6" s="47" t="str">
+      <c r="C6" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D6" s="47" t="str">
+      <c r="D6" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E6" s="47" t="str">
+      <c r="E6" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F6" s="47" t="str">
+      <c r="F6" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="47" t="str">
+      <c r="B7" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C7" s="47" t="str">
+      <c r="C7" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D7" s="47" t="str">
+      <c r="D7" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E7" s="47" t="str">
+      <c r="E7" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F7" s="47" t="str">
+      <c r="F7" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="47" t="str">
+      <c r="B8" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C8" s="47" t="str">
+      <c r="C8" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D8" s="47" t="str">
+      <c r="D8" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E8" s="47" t="str">
+      <c r="E8" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F8" s="47" t="str">
+      <c r="F8" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="47" t="str">
+      <c r="B9" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C9" s="47" t="str">
+      <c r="C9" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E9" s="47" t="str">
+      <c r="E9" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F9" s="47" t="str">
+      <c r="F9" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C10" s="47" t="str">
+      <c r="C10" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E10" s="47" t="str">
+      <c r="E10" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F10" s="47" t="str">
+      <c r="F10" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C11" s="47" t="str">
+      <c r="C11" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E11" s="47" t="str">
+      <c r="E11" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F11" s="47" t="str">
+      <c r="F11" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C12" s="47" t="str">
+      <c r="C12" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D12" s="47" t="str">
+      <c r="D12" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E12" s="47" t="str">
+      <c r="E12" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F12" s="47" t="str">
+      <c r="F12" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C13" s="47" t="str">
+      <c r="C13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D13" s="47" t="str">
+      <c r="D13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E13" s="47" t="str">
+      <c r="E13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F13" s="47" t="str">
+      <c r="F13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="47" t="str">
+      <c r="B14" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C14" s="47" t="str">
+      <c r="C14" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D14" s="47" t="str">
+      <c r="D14" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E14" s="47" t="str">
+      <c r="E14" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="47" t="str">
+      <c r="F14" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="47" t="str">
+      <c r="B15" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C15" s="47" t="str">
+      <c r="C15" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D15" s="47" t="str">
+      <c r="D15" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E15" s="47" t="str">
+      <c r="E15" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F15" s="47" t="str">
+      <c r="F15" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="47" t="str">
+      <c r="B16" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C16" s="47" t="str">
+      <c r="C16" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D16" s="47" t="str">
+      <c r="D16" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E16" s="47" t="str">
+      <c r="E16" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F16" s="47" t="str">
+      <c r="F16" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
@@ -2685,74 +2691,91 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
-    <col customWidth="1" min="12" max="12" width="15.13"/>
+    <col customWidth="1" min="10" max="10" width="11.13"/>
+    <col customWidth="1" min="11" max="11" width="13.25"/>
+    <col customWidth="1" min="12" max="12" width="7.25"/>
+    <col customWidth="1" min="13" max="13" width="6.5"/>
+    <col customWidth="1" min="14" max="14" width="10.38"/>
+    <col customWidth="1" min="15" max="15" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="18" t="str">
+      <c r="D1" s="19" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!B1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="18" t="str">
+      <c r="E1" s="19" t="str">
         <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!C1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="18" t="str">
+      <c r="F1" s="19" t="str">
         <f t="array" ref="F1:F2">ifna(if(row(F:F)=1,'Advisor List'!D1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="18" t="str">
+      <c r="G1" s="19" t="str">
         <f t="array" ref="G1:G2">ifna(if(row(G:G)=1,'Advisor List'!E1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false)),)</f>
         <v>Grad Year</v>
       </c>
-      <c r="H1" s="19" t="str">
+      <c r="H1" s="20" t="str">
         <f t="array" ref="H1:H2">ifna(if(row(H:H)=1,'Student Folder Inventory'!B1,vlookup($A:$A,'Student Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Student Folder ID</v>
       </c>
-      <c r="I1" s="20" t="str">
+      <c r="I1" s="21" t="str">
         <f t="array" ref="I1:I2">ifna(if(row(I:I)=1,'Advisor List'!F1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor Email</v>
       </c>
-      <c r="J1" s="18" t="str">
+      <c r="J1" s="19" t="str">
         <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor First Name</v>
       </c>
-      <c r="K1" s="18" t="str">
+      <c r="K1" s="19" t="str">
         <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false)),)</f>
         <v>Advisor Last Name</v>
       </c>
-      <c r="L1" s="18" t="str">
+      <c r="L1" s="19" t="str">
         <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Advisor Folder Inventory'!B1,vlookup($I:$I,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Advisor Folder ID</v>
       </c>
-      <c r="M1" s="18" t="str">
+      <c r="M1" s="19" t="str">
         <f t="array" ref="M1:M2">ifna(if(row(M:M)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Form Folder ID</v>
       </c>
+      <c r="N1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="O2" s="23">
+        <v>6.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2782,30 +2805,30 @@
       <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="str">
+      <c r="D1" s="26" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,2,false),"")</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="25" t="str">
+      <c r="E1" s="26" t="str">
         <f t="array" ref="E1:E2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,3,false),"")</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="25" t="str">
+      <c r="F1" s="26" t="str">
         <f t="array" ref="F1:F2">if($A:$A&lt;&gt;"",vlookup($A:$A,'Advisor List'!$A:$D,4,false),"")</f>
         <v>Student Last Name</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2840,11 +2863,11 @@
       <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18" t="str">
+      <c r="D1" s="28" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
         <v>Advisor First Name</v>
       </c>
-      <c r="E1" s="18" t="str">
+      <c r="E1" s="28" t="str">
         <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
         <v>Advisor Last Name</v>
       </c>
@@ -2853,18 +2876,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="b">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2901,13 +2924,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2944,13 +2967,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2979,45 +3002,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="18" t="str">
+      <c r="I1" s="28" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
         <v>Menu Option</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32" t="s">
         <v>49</v>
       </c>
     </row>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -18,13 +18,14 @@
     <sheet state="visible" name="Individual Enrollment History" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="IEH_Years">'Individual Enrollment History'!$B$5:$F$5</definedName>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$S:$S</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
     <definedName name="Param_StudentFolderNameFormat">Parameters!$B$4</definedName>
     <definedName name="Enrollment_CourseCode">'Historical Enrollment'!$G:$G</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
-    <definedName name="IEH_GradYear">'Individual Enrollment History'!$C$2</definedName>
+    <definedName name="IEH_GradYear">'Individual Enrollment History'!$D$2</definedName>
     <definedName name="Param_CoursePlanNameFormat">Parameters!$B$6</definedName>
     <definedName name="Enrollment_Order">'Historical Enrollment'!$R:$R</definedName>
     <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$A:$A</definedName>
@@ -32,13 +33,17 @@
     <definedName name="Param_StudiesCommittee">Parameters!$B$7</definedName>
     <definedName name="Enrollment_Department">'Historical Enrollment'!$P:$P</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$5</definedName>
+    <definedName name="IEH_HostID_Selector">'Individual Enrollment History'!$A$2</definedName>
+    <definedName name="IEH_EnrollmentHistory">'Individual Enrollment History'!$B$6:$F$16</definedName>
     <definedName name="Enrollment_Include">'Historical Enrollment'!$T:$T</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$F:$F</definedName>
     <definedName name="IEH_HostID">'Individual Enrollment History'!$B$2</definedName>
     <definedName name="Param_CollegeCounselingOffice">Parameters!$B$8</definedName>
     <definedName name="Enrollment_TitleWithTerm">'Historical Enrollment'!$H:$H</definedName>
+    <definedName name="IEH_NumericalYears">'Individual Enrollment History'!$B$3:$F$3</definedName>
     <definedName name="Enrollment_Status">'Historical Enrollment'!$N:$N</definedName>
     <definedName name="Enrollment_Type">'Historical Enrollment'!$M:$M</definedName>
+    <definedName name="IEH_Departments">'Individual Enrollment History'!$A$6:$A$16</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$9</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
@@ -84,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -324,6 +329,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
   <si>
     <t>Graduation Year</t>
@@ -2112,7 +2120,9 @@
       <c r="C1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
@@ -2123,16 +2133,19 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="40" t="str">
-        <f t="array" ref="C2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
+        <f t="array" ref="C2">join(" ",INDEX('Advisor List'!C:D,match(B2,'Advisor List'!A:A,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="40" t="str">
+        <f t="array" ref="D2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="42" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
@@ -2154,19 +2167,19 @@
     <row r="4">
       <c r="A4" s="45"/>
       <c r="B4" s="46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -30,11 +30,15 @@
     <definedName name="Param_CoursePlanNameFormat">Parameters!$B$6</definedName>
     <definedName name="Enrollment_DepartmentList">'Historical Enrollment'!$L:$L</definedName>
     <definedName name="Enrollment_Order">'Historical Enrollment'!$S:$S</definedName>
+    <definedName name="Clean_Params">Parameters!$B$7:$B$9</definedName>
     <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$D:$D</definedName>
     <definedName name="Course_Department">'Course List'!$D$2</definedName>
     <definedName name="Param_StudiesCommittee">Parameters!$B$7</definedName>
     <definedName name="Enrollment_Department">'Historical Enrollment'!$Q:$Q</definedName>
+    <definedName name="Clean_AvailableCourses">'Available Courses'!$A$3</definedName>
+    <definedName name="RollOver_CoursePlanPermissions">'Course Plan Inventory'!$R$2</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$5</definedName>
+    <definedName name="Param_RollOverAcademicYear">Parameters!$B$10</definedName>
     <definedName name="IEH_HostID_Selector">'Individual Enrollment History'!$A$2</definedName>
     <definedName name="IEH_EnrollmentHistory">'Individual Enrollment History'!$B$6:$F$16</definedName>
     <definedName name="Enrollment_Include">'Historical Enrollment'!$U:$U</definedName>
@@ -47,12 +51,14 @@
     <definedName name="Enrollment_Type">'Historical Enrollment'!$N:$N</definedName>
     <definedName name="IEH_Departments">'Individual Enrollment History'!$A$6:$A$16</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
+    <definedName name="RollOver_StudentFolderPermissions">'Student Folder Inventory'!$I$2</definedName>
     <definedName name="Enrollment_ParentheticalNote">'Historical Enrollment'!$P:$P</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$9</definedName>
     <definedName name="Enrollment_TermName">'Historical Enrollment'!$K:$K</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
     <definedName name="Enrollment_Term">'Historical Enrollment'!$R:$R</definedName>
     <definedName name="Course_Title">'Course List'!$C$2</definedName>
+    <definedName name="Clean_IEH">'Individual Enrollment History'!$A$1:$A$2</definedName>
     <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$O:$O</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
   </definedNames>
@@ -68,7 +74,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 8/7/2023, 12:56:27 PM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 8/8/2023, 11:28:01 AM</t>
       </text>
     </comment>
   </commentList>
@@ -91,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -153,6 +159,9 @@
     <t>Course Plan Template</t>
   </si>
   <si>
+    <t>Roll-over Academic Year</t>
+  </si>
+  <si>
     <t>Course ID</t>
   </si>
   <si>
@@ -178,6 +187,9 @@
   </si>
   <si>
     <t>Permissions Updated</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
   <si>
     <t>Student Folder ID</t>
@@ -364,8 +376,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -573,6 +586,9 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -616,7 +632,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -638,11 +653,13 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1073,40 +1090,40 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="35" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="E1" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1131,32 +1148,32 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
@@ -1178,19 +1195,19 @@
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="27">
         <f t="array" ref="H2">switch(G2,"Fall",1,"Winter",2,"Spring",3,0)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="27" t="str">
         <f t="array" ref="I2">if(G2&lt;&gt;"",if(countif(Course_Title,F2&amp;" (Y)"),,F2&amp;" ("&amp;G2&amp;")"),F2)</f>
         <v/>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K2" s="26" t="e">
+      <c r="K2" s="27" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -1223,807 +1240,807 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="26" t="str">
+      <c r="F2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="26" t="str">
+      <c r="G2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="26" t="str">
+      <c r="H2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="26" t="str">
+      <c r="I2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="26" t="str">
+      <c r="K2" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$F$2:$I50,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="G3" s="26" t="str">
+      <c r="G3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="H3" s="26" t="str">
+      <c r="H3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="26" t="str">
+      <c r="I3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="J3" s="26" t="str">
+      <c r="J3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="26" t="str">
+      <c r="K3" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="E4" s="26" t="str">
+      <c r="E4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="F4" s="26" t="str">
+      <c r="F4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="G4" s="26" t="str">
+      <c r="G4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="I4" s="26" t="str">
+      <c r="I4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
+      <c r="A5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="B5" s="26" t="str">
+      <c r="B5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="E5" s="26" t="str">
+      <c r="E5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="F5" s="26" t="str">
+      <c r="F5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="G5" s="26" t="str">
+      <c r="G5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="I5" s="26" t="str">
+      <c r="I5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="J5" s="26" t="str">
+      <c r="J5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2054,46 +2071,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O1" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_BaseTitle)=1,""Base Title"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\))$""),0,1),Enrollment_TitleWithTerm))))"),"Base Title")</f>
@@ -2143,13 +2160,13 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
       <c r="R2" s="34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S2" s="34">
         <v>0.0</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U2" s="34" t="b">
         <v>0</v>
@@ -2177,13 +2194,13 @@
     <row r="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
@@ -2207,7 +2224,7 @@
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="44" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
@@ -2229,19 +2246,19 @@
     <row r="4">
       <c r="A4" s="47"/>
       <c r="B4" s="48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -2265,7 +2282,7 @@
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
@@ -2290,7 +2307,7 @@
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
@@ -2315,7 +2332,7 @@
     </row>
     <row r="8">
       <c r="A8" s="50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
@@ -2340,7 +2357,7 @@
     </row>
     <row r="9">
       <c r="A9" s="50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
@@ -2365,7 +2382,7 @@
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
@@ -2390,7 +2407,7 @@
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
@@ -2415,7 +2432,7 @@
     </row>
     <row r="12">
       <c r="A12" s="50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
@@ -2440,7 +2457,7 @@
     </row>
     <row r="13">
       <c r="A13" s="50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
@@ -2465,7 +2482,7 @@
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
@@ -2490,7 +2507,7 @@
     </row>
     <row r="15">
       <c r="A15" s="50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
@@ -2515,7 +2532,7 @@
     </row>
     <row r="16">
       <c r="A16" s="50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="51" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
@@ -2631,10 +2648,21 @@
       </c>
       <c r="B9" s="11"/>
     </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45146.0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2">
       <formula1>2.0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B10">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B10))), AND(ISNUMBER(B10), LEFT(CELL("format", B10))="D"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B9">
       <formula1>IFERROR(ISURL(B9), true)</formula1>
@@ -2673,44 +2701,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="13" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ifna(""Missing: ""&amp;join("", "",filter(Course_Title,isna(Course_Available))),""All courses synced from Blackbaud are shown in this list. Scan the list for red/yellow highlighted duplicates if necessary."")"),"Missing: ")</f>
         <v>Missing: </v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="14" t="str">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15" t="str">
         <f t="array" ref="B2:E3">vlookup($A2:$A3,{'Course List'!$A:$D,'Course List'!$J:$J},column(B:E),false)</f>
         <v>Course Code</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="e">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" s="17" t="e">
+      <c r="C3" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="17" t="e">
+      <c r="D3" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="17" t="e">
+      <c r="E3" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="F3" s="7" t="b">
@@ -2772,105 +2800,112 @@
     <col customWidth="1" min="13" max="13" width="6.5"/>
     <col customWidth="1" min="14" max="14" width="10.38"/>
     <col customWidth="1" min="15" max="17" width="9.63"/>
-    <col customWidth="1" min="18" max="18" width="11.13"/>
+    <col customWidth="1" min="18" max="19" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="19" t="str">
+      <c r="C1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!B1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-2,false))),)</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="19" t="str">
+      <c r="E1" s="20" t="str">
         <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!C1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-2,false))),)</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="19" t="str">
+      <c r="F1" s="20" t="str">
         <f t="array" ref="F1:F2">ifna(if(row(F:F)=1,'Advisor List'!D1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-2,false))),)</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="19" t="str">
+      <c r="G1" s="20" t="str">
         <f t="array" ref="G1:G2">ifna(if(row(G:G)=1,'Advisor List'!E1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-2,false))),)</f>
         <v>Grad Year</v>
       </c>
-      <c r="H1" s="20" t="str">
+      <c r="H1" s="21" t="str">
         <f t="array" ref="H1:H2">ifna(if(row(H:H)=1,'Student Folder Inventory'!B1,vlookup($A:$A,'Student Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Student Folder ID</v>
       </c>
-      <c r="I1" s="21" t="str">
+      <c r="I1" s="22" t="str">
         <f t="array" ref="I1:I2">ifna(if(row(I:I)=1,'Advisor List'!F1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-3,false))),)</f>
         <v>Advisor Email</v>
       </c>
-      <c r="J1" s="19" t="str">
+      <c r="J1" s="20" t="str">
         <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-3,false))),)</f>
         <v>Advisor First Name</v>
       </c>
-      <c r="K1" s="19" t="str">
+      <c r="K1" s="20" t="str">
         <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor List'!H1,ifna(vlookup($A:$A,'Advisor List'!$A:$H,COLUMN()-3,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$H,COLUMN()-3,false))),)</f>
         <v>Advisor Last Name</v>
       </c>
-      <c r="L1" s="19" t="str">
+      <c r="L1" s="20" t="str">
         <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Advisor Folder Inventory'!B1,vlookup($I:$I,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Advisor Folder ID</v>
       </c>
-      <c r="M1" s="19" t="str">
+      <c r="M1" s="20" t="str">
         <f t="array" ref="M1:M2">ifna(if(row(M:M)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Form Folder ID</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="19" t="str">
+      <c r="P1" s="20" t="str">
         <f t="array" ref="P1:P2">if(row(P:P)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1)))</f>
         <v>Inactive</v>
       </c>
-      <c r="Q1" s="19" t="str">
+      <c r="Q1" s="20" t="str">
         <f t="array" ref="Q1:Q2">if(row(Q:Q)=1,"New Advisor",iferror(if((P:P=false)*(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!F:F)&lt;&gt;xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F))=1,true,false),false))</f>
         <v>New Advisor</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>28</v>
+      <c r="R1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="23">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24">
         <v>4.0</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="24">
         <v>6.0</v>
       </c>
-      <c r="P2" s="26" t="b">
+      <c r="P2" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="26" t="b">
+      <c r="Q2" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="R2" s="27" t="b">
+      <c r="R2" s="23" t="b">
         <v>0</v>
+      </c>
+      <c r="S2" s="23" t="str">
+        <f>"0.2.0"</f>
+        <v>0.2.0</v>
       </c>
     </row>
   </sheetData>
@@ -2898,14 +2933,14 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>30</v>
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="28" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,2,false)),"")</f>
@@ -2919,38 +2954,38 @@
         <f t="array" ref="F1:F2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,4,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,4,false)),"")</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="19" t="str">
+      <c r="G1" s="20" t="str">
         <f t="array" ref="G1:G2">if(row(G:G)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1)))</f>
         <v>Inactive</v>
       </c>
-      <c r="H1" s="19" t="str">
+      <c r="H1" s="20" t="str">
         <f t="array" ref="H1:H2">if(row(H:H)=1,"New Advisor",iferror(if((G:G=false)*(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!F:F)&lt;&gt;xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F))=1,true,false),false))</f>
         <v>New Advisor</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>28</v>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="26" t="b">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="26" t="b">
+      <c r="H2" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="27" t="b">
+      <c r="I2" s="23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2977,13 +3012,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="29" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
@@ -2994,22 +3029,22 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
+      <c r="A2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23" t="b">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3036,24 +3071,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C2" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3079,24 +3114,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3125,28 +3160,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="29" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
@@ -3163,7 +3198,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -74,7 +74,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 8/8/2023, 11:28:01 AM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 8/11/2023, 7:12:09 AM</t>
       </text>
     </comment>
   </commentList>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Student Folder ID</t>
@@ -549,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -608,32 +611,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1024,11 +1033,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.5"/>
+    <col customWidth="1" min="1" max="1" width="36.63"/>
     <col customWidth="1" min="2" max="2" width="3.63"/>
   </cols>
   <sheetData>
@@ -1094,25 +1103,25 @@
         <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1120,7 +1129,7 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="35"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -1147,51 +1156,51 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="29" t="str">
+      <c r="E1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="29" t="str">
+      <c r="I1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
         <v>Formatted Description</v>
       </c>
-      <c r="K1" s="29" t="str">
+      <c r="K1" s="31" t="str">
         <f t="array" ref="K1:K2">if(row(K:K)=1,"Available",vlookup(A:A,'Available Courses'!A2:F$3,6,false))</f>
         <v>Available</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="str">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36" t="str">
         <f t="array" ref="G2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
@@ -1239,38 +1248,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>68</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -2070,105 +2079,105 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="29" t="str">
+      <c r="N1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_BaseTitle)=1,""Base Title"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\))$""),0,1),Enrollment_TitleWithTerm))))"),"Base Title")</f>
         <v>Base Title</v>
       </c>
-      <c r="P1" s="29" t="str">
+      <c r="P1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_ParentheticalNote)=1,""Parenthetical Note"",ifna(REGEXEXTRACT(Enrollment_BaseTitle,""\((.+)\)""),)))"),"Parenthetical Note")</f>
         <v>Parenthetical Note</v>
       </c>
-      <c r="Q1" s="29" t="str">
+      <c r="Q1" s="31" t="str">
         <f t="array" ref="Q1:Q2">if(row(Enrollment_Department)=1,"Department",ifna(if(Enrollment_DepartmentList="History and Social Science | Philosophy and Religious Studies","History and Social Science",Enrollment_DepartmentList)))</f>
         <v>Department</v>
       </c>
-      <c r="R1" s="29" t="str">
+      <c r="R1" s="31" t="str">
         <f t="array" ref="R1:R2">if(row(Enrollment_Term)=1,"Term",if(Enrollment_CourseCode=5741,"Fall, Winter",SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "Year","Year")))</f>
         <v>Term</v>
       </c>
-      <c r="S1" s="29" t="str">
+      <c r="S1" s="31" t="str">
         <f t="array" ref="S1:S2">if(row(Enrollment_Order)=1,"Order",switch(Enrollment_TermName,"Fall Term",1,"Winter Term",2,"Spring Term",3,0)-if(Enrollment_Status="Dropped",0.5,0))</f>
         <v>Order</v>
       </c>
-      <c r="T1" s="29" t="str">
+      <c r="T1" s="31" t="str">
         <f t="array" ref="T1:T2">if(row(Enrollment_Title)=1,"Formatted Course Title",if(Enrollment_ParentheticalNote&lt;&gt;"",left(Enrollment_BaseTitle, len(Enrollment_BaseTitle)-1),Enrollment_BaseTitle)&amp;if((Enrollment_Type="Audit")+(Enrollment_Status="Dropped")+((Enrollment_Term&lt;&gt;"Year")*(Enrollment_Term&lt;&gt;"")),if(Enrollment_ParentheticalNote&lt;&gt;"",", "," (")&amp;if((Enrollment_Term&lt;&gt;"")*(Enrollment_Term&lt;&gt;"Year"),Enrollment_Term,"")&amp;if((Enrollment_Term&lt;&gt;"")*(Enrollment_Term&lt;&gt;"Year")*(Enrollment_Type="Audit"),", ","")&amp;if(Enrollment_Type="Audit","Audit","")&amp;If((Enrollment_Type="Audit")*(Enrollment_Status="Dropped"),", ","")&amp;if(Enrollment_Status="Dropped","Dropped","")&amp;")",if(Enrollment_ParentheticalNote&lt;&gt;"",")","")))</f>
         <v>Formatted Course Title</v>
       </c>
-      <c r="U1" s="36" t="str">
+      <c r="U1" s="38" t="str">
         <f t="array" ref="U1:U2">if(row(Enrollment_Include)=1,"Include",((Enrollment_Status="Enrolled")+((Enrollment_Status="Dropped")*(countifs(Enrollment_Host_ID,Enrollment_Host_ID,Enrollment_CourseCode,Enrollment_CourseCode,Enrollment_Year,Enrollment_Year,Enrollment_Term,Enrollment_Term,Enrollment_Status,"Enrolled")=0)))&gt;0)</f>
         <v>Include</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="34">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="36">
         <v>0.0</v>
       </c>
-      <c r="T2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="34" t="b">
+      <c r="T2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2192,365 +2201,365 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="D1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42" t="str">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("if(A2&lt;&gt;"""",A2,REGEXEXTRACT(A1,""\[(.+)\]$""))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="42" t="str">
+      <c r="C2" s="44" t="str">
         <f t="array" ref="C2">join(" ",INDEX('Advisor List'!C:D,match(B2,'Advisor List'!A:A,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="42" t="str">
+      <c r="D2" s="44" t="str">
         <f t="array" ref="D2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="44" t="str">
+      <c r="A3" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="46" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="44" t="e">
+      <c r="C3" s="46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="45" t="e">
+      <c r="D3" s="47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="45" t="e">
+      <c r="E3" s="47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="46" t="e">
+      <c r="F3" s="48" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="50" t="s">
         <v>90</v>
       </c>
+      <c r="F4" s="50" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="49" t="str">
+      <c r="A5" s="49"/>
+      <c r="B5" s="51" t="str">
         <f t="array" ref="B5:F5">(B3:F3-1)&amp;" - "&amp;B3:F3</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="49" t="e">
+      <c r="C5" s="51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D5" s="49" t="e">
+      <c r="D5" s="51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="49" t="e">
+      <c r="E5" s="51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" s="49" t="e">
+      <c r="F5" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="51" t="str">
+      <c r="A6" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C6" s="51" t="str">
+      <c r="C6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D6" s="51" t="str">
+      <c r="D6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E6" s="51" t="str">
+      <c r="E6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F6" s="51" t="str">
+      <c r="F6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="51" t="str">
+      <c r="A7" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C7" s="51" t="str">
+      <c r="C7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D7" s="51" t="str">
+      <c r="D7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E7" s="51" t="str">
+      <c r="E7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F7" s="51" t="str">
+      <c r="F7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="51" t="str">
+      <c r="A8" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C8" s="51" t="str">
+      <c r="C8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D8" s="51" t="str">
+      <c r="D8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E8" s="51" t="str">
+      <c r="E8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F8" s="51" t="str">
+      <c r="F8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="51" t="str">
+      <c r="A9" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C9" s="51" t="str">
+      <c r="C9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D9" s="51" t="str">
+      <c r="D9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E9" s="51" t="str">
+      <c r="E9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F9" s="51" t="str">
+      <c r="F9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="51" t="str">
+      <c r="A10" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C10" s="51" t="str">
+      <c r="C10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D10" s="51" t="str">
+      <c r="D10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E10" s="51" t="str">
+      <c r="E10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F10" s="51" t="str">
+      <c r="F10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="51" t="str">
+      <c r="A11" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C11" s="51" t="str">
+      <c r="C11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="51" t="str">
+      <c r="D11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F11" s="51" t="str">
+      <c r="F11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="51" t="str">
+      <c r="A12" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C12" s="51" t="str">
+      <c r="C12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D12" s="51" t="str">
+      <c r="D12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E12" s="51" t="str">
+      <c r="E12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F12" s="51" t="str">
+      <c r="F12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="51" t="str">
+      <c r="A13" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D13" s="51" t="str">
+      <c r="D13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E13" s="51" t="str">
+      <c r="E13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F13" s="51" t="str">
+      <c r="F13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="51" t="str">
+      <c r="A14" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C14" s="51" t="str">
+      <c r="C14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D14" s="51" t="str">
+      <c r="D14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E14" s="51" t="str">
+      <c r="E14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="51" t="str">
+      <c r="F14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="51" t="str">
+      <c r="A15" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C15" s="51" t="str">
+      <c r="C15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D15" s="51" t="str">
+      <c r="D15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E15" s="51" t="str">
+      <c r="E15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F15" s="51" t="str">
+      <c r="F15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="51" t="str">
+      <c r="A16" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C16" s="51" t="str">
+      <c r="C16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D16" s="51" t="str">
+      <c r="D16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F16" s="51" t="str">
+      <c r="F16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
@@ -2793,14 +2802,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.63"/>
+    <col customWidth="1" min="1" max="1" width="7.0"/>
+    <col customWidth="1" min="2" max="2" width="7.38"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="9.5"/>
+    <col customWidth="1" min="7" max="7" width="4.88"/>
+    <col customWidth="1" min="8" max="9" width="7.13"/>
     <col customWidth="1" min="10" max="10" width="11.13"/>
     <col customWidth="1" min="11" max="11" width="13.25"/>
-    <col customWidth="1" min="12" max="12" width="7.25"/>
-    <col customWidth="1" min="13" max="13" width="6.5"/>
+    <col customWidth="1" min="12" max="12" width="7.38"/>
+    <col customWidth="1" min="13" max="13" width="6.13"/>
     <col customWidth="1" min="14" max="14" width="10.38"/>
-    <col customWidth="1" min="15" max="17" width="9.63"/>
-    <col customWidth="1" min="18" max="19" width="11.13"/>
+    <col customWidth="1" min="15" max="15" width="9.63"/>
+    <col customWidth="1" min="16" max="17" width="7.25"/>
+    <col customWidth="1" min="18" max="18" width="11.13"/>
+    <col customWidth="1" min="19" max="19" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2903,9 +2919,8 @@
       <c r="R2" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="23" t="str">
-        <f>"0.2.0"</f>
-        <v>0.2.0</v>
+      <c r="S2" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2933,36 +2948,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="28" t="str">
+      <c r="C1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,2,false)),"")</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="28" t="str">
+      <c r="E1" s="29" t="str">
         <f t="array" ref="E1:E2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,3,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,3,false)),"")</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="28" t="str">
+      <c r="F1" s="29" t="str">
         <f t="array" ref="F1:F2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,4,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,4,false)),"")</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="20" t="str">
+      <c r="G1" s="30" t="str">
         <f t="array" ref="G1:G2">if(row(G:G)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1)))</f>
         <v>Inactive</v>
       </c>
-      <c r="H1" s="20" t="str">
+      <c r="H1" s="30" t="str">
         <f t="array" ref="H1:H2">if(row(H:H)=1,"New Advisor",iferror(if((G:G=false)*(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!F:F)&lt;&gt;xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F))=1,true,false),false))</f>
         <v>New Advisor</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2971,13 +2986,13 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="27" t="b">
         <v>1</v>
@@ -3012,35 +3027,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="29" t="str">
-        <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
+        <v>37</v>
+      </c>
+      <c r="D1" s="31" t="str">
+        <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$F:$H,COLUMN()-2,false))),)</f>
         <v>Advisor First Name</v>
       </c>
-      <c r="E1" s="29" t="str">
-        <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!H1,vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false)),)</f>
+      <c r="E1" s="31" t="str">
+        <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!H1,ifna(vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$F:$H,COLUMN()-2,false))),)</f>
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="30" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -3071,24 +3086,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="30" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3114,24 +3129,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="30" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3159,46 +3174,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="29" t="str">
+      <c r="H1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="31" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
         <v>Menu Option</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
-        <v>52</v>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -74,7 +74,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 8/11/2023, 7:12:09 AM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 8/15/2023, 1:02:33 PM</t>
       </text>
     </comment>
   </commentList>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
   <si>
     <t>0.2.1</t>
@@ -1103,25 +1106,25 @@
         <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -1160,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>22</v>
@@ -1169,20 +1172,20 @@
         <v>23</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
@@ -1249,37 +1252,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -2080,46 +2083,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="31" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_BaseTitle)=1,""Base Title"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\))$""),0,1),Enrollment_TitleWithTerm))))"),"Base Title")</f>
@@ -2169,13 +2172,13 @@
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S2" s="36">
         <v>0.0</v>
       </c>
       <c r="T2" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="36" t="b">
         <v>0</v>
@@ -2206,10 +2209,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="46" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
@@ -2255,19 +2258,19 @@
     <row r="4">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -2291,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
@@ -2341,7 +2344,7 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
@@ -2391,7 +2394,7 @@
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
@@ -2466,7 +2469,7 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
@@ -2667,11 +2670,14 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B10">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B10))), AND(ISNUMBER(B10), LEFT(CELL("format", B10))="D"))</formula1>
+    </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2">
       <formula1>2.0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B10">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(B10))), AND(ISNUMBER(B10), LEFT(CELL("format", B10))="D"))</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
+      <formula1>1.0</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B9">
       <formula1>IFERROR(ISURL(B9), true)</formula1>
@@ -2681,9 +2687,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B7:B8">
       <formula1>IFERROR(ISEMAIL(B7), true)</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
-      <formula1>1.0</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -2816,7 +2819,7 @@
     <col customWidth="1" min="15" max="15" width="9.63"/>
     <col customWidth="1" min="16" max="17" width="7.25"/>
     <col customWidth="1" min="18" max="18" width="11.13"/>
-    <col customWidth="1" min="19" max="19" width="7.0"/>
+    <col customWidth="1" min="19" max="20" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2876,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="P1" s="20" t="str">
-        <f t="array" ref="P1:P2">if(row(P:P)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1)))</f>
+        <f t="array" ref="P1:P2">if(row(P:P)=1,"Inactive", isna(vlookup(A:A,'Advisor List'!A:A,1,false)))</f>
         <v>Inactive</v>
       </c>
       <c r="Q1" s="20" t="str">
@@ -2888,6 +2891,9 @@
       </c>
       <c r="S1" s="19" t="s">
         <v>30</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -2920,7 +2926,10 @@
         <v>0</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="T2" s="23" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2952,10 +2961,10 @@
         <v>26</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="29" t="str">
         <f t="array" ref="D1:D2">if($A:$A&lt;&gt;"",ifna(vlookup($A:$A,'Advisor List'!$A:$D,2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$A:$D,2,false)),"")</f>
@@ -2970,7 +2979,7 @@
         <v>Student Last Name</v>
       </c>
       <c r="G1" s="30" t="str">
-        <f t="array" ref="G1:G2">if(row(G:G)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1)))</f>
+        <f t="array" ref="G1:G2">if(row(G:G)=1,"Inactive",isna(vlookup(A:A,'Advisor List'!A:A,1,false)))</f>
         <v>Inactive</v>
       </c>
       <c r="H1" s="30" t="str">
@@ -2986,13 +2995,13 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="27" t="b">
         <v>1</v>
@@ -3027,13 +3036,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="31" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$F:$H,COLUMN()-2,false))),)</f>
@@ -3044,18 +3053,18 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -3086,24 +3095,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3129,24 +3138,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3171,6 +3180,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="9" max="9" width="32.63"/>
+    <col customWidth="1" min="10" max="11" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3178,29 +3188,37 @@
         <v>26</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="31" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
         <v>Menu Option</v>
+      </c>
+      <c r="J1" s="31" t="str">
+        <f t="array" ref="J1:J2">if(row(J:J)=1,"New Student",isna(vlookup(A:A,'Advisor List (Previous Year)'!A:A,1,false)))</f>
+        <v>New Student</v>
+      </c>
+      <c r="K1" s="31" t="str">
+        <f t="array" ref="K1:K2">if(row(K:K)=1,"New Advisor",xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F)&lt;&gt;F:F)</f>
+        <v>New Advisor</v>
       </c>
     </row>
     <row r="2">
@@ -3213,7 +3231,13 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="J2" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -37,7 +37,7 @@
     <definedName name="Param_StudiesCommittee">Parameters!$B$8</definedName>
     <definedName name="Enrollment_Department">'Historical Enrollment'!$Q:$Q</definedName>
     <definedName name="Clean_AvailableCourses">'Available Courses'!$A$3</definedName>
-    <definedName name="RollOver_CoursePlanPermissions">'Course Plan Inventory'!$R$2</definedName>
+    <definedName name="RollOver_CoursePlanPermissions">'Course Plan Inventory'!$Q$2</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$5</definedName>
     <definedName name="Param_RollOverAcademicYear">Parameters!$B$11</definedName>
     <definedName name="IEH_HostID_Selector">'Individual Enrollment History'!$A$2</definedName>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -2957,10 +2957,9 @@
     <col customWidth="1" min="12" max="12" width="7.38"/>
     <col customWidth="1" min="13" max="13" width="6.13"/>
     <col customWidth="1" min="14" max="14" width="10.38"/>
-    <col customWidth="1" min="15" max="15" width="9.63"/>
-    <col customWidth="1" min="16" max="17" width="7.25"/>
-    <col customWidth="1" min="18" max="18" width="11.13"/>
-    <col customWidth="1" min="19" max="20" width="7.0"/>
+    <col customWidth="1" min="15" max="16" width="7.25"/>
+    <col customWidth="1" min="17" max="17" width="11.13"/>
+    <col customWidth="1" min="18" max="19" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3016,24 +3015,21 @@
       <c r="N1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>8</v>
+      <c r="O1" s="20" t="str">
+        <f t="array" ref="O1:O2">if(row(O:O)=1,"Inactive", isna(vlookup(A:A,'Student List'!A:A,1,false)))</f>
+        <v>Inactive</v>
       </c>
       <c r="P1" s="20" t="str">
-        <f t="array" ref="P1:P2">if(row(P:P)=1,"Inactive", isna(vlookup(A:A,'Student List'!A:A,1,false)))</f>
-        <v>Inactive</v>
-      </c>
-      <c r="Q1" s="20" t="str">
-        <f t="array" ref="Q1:Q2">if(row(Q:Q)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!L:L),false))</f>
+        <f t="array" ref="P1:P2">if(row(P:P)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!L:L),false))</f>
         <v>New Advisor</v>
       </c>
+      <c r="Q1" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="R1" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3054,22 +3050,19 @@
       <c r="N2" s="24">
         <v>4.0</v>
       </c>
-      <c r="O2" s="24">
-        <v>6.0</v>
+      <c r="O2" s="27" t="b">
+        <v>1</v>
       </c>
       <c r="P2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="R2" s="23" t="b">
+      <c r="Q2" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="23" t="b">
+      <c r="S2" s="23" t="b">
         <v>0</v>
       </c>
     </row>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -63,8 +63,14 @@
     <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$O:$O</definedName>
     <definedName name="Param_AcademicOffice">Parameters!$B$7</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_CDB820E5_C8CE_49DC_9C5D_C9E9E35BE759_.wvu.FilterData">'Student List'!$A$1:$M$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_8933D0B8_4E90_40FB_B069_426189683A11_.wvu.FilterData">'Student List'!$A$1:$M$2</definedName>
   </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CDB820E5-C8CE-49DC-9C5D-C9E9E35BE759}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8933D0B8-4E90-40FB-B069-426189683A11}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -91,7 +97,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 8/16/2023, 9:21:37 PM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 8/17/2023, 9:23:54 PM</t>
       </text>
     </comment>
   </commentList>
@@ -751,7 +757,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -794,6 +800,27 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
           <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
         </patternFill>
       </fill>
       <border/>
@@ -1182,7 +1209,7 @@
         <v>New Student</v>
       </c>
       <c r="K1" s="20" t="str">
-        <f t="array" ref="K1:K2">if(row(K:K)=1,"New Advisor",xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F)&lt;&gt;F:F)</f>
+        <f t="array" ref="K1:K2">if(row(K:K)=1,"New Advisor",IFNA(xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F)&lt;&gt;F:F,false))</f>
         <v>New Advisor</v>
       </c>
     </row>
@@ -1201,11 +1228,21 @@
       <c r="J2" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="e">
-        <v>#N/A</v>
+      <c r="K2" s="33" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:K2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -1358,7 +1395,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:K2">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>not($K2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3067,6 +3104,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3149,6 +3196,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3212,6 +3269,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
@@ -3266,6 +3333,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
@@ -3320,6 +3397,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
@@ -3344,7 +3431,7 @@
     <col customWidth="1" min="5" max="5" width="4.88"/>
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="9" max="9" width="8.13"/>
-    <col customWidth="1" min="12" max="12" width="7.25"/>
+    <col customWidth="1" min="12" max="13" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3390,6 +3477,10 @@
       <c r="L1" s="20" t="str">
         <f t="array" ref="L1:L2">if(row(L:L)=1,"New Advisor",if((F:F&lt;&gt;"")*(F:F&lt;&gt;I:I),true,false))</f>
         <v>New Advisor</v>
+      </c>
+      <c r="M1" s="20" t="str">
+        <f t="array" ref="M1:M2">if(row(M:M)=1,"Has Plan",not(isna(vlookup(A:A,'Course Plan Inventory'!A:A,1,false))))</f>
+        <v>Has Plan</v>
       </c>
     </row>
     <row r="2">
@@ -3407,11 +3498,44 @@
       <c r="L2" s="33" t="b">
         <v>0</v>
       </c>
+      <c r="M2" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{CDB820E5-C8CE-49DC-9C5D-C9E9E35BE759}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$M$2">
+        <filterColumn colId="12">
+          <filters>
+            <filter val="FALSE"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{8933D0B8-4E90-40FB-B069-426189683A11}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$M$2">
+        <filterColumn colId="12">
+          <filters>
+            <filter val="FALSE"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="I2:K2">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$F2=$I2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M2">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId2"/>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -22,30 +22,31 @@
   <definedNames>
     <definedName name="IEH_Years">'Individual Enrollment History'!$B$5:$F$5</definedName>
     <definedName name="Enrollment_Title">'Historical Enrollment'!$T:$T</definedName>
-    <definedName name="Param_FormFolderNameFormat">Parameters!$B$3</definedName>
-    <definedName name="Param_StudentFolderNameFormat">Parameters!$B$4</definedName>
+    <definedName name="Param_FormFolderNameFormat">Parameters!$B$4</definedName>
+    <definedName name="Param_StudentFolderNameFormat">Parameters!$B$5</definedName>
     <definedName name="Enrollment_CourseCode">'Historical Enrollment'!$I:$I</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
     <definedName name="IEH_GradYear">'Individual Enrollment History'!$D$2</definedName>
-    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$6</definedName>
+    <definedName name="Param_CoursePlanNameFormat">Parameters!$B$7</definedName>
+    <definedName name="Param_StudentNameFormat">Parameters!$B$3</definedName>
     <definedName name="Enrollment_DepartmentList">'Historical Enrollment'!$L:$L</definedName>
     <definedName name="Enrollment_Order">'Historical Enrollment'!$S:$S</definedName>
-    <definedName name="Clean_Params">Parameters!$B$8:$B$10</definedName>
+    <definedName name="Clean_Params">Parameters!$B$9:$B$11</definedName>
     <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$D:$D</definedName>
     <definedName name="Course_Department">'Course List'!$D$2</definedName>
-    <definedName name="Param_StudiesCommittee">Parameters!$B$8</definedName>
+    <definedName name="Param_StudiesCommittee">Parameters!$B$9</definedName>
     <definedName name="Enrollment_Department">'Historical Enrollment'!$Q:$Q</definedName>
     <definedName name="Clean_AvailableCourses">'Available Courses'!$A$3</definedName>
     <definedName name="RollOver_CoursePlanPermissions">'Course Plan Inventory'!$Q$2</definedName>
-    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$5</definedName>
-    <definedName name="Param_RollOverAcademicYear">Parameters!$B$11</definedName>
+    <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$6</definedName>
+    <definedName name="Param_RollOverAcademicYear">Parameters!$B$12</definedName>
     <definedName name="IEH_HostID_Selector">'Individual Enrollment History'!$A$2</definedName>
     <definedName name="IEH_EnrollmentHistory">'Individual Enrollment History'!$B$6:$F$16</definedName>
     <definedName name="Enrollment_Include">'Historical Enrollment'!$U:$U</definedName>
     <definedName name="Enrollment_Year">'Historical Enrollment'!$F:$F</definedName>
     <definedName name="IEH_HostID">'Individual Enrollment History'!$B$2</definedName>
-    <definedName name="Param_CollegeCounselingOffice">Parameters!$B$9</definedName>
+    <definedName name="Param_CollegeCounselingOffice">Parameters!$B$10</definedName>
     <definedName name="Enrollment_TitleWithTerm">'Historical Enrollment'!$H:$H</definedName>
     <definedName name="IEH_NumericalYears">'Individual Enrollment History'!$B$3:$F$3</definedName>
     <definedName name="Enrollment_Status">'Historical Enrollment'!$M:$M</definedName>
@@ -54,22 +55,22 @@
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
     <definedName name="RollOver_StudentFolderPermissions">'Student Folder Inventory'!$J$2</definedName>
     <definedName name="Enrollment_ParentheticalNote">'Historical Enrollment'!$P:$P</definedName>
-    <definedName name="Param_CoursePlanTemplate">Parameters!$B$10</definedName>
+    <definedName name="Param_CoursePlanTemplate">Parameters!$B$11</definedName>
     <definedName name="Enrollment_TermName">'Historical Enrollment'!$K:$K</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
     <definedName name="Enrollment_Term">'Historical Enrollment'!$R:$R</definedName>
     <definedName name="Course_Title">'Course List'!$C$2</definedName>
     <definedName name="Clean_IEH">'Individual Enrollment History'!$A$1:$A$2</definedName>
     <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$O:$O</definedName>
-    <definedName name="Param_AcademicOffice">Parameters!$B$7</definedName>
+    <definedName name="Param_AcademicOffice">Parameters!$B$8</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
-    <definedName hidden="1" localSheetId="8" name="Z_CDB820E5_C8CE_49DC_9C5D_C9E9E35BE759_.wvu.FilterData">'Student List'!$A$1:$M$2</definedName>
-    <definedName hidden="1" localSheetId="8" name="Z_8933D0B8_4E90_40FB_B069_426189683A11_.wvu.FilterData">'Student List'!$A$1:$M$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_7F298578_268A_4785_9187_44C66E84FF9F_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_0BFF3F9D_97B4_4BC6_8BD3_60603390DAE2_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CDB820E5-C8CE-49DC-9C5D-C9E9E35BE759}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8933D0B8-4E90-40FB-B069-426189683A11}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0BFF3F9D-97B4-4BC6-8BD3-60603390DAE2}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7F298578-268A-4785-9187-44C66E84FF9F}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -149,6 +150,12 @@
     <t>Number of Comments</t>
   </si>
   <si>
+    <t>Student Name Format</t>
+  </si>
+  <si>
+    <t>{{lastName}}, {{firstName}} ‘{{abbrevGradYear}}</t>
+  </si>
+  <si>
     <t>Form Folder Name Format</t>
   </si>
   <si>
@@ -158,7 +165,7 @@
     <t>Student Folder Name Format</t>
   </si>
   <si>
-    <t>{{lastName}}, {{firstName}} ‘{{abbrevGradYear}}</t>
+    <t>{{lastName}}, {{firstName}} ‘{{abbrevGradYear}} - Course Planning</t>
   </si>
   <si>
     <t>Advisor Folder Name Format</t>
@@ -278,13 +285,13 @@
     <t>Grad Year</t>
   </si>
   <si>
+    <t>,  ’-2000 []</t>
+  </si>
+  <si>
     <t>Advisor First Name</t>
   </si>
   <si>
     <t>Advisor Last Name</t>
-  </si>
-  <si>
-    <t>,  ’-2000 []</t>
   </si>
   <si>
     <t>Course Code</t>
@@ -1171,45 +1178,36 @@
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="7" max="7" width="11.25"/>
     <col customWidth="1" min="8" max="8" width="13.25"/>
-    <col customWidth="1" min="9" max="9" width="32.63"/>
-    <col customWidth="1" min="10" max="11" width="7.25"/>
+    <col customWidth="1" min="9" max="9" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="20" t="str">
-        <f t="array" ref="I1:I2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
-        <v>Menu Option</v>
-      </c>
-      <c r="J1" s="20" t="str">
-        <f t="array" ref="J1:J2">if(row(J:J)=1,"New Student",isna(vlookup(A:A,'Advisor List (Previous Year)'!A:A,1,false)))</f>
-        <v>New Student</v>
-      </c>
-      <c r="K1" s="20" t="str">
-        <f t="array" ref="K1:K2">if(row(K:K)=1,"New Advisor",IFNA(xlookup(A:A,'Advisor List (Previous Year)'!A:A,'Advisor List (Previous Year)'!F:F)&lt;&gt;F:F,false))</f>
+        <f t="array" ref="I1:I2">if(row(I:I)=1,"New Advisor",IFNA(xlookup(A:A,'Student List'!A:A,'Student List'!M:M),false))</f>
         <v>New Advisor</v>
       </c>
     </row>
@@ -1222,23 +1220,17 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
-      <c r="I2" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="33" t="b">
+      <c r="I2" s="33" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:K2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
@@ -1273,28 +1265,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -1330,32 +1322,32 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
@@ -1422,37 +1414,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -2253,46 +2245,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N1" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O1" s="39" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_BaseTitle)=1,""Base Title"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\))$""),0,1),Enrollment_TitleWithTerm))))"),"Base Title")</f>
@@ -2342,13 +2334,13 @@
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
       <c r="R2" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S2" s="33">
         <v>0.0</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="U2" s="33" t="b">
         <v>0</v>
@@ -2376,13 +2368,13 @@
     <row r="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
@@ -2394,11 +2386,11 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="46" t="str">
-        <f t="array" ref="C2">join(" ",INDEX('Advisor List'!C:D,match(B2,'Advisor List'!A:A,0),0))</f>
+        <f t="array" ref="C2">join(" ",INDEX('Student List'!C:D,match(B2,'Student List'!A:A,0),0))</f>
         <v>#N/A</v>
       </c>
       <c r="D2" s="46" t="str">
-        <f t="array" ref="D2">INDEX('Advisor List'!E:E,match(B2,'Advisor List'!A:A,0),0)</f>
+        <f t="array" ref="D2">INDEX('Student List'!E:E,match(B2,'Student List'!A:A,0),0)</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="44"/>
@@ -2406,7 +2398,7 @@
     </row>
     <row r="3">
       <c r="A3" s="47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="48" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
@@ -2428,19 +2420,19 @@
     <row r="4">
       <c r="A4" s="51"/>
       <c r="B4" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -2464,7 +2456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
@@ -2489,7 +2481,7 @@
     </row>
     <row r="7">
       <c r="A7" s="54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
@@ -2514,7 +2506,7 @@
     </row>
     <row r="8">
       <c r="A8" s="54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
@@ -2539,7 +2531,7 @@
     </row>
     <row r="9">
       <c r="A9" s="54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
@@ -2564,7 +2556,7 @@
     </row>
     <row r="10">
       <c r="A10" s="54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
@@ -2589,7 +2581,7 @@
     </row>
     <row r="11">
       <c r="A11" s="54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
@@ -2614,7 +2606,7 @@
     </row>
     <row r="12">
       <c r="A12" s="54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
@@ -2639,7 +2631,7 @@
     </row>
     <row r="13">
       <c r="A13" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
@@ -2664,7 +2656,7 @@
     </row>
     <row r="14">
       <c r="A14" s="54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
@@ -2689,7 +2681,7 @@
     </row>
     <row r="15">
       <c r="A15" s="54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
@@ -2714,7 +2706,7 @@
     </row>
     <row r="16">
       <c r="A16" s="54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
@@ -2740,7 +2732,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1">
-      <formula1>'Advisor List'!$I$2:$I16</formula1>
+      <formula1>'Student List'!$L$2:$L16</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -2824,32 +2816,40 @@
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12">
         <v>45146.0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B11">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(B11))), AND(ISNUMBER(B11), LEFT(CELL("format", B11))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B12">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B12))), AND(ISNUMBER(B12), LEFT(CELL("format", B12))="D"))</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2">
       <formula1>2.0</formula1>
@@ -2857,14 +2857,14 @@
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1">
       <formula1>1.0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B10">
-      <formula1>IFERROR(ISURL(B10), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B11">
+      <formula1>IFERROR(ISURL(B11), true)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B3:B6">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B3:B7">
       <formula1>NOT(ISERROR(SEARCH(("{{"),(B3))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B7:B9">
-      <formula1>IFERROR(ISEMAIL(B7), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B8:B10">
+      <formula1>IFERROR(ISEMAIL(B8), true)</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -2898,23 +2898,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="15" t="str">
         <f t="array" ref="B2:E3">vlookup($A2:$A3,{'Course List'!$A:$D,'Course List'!$J:$J},column(B:E),false)</f>
         <v>Course Code</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -3001,13 +3001,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="20" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(E:E)=1,'Student List'!B1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!B:B),xlookup($A:$A,'Advisor List (Previous Year)'!$A:$A,'Advisor List (Previous Year)'!B:B))))</f>
@@ -3057,17 +3057,17 @@
         <v>Inactive</v>
       </c>
       <c r="P1" s="20" t="str">
-        <f t="array" ref="P1:P2">if(row(P:P)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!L:L),false))</f>
+        <f t="array" ref="P1:P2">if(row(P:P)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!M:M),false))</f>
         <v>New Advisor</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" s="23" t="b">
         <v>0</v>
@@ -3141,13 +3141,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="28" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(E:E)=1,'Student List'!B1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!B:B),xlookup($A:$A,'Advisor List (Previous Year)'!$A:$A,'Advisor List (Previous Year)'!B:B))))</f>
@@ -3170,11 +3170,11 @@
         <v>Inactive</v>
       </c>
       <c r="I1" s="20" t="str">
-        <f t="array" ref="I1:I2">if(row(I:I)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!L:L),false))</f>
+        <f t="array" ref="I1:I2">if(row(I:I)=1,"New Advisor",ifna(xlookup(A:A,'Student List'!A:A,'Student List'!M:M),false))</f>
         <v>New Advisor</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -3231,13 +3231,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="20" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$F:$H,COLUMN()-2,false),vlookup($A:$A,'Advisor List (Previous Year)'!$F:$H,COLUMN()-2,false))),)</f>
@@ -3254,13 +3254,13 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -3305,13 +3305,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="20" t="str">
         <f t="array" ref="D1:D2">if(row(D:D)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Student List'!E:E,1,false))),TRUE,FALSE))</f>
@@ -3320,13 +3320,13 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="25" t="b">
         <v>0</v>
@@ -3369,13 +3369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="20" t="str">
         <f t="array" ref="D1:D2">if(row(D:D)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Student List'!E:E,1,false))),TRUE,FALSE))</f>
@@ -3384,13 +3384,13 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="25" t="b">
         <v>0</v>
@@ -3431,24 +3431,25 @@
     <col customWidth="1" min="5" max="5" width="4.88"/>
     <col customWidth="1" min="6" max="6" width="7.13"/>
     <col customWidth="1" min="9" max="9" width="8.13"/>
-    <col customWidth="1" min="12" max="13" width="7.25"/>
+    <col customWidth="1" min="12" max="12" width="36.88"/>
+    <col customWidth="1" min="13" max="14" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="20" t="str">
         <f t="array" ref="F1:F2">if(row(F:F)=1,"Current "&amp;'Advisor List'!F1,ifna(xlookup($A:$A,'Advisor List'!$A:$A,'Advisor List'!F:F)))</f>
@@ -3475,11 +3476,15 @@
         <v>Previous Advisor Last Name</v>
       </c>
       <c r="L1" s="20" t="str">
-        <f t="array" ref="L1:L2">if(row(L:L)=1,"New Advisor",if((F:F&lt;&gt;"")*(F:F&lt;&gt;I:I),true,false))</f>
+        <f t="array" ref="L1:L2">if(row(I:I)=1,"Menu Option",D:D&amp;", "&amp;C:C&amp;" ’"&amp;(E:E-2000)&amp;" ["&amp;A:A&amp;"]")</f>
+        <v>Menu Option</v>
+      </c>
+      <c r="M1" s="20" t="str">
+        <f t="array" ref="M1:M2">if(row(M:M)=1,"New Advisor",if((F:F&lt;&gt;"")*(F:F&lt;&gt;I:I),true,false))</f>
         <v>New Advisor</v>
       </c>
-      <c r="M1" s="20" t="str">
-        <f t="array" ref="M1:M2">if(row(M:M)=1,"Has Plan",not(isna(vlookup(A:A,'Course Plan Inventory'!A:A,1,false))))</f>
+      <c r="N1" s="20" t="str">
+        <f t="array" ref="N1:N2">if(row(N:N)=1,"Has Plan",not(isna(vlookup(A:A,'Course Plan Inventory'!A:A,1,false))))</f>
         <v>Has Plan</v>
       </c>
     </row>
@@ -3495,27 +3500,30 @@
       <c r="I2" s="34"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
-      <c r="L2" s="33" t="b">
-        <v>0</v>
+      <c r="L2" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="M2" s="33" t="b">
         <v>0</v>
       </c>
+      <c r="N2" s="33" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CDB820E5-C8CE-49DC-9C5D-C9E9E35BE759}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$M$2">
-        <filterColumn colId="12">
+    <customSheetView guid="{0BFF3F9D-97B4-4BC6-8BD3-60603390DAE2}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$N$2">
+        <filterColumn colId="13">
           <filters>
             <filter val="FALSE"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8933D0B8-4E90-40FB-B069-426189683A11}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$M$2">
-        <filterColumn colId="12">
+    <customSheetView guid="{7F298578-268A-4785-9187-44C66E84FF9F}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$N$2">
+        <filterColumn colId="13">
           <filters>
             <filter val="FALSE"/>
           </filters>
@@ -3528,12 +3536,12 @@
       <formula>$F2=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M2">
+  <conditionalFormatting sqref="L2:N2">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M2">
+  <conditionalFormatting sqref="L2:N2">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -12,65 +12,78 @@
     <sheet state="visible" name="Plans Form Folder Inventory" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Folders Form Folder Inventory" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Student List" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Advisor List" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Advisor List (Previous Year)" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Course List" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Courses by Department" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Historical Enrollment" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Individual Enrollment History" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Faculty List" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Advisor List" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Advisor List (Previous Year)" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Course List" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Courses by Department" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="Student Enrollments" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Individual Enrollment History" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="IEH_Years">'Individual Enrollment History'!$B$5:$F$5</definedName>
-    <definedName name="Enrollment_Title">'Historical Enrollment'!$T:$T</definedName>
+    <definedName name="Enrollment_Title">'Student Enrollments'!$AA:$AA</definedName>
     <definedName name="Param_FormFolderNameFormat">Parameters!$B$4</definedName>
     <definedName name="Param_StudentFolderNameFormat">Parameters!$B$5</definedName>
-    <definedName name="Enrollment_CourseCode">'Historical Enrollment'!$I:$I</definedName>
+    <definedName name="Enrollment_CourseCode">'Student Enrollments'!$I:$I</definedName>
     <definedName name="Course_ID">'Course List'!$A$2</definedName>
     <definedName name="Course_Available">'Course List'!$K$2</definedName>
     <definedName name="IEH_GradYear">'Individual Enrollment History'!$D$2</definedName>
     <definedName name="Param_CoursePlanNameFormat">Parameters!$B$7</definedName>
     <definedName name="Param_StudentNameFormat">Parameters!$B$3</definedName>
-    <definedName name="Enrollment_DepartmentList">'Historical Enrollment'!$L:$L</definedName>
-    <definedName name="Enrollment_Order">'Historical Enrollment'!$S:$S</definedName>
+    <definedName name="Enrollment_Department">'Student Enrollments'!$M:$M</definedName>
+    <definedName name="Enrollment_Order">'Student Enrollments'!$V:$V</definedName>
+    <definedName name="Enrollment_Dropped">'Student Enrollments'!$O:$O</definedName>
     <definedName name="Clean_Params">Parameters!$B$9:$B$11</definedName>
-    <definedName name="Enrollment_Host_ID">'Historical Enrollment'!$D:$D</definedName>
+    <definedName name="Enrollment_Host_ID">'Student Enrollments'!$D:$D</definedName>
     <definedName name="Course_Department">'Course List'!$D$2</definedName>
+    <definedName name="Enrollment_ChangedSections">'Student Enrollments'!$P:$P</definedName>
     <definedName name="Param_StudiesCommittee">Parameters!$B$9</definedName>
-    <definedName name="Enrollment_Department">'Historical Enrollment'!$Q:$Q</definedName>
     <definedName name="Clean_AvailableCourses">'Available Courses'!$A$3</definedName>
     <definedName name="RollOver_CoursePlanPermissions">'Course Plan Inventory'!$Q$2</definedName>
+    <definedName name="Enrollment_BaseTitle">'Student Enrollments'!$U:$U</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$6</definedName>
     <definedName name="Param_RollOverAcademicYear">Parameters!$B$12</definedName>
+    <definedName name="Enrollment_CreditsAttempted">'Student Enrollments'!$R:$R</definedName>
     <definedName name="IEH_HostID_Selector">'Individual Enrollment History'!$A$2</definedName>
     <definedName name="IEH_EnrollmentHistory">'Individual Enrollment History'!$B$6:$F$16</definedName>
-    <definedName name="Enrollment_Include">'Historical Enrollment'!$U:$U</definedName>
-    <definedName name="Enrollment_Year">'Historical Enrollment'!$F:$F</definedName>
+    <definedName name="Enrollment_Include">'Student Enrollments'!$AB:$AB</definedName>
+    <definedName name="Enrollment_Year">'Student Enrollments'!$F:$F</definedName>
     <definedName name="IEH_HostID">'Individual Enrollment History'!$B$2</definedName>
     <definedName name="Param_CollegeCounselingOffice">Parameters!$B$10</definedName>
-    <definedName name="Enrollment_TitleWithTerm">'Historical Enrollment'!$H:$H</definedName>
+    <definedName name="Enrollment_TitleWithTerm">'Student Enrollments'!$H:$H</definedName>
     <definedName name="IEH_NumericalYears">'Individual Enrollment History'!$B$3:$F$3</definedName>
-    <definedName name="Enrollment_Status">'Historical Enrollment'!$M:$M</definedName>
-    <definedName name="Enrollment_Type">'Historical Enrollment'!$N:$N</definedName>
+    <definedName name="Enrollment_Enrolled">'Student Enrollments'!$N:$N</definedName>
+    <definedName name="Enrollment_Type">#REF!</definedName>
     <definedName name="IEH_Departments">'Individual Enrollment History'!$A$6:$A$16</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
     <definedName name="RollOver_StudentFolderPermissions">'Student Folder Inventory'!$J$2</definedName>
-    <definedName name="Enrollment_ParentheticalNote">'Historical Enrollment'!$P:$P</definedName>
+    <definedName name="Enrollment_ParentheticalNote">'Student Enrollments'!$W:$W</definedName>
+    <definedName name="Enrollment_Annotation">'Student Enrollments'!$W:$Z</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$11</definedName>
-    <definedName name="Enrollment_TermName">'Historical Enrollment'!$K:$K</definedName>
+    <definedName name="Enrollment_TermName">'Student Enrollments'!$K:$K</definedName>
     <definedName name="Param_NumComments">Parameters!$B$2</definedName>
-    <definedName name="Enrollment_Term">'Historical Enrollment'!$R:$R</definedName>
+    <definedName name="Enrollment_Term">'Student Enrollments'!$X:$X</definedName>
     <definedName name="Course_Title">'Course List'!$C$2</definedName>
     <definedName name="Clean_IEH">'Individual Enrollment History'!$A$1:$A$2</definedName>
-    <definedName name="Enrollment_BaseTitle">'Historical Enrollment'!$O:$O</definedName>
+    <definedName name="Enrollment_TitleWithoutTerm">'Student Enrollments'!$T:$T</definedName>
     <definedName name="Param_AcademicOffice">Parameters!$B$8</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
-    <definedName hidden="1" localSheetId="8" name="Z_7F298578_268A_4785_9187_44C66E84FF9F_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
-    <definedName hidden="1" localSheetId="8" name="Z_0BFF3F9D_97B4_4BC6_8BD3_60603390DAE2_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Student Folder Inventory'!$A$1:$J$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'Student Enrollments'!$A$1:$AB$2</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_580BB1D6_D2BB_48BE_966E_32C03E52A03B_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_580BB1D6_D2BB_48BE_966E_32C03E52A03B_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_73B25A2C_1AF9_4D3B_9BE0_533A2CFAA2D6_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_73B25A2C_1AF9_4D3B_9BE0_533A2CFAA2D6_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="Z_73B25A2C_1AF9_4D3B_9BE0_533A2CFAA2D6_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="Z_73B25A2C_1AF9_4D3B_9BE0_533A2CFAA2D6_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0BFF3F9D-97B4-4BC6-8BD3-60603390DAE2}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7F298578-268A-4785-9187-44C66E84FF9F}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{580BB1D6-D2BB-48BE-966E-32C03E52A03B}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{73B25A2C-1AF9-4D3B-9BE0-533A2CFAA2D6}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -83,7 +96,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Student List" 8/16/2023, 9:13:28 PM</t>
+        <t xml:space="preserve">Last updated from "Student List" 8/21/2023, 5:03:15 PM</t>
       </text>
     </comment>
   </commentList>
@@ -98,7 +111,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 8/17/2023, 9:23:54 PM</t>
+        <t xml:space="preserve">Last updated from "Faculty List" 8/25/2023, 1:42:03 PM</t>
       </text>
     </comment>
   </commentList>
@@ -113,7 +126,37 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Course List" 3/31/2023, 8:52:02 AM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 8/28/2023, 4:00:55 PM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">Last updated from "Course List" 9/27/2023, 10:40:28 AM</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">Last updated from "Student Enrollments" 10/24/2023, 2:56:56 PM</t>
       </text>
     </comment>
   </commentList>
@@ -121,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="875">
   <si>
     <t>Cell Color Legend</t>
   </si>
@@ -288,6 +331,2343 @@
     <t>,  ’-2000 []</t>
   </si>
   <si>
+    <t>Preferred or First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>lmurray@groton.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace </t>
+  </si>
+  <si>
+    <t>Llodra</t>
+  </si>
+  <si>
+    <t>gllodra@groton.org</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Styskal</t>
+  </si>
+  <si>
+    <t>mstyskal@groton.org</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>rnorth@groton.org</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rindenello-Parker	</t>
+  </si>
+  <si>
+    <t>MRindenello-Parker@groton.org</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>rh-testuser@groton.org</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Melchior</t>
+  </si>
+  <si>
+    <t>mmelchior@groton.org</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>NWhite@groton.org</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>jho@groton.org</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Murchie</t>
+  </si>
+  <si>
+    <t>jmurchie@groton.org</t>
+  </si>
+  <si>
+    <t>Hallie</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>hlsmith@groton.org</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>Andrade</t>
+  </si>
+  <si>
+    <t>eandrade@groton.org</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Georgoulis</t>
+  </si>
+  <si>
+    <t>lgeorgoulis@groton.org</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Ewart</t>
+  </si>
+  <si>
+    <t>mewart@groton.org</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Faculty`</t>
+  </si>
+  <si>
+    <t>hfaculty@groton.org</t>
+  </si>
+  <si>
+    <t>Caley</t>
+  </si>
+  <si>
+    <t>Zannoni</t>
+  </si>
+  <si>
+    <t>czannoni@groton.org</t>
+  </si>
+  <si>
+    <t>Laurie</t>
+  </si>
+  <si>
+    <t>Bryson</t>
+  </si>
+  <si>
+    <t>lbryson@groton.org</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Salvanelli</t>
+  </si>
+  <si>
+    <t>msalvanelli@groton.org</t>
+  </si>
+  <si>
+    <t>Horace</t>
+  </si>
+  <si>
+    <t>Bixby</t>
+  </si>
+  <si>
+    <t>hbixby@groton.org</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>aanderson@groton.org</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Andersson</t>
+  </si>
+  <si>
+    <t>mandersson@groton.org</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Pomeroy</t>
+  </si>
+  <si>
+    <t>cpomeroy@groton.org</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Belsky</t>
+  </si>
+  <si>
+    <t>sbelsky@groton.org</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>dblack@groton.org</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Creamer</t>
+  </si>
+  <si>
+    <t>jcreamer@groton.org</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Giampetruzzi</t>
+  </si>
+  <si>
+    <t>sgiampetruzzi@groton.org</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>MacEachern</t>
+  </si>
+  <si>
+    <t>jmaceachern@groton.org</t>
+  </si>
+  <si>
+    <t>Capen</t>
+  </si>
+  <si>
+    <t>jcapen@groton.org</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>rlow@groton.org</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Viacava</t>
+  </si>
+  <si>
+    <t>lviacava@groton.org</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Gracey</t>
+  </si>
+  <si>
+    <t>mgracey@groton.org</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>igracey@groton.org</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>lsales@groton.org</t>
+  </si>
+  <si>
+    <t>Fanny</t>
+  </si>
+  <si>
+    <t>Vera de Viacava</t>
+  </si>
+  <si>
+    <t>fviacava@groton.org</t>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>jconner@groton.org</t>
+  </si>
+  <si>
+    <t>Nishad</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>ndas@groton.org</t>
+  </si>
+  <si>
+    <t>Sravani</t>
+  </si>
+  <si>
+    <t>Sen-Das</t>
+  </si>
+  <si>
+    <t>ssendas@groton.org</t>
+  </si>
+  <si>
+    <t>Libby</t>
+  </si>
+  <si>
+    <t>Petroskey</t>
+  </si>
+  <si>
+    <t>lpetroskey@groton.org</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Dennison</t>
+  </si>
+  <si>
+    <t>kdennison@groton.org</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>pfry@groton.org</t>
+  </si>
+  <si>
+    <t>Kenji</t>
+  </si>
+  <si>
+    <t>Kikuchi</t>
+  </si>
+  <si>
+    <t>kkikuchi@groton.org</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>LeRoy</t>
+  </si>
+  <si>
+    <t>kleroy@groton.org</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Funnell</t>
+  </si>
+  <si>
+    <t>jfunnell@groton.org</t>
+  </si>
+  <si>
+    <t>Franck</t>
+  </si>
+  <si>
+    <t>Koffi</t>
+  </si>
+  <si>
+    <t>fkoffi@groton.org</t>
+  </si>
+  <si>
+    <t>Mary Ann</t>
+  </si>
+  <si>
+    <t>Lanier</t>
+  </si>
+  <si>
+    <t>mlanier@groton.org</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Keeling</t>
+  </si>
+  <si>
+    <t>jkeeling@groton.org</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>sjin@groton.org</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Lamont</t>
+  </si>
+  <si>
+    <t>tlamont@groton.org</t>
+  </si>
+  <si>
+    <t>Brandt</t>
+  </si>
+  <si>
+    <t>Belknap</t>
+  </si>
+  <si>
+    <t>bbelknap@groton.org</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Leggat</t>
+  </si>
+  <si>
+    <t>kleggat@groton.org</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>O'Donnell</t>
+  </si>
+  <si>
+    <t>modonnell@groton.org</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>jlyons@groton.org</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>pmarks@groton.org</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Prockop</t>
+  </si>
+  <si>
+    <t>dprockop@groton.org</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Stanton</t>
+  </si>
+  <si>
+    <t>rstanton@groton.org</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>skelly@groton.org</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Martin-Nelson</t>
+  </si>
+  <si>
+    <t>amartinnelson@groton.org</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Finch</t>
+  </si>
+  <si>
+    <t>afinch@groton.org</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>aprice@groton.org</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>maphillips@groton.org</t>
+  </si>
+  <si>
+    <t>Soo</t>
+  </si>
+  <si>
+    <t>Lee-Martone</t>
+  </si>
+  <si>
+    <t>smartone@groton.org</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Terranella</t>
+  </si>
+  <si>
+    <t>tterranella@groton.org</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Gurin</t>
+  </si>
+  <si>
+    <t>vgurin@groton.org</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>D'Amico</t>
+  </si>
+  <si>
+    <t>adamico@groton.org</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Packard</t>
+  </si>
+  <si>
+    <t>apackard@groton.org</t>
+  </si>
+  <si>
+    <t>St. Laurent</t>
+  </si>
+  <si>
+    <t>mstlaurent@groton.org</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Bohn</t>
+  </si>
+  <si>
+    <t>hbohn@groton.org</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>ktracy@groton.org</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>jnelson@groton.org</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Ellerton</t>
+  </si>
+  <si>
+    <t>dellerton@groton.org</t>
+  </si>
+  <si>
+    <t>45526_pb</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>cparker@groton.org</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Allende-Richter</t>
+  </si>
+  <si>
+    <t>SAllende-Richter@groton.org</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>lwalker@groton.org</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>sblood@groton.org</t>
+  </si>
+  <si>
+    <t>Brittany</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>bnewton@groton.org</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>jmatthews@groton.org</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>nharris@groton.org</t>
+  </si>
+  <si>
+    <t>Michaella</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>mchung@groton.org</t>
+  </si>
+  <si>
+    <t>Paige</t>
+  </si>
+  <si>
+    <t>McGrath</t>
+  </si>
+  <si>
+    <t>pmcgrath@groton.org</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>mgraham@groton.org</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>canderson@groton.org</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Fage</t>
+  </si>
+  <si>
+    <t>dfage@groton.org</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Rauker</t>
+  </si>
+  <si>
+    <t>erauker@groton.org</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>jkane@groton.org</t>
+  </si>
+  <si>
+    <t>Caddy</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>cbrooks@groton.org</t>
+  </si>
+  <si>
+    <t>Dolan</t>
+  </si>
+  <si>
+    <t>jdolan@groton.org</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Hadyk-DeLodder</t>
+  </si>
+  <si>
+    <t>ghadyk-delodder@groton.org</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Gilchrist</t>
+  </si>
+  <si>
+    <t>sgilchrist@groton.org</t>
+  </si>
+  <si>
+    <t>Jacquelyn</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>jnolan@groton.org</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>O'Neill</t>
+  </si>
+  <si>
+    <t>joneill@groton.org</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Hewitt</t>
+  </si>
+  <si>
+    <t>mhewitt@groton.org</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>spatterson@groton.org</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Pick-a-time (account user)</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>jjordan@groton.org</t>
+  </si>
+  <si>
+    <t>Kiley</t>
+  </si>
+  <si>
+    <t>jkiley@groton.org</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>swall@groton.org</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Deng</t>
+  </si>
+  <si>
+    <t>edeng@groton.org</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>rholmes@groton.org</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>awall@groton.org</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Mawhinney</t>
+  </si>
+  <si>
+    <t>cmawhinney@groton.org</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>jmartinez@groton.org</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Kreider</t>
+  </si>
+  <si>
+    <t>kkreider@groton.org</t>
+  </si>
+  <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>kwalsh@groton.org</t>
+  </si>
+  <si>
+    <t>Lyne</t>
+  </si>
+  <si>
+    <t>ljoseph@groton.org</t>
+  </si>
+  <si>
+    <t>McGillicuddy</t>
+  </si>
+  <si>
+    <t>pmcgillicuddy@groton.org</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Brussel</t>
+  </si>
+  <si>
+    <t>fbrussel@groton.org</t>
+  </si>
+  <si>
+    <t>Kaitlyn</t>
+  </si>
+  <si>
+    <t>Ziegler</t>
+  </si>
+  <si>
+    <t>kziegler@groton.org</t>
+  </si>
+  <si>
+    <t>Bushee</t>
+  </si>
+  <si>
+    <t>sbushee@groton.org</t>
+  </si>
+  <si>
+    <t>Mellen</t>
+  </si>
+  <si>
+    <t>jmellen@groton.org</t>
+  </si>
+  <si>
+    <t>Zulma</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>ZRomero@groton.org</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>PBritt@groton.org</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>mcarey@groton.org</t>
+  </si>
+  <si>
+    <t>Irenae</t>
+  </si>
+  <si>
+    <t>Aigbedion</t>
+  </si>
+  <si>
+    <t>iaigbedion@groton.org</t>
+  </si>
+  <si>
+    <t>Lizzie</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>ephan@groton.org</t>
+  </si>
+  <si>
+    <t>Jazimina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacNeil </t>
+  </si>
+  <si>
+    <t>jmacneil@groton.org</t>
+  </si>
+  <si>
+    <t>Geneviève</t>
+  </si>
+  <si>
+    <t>Du Paul</t>
+  </si>
+  <si>
+    <t>gdupaul@groton.org</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Battis</t>
+  </si>
+  <si>
+    <t>sbattis@groton.org</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Bozeman</t>
+  </si>
+  <si>
+    <t>sbozeman@groton.org</t>
+  </si>
+  <si>
+    <t>Patrice</t>
+  </si>
+  <si>
+    <t>Olivar</t>
+  </si>
+  <si>
+    <t>polivar@groton.org</t>
+  </si>
+  <si>
+    <t>dmurray@groton.org</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Dailey</t>
+  </si>
+  <si>
+    <t>bdailey@groton.org</t>
+  </si>
+  <si>
+    <t>Jacquie</t>
+  </si>
+  <si>
+    <t>Diffley</t>
+  </si>
+  <si>
+    <t>jdiffley@groton.org</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Vandal</t>
+  </si>
+  <si>
+    <t>bvandal@groton.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa		</t>
+  </si>
+  <si>
+    <t>loneill@groton.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zachary		</t>
+  </si>
+  <si>
+    <t>Lebowitz</t>
+  </si>
+  <si>
+    <t>zlebowitz@groton.org</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Radley</t>
+  </si>
+  <si>
+    <t>hradley@groton.org</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>ebaldwin@groton.org</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Leahy</t>
+  </si>
+  <si>
+    <t>sleahy@groton.org</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Lubinski</t>
+  </si>
+  <si>
+    <t>zachary.lubinski@gmail.com</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>O'Shea</t>
+  </si>
+  <si>
+    <t>koshea@groton.org</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Titcomb</t>
+  </si>
+  <si>
+    <t>gtitcomb@groton.org</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>sriley@groton.org</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>jkelly@groton.org</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>pryan@groton.org</t>
+  </si>
+  <si>
+    <t>Newcomb</t>
+  </si>
+  <si>
+    <t>pnewcomb@groton.org</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>bmoore@groton.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midori </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishizuka </t>
+  </si>
+  <si>
+    <t>mishizuka@groton.org</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>Archambault</t>
+  </si>
+  <si>
+    <t>earchambault@groton.org</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Covert</t>
+  </si>
+  <si>
+    <t>ecovert@groton.org</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Lindquist</t>
+  </si>
+  <si>
+    <t>tlindquist@groton.org</t>
+  </si>
+  <si>
+    <t>Michaels</t>
+  </si>
+  <si>
+    <t>mmichaels@groton.org</t>
+  </si>
+  <si>
+    <t>Berit</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>bstrong@groton.org</t>
+  </si>
+  <si>
+    <t>Meg</t>
+  </si>
+  <si>
+    <t>Vyas</t>
+  </si>
+  <si>
+    <t>mvyas@groton.org</t>
+  </si>
+  <si>
+    <t>Lynne</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>lmiller@groton.org</t>
+  </si>
+  <si>
+    <t>Barnaby</t>
+  </si>
+  <si>
+    <t>kbarnaby@groton.org</t>
+  </si>
+  <si>
+    <t>Catie</t>
+  </si>
+  <si>
+    <t>McNeil</t>
+  </si>
+  <si>
+    <t>cmcneil@groton.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian		</t>
+  </si>
+  <si>
+    <t>Rigali</t>
+  </si>
+  <si>
+    <t>brian.d.rigali@gmail.com</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>asimeone@groton.org</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>ssanders@groton.org</t>
+  </si>
+  <si>
+    <t>Maher</t>
+  </si>
+  <si>
+    <t>smaher@groton.org</t>
+  </si>
+  <si>
+    <t>Shashi</t>
+  </si>
+  <si>
+    <t>Dwarakanath-ji</t>
+  </si>
+  <si>
+    <t>sdwarakanath-ji@groton.org</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SchoolCal</t>
+  </si>
+  <si>
+    <t>schoolcal@groton.org</t>
+  </si>
+  <si>
+    <t>Kerrigan</t>
+  </si>
+  <si>
+    <t>skerrigan@groton.org</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Beneduce</t>
+  </si>
+  <si>
+    <t>kbeneduce@groton.org</t>
+  </si>
+  <si>
+    <t>Van Pelt</t>
+  </si>
+  <si>
+    <t>hvanpelt@groton.org</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Hillman</t>
+  </si>
+  <si>
+    <t>shillman@groton.org</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Gargone</t>
+  </si>
+  <si>
+    <t>ngargone@groton.org</t>
+  </si>
+  <si>
+    <t>Keough</t>
+  </si>
+  <si>
+    <t>ewfound33@gmail.com</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>amartinez@groton.org</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>Ruzycky</t>
+  </si>
+  <si>
+    <t>cruzycky@groton.org</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Rowland</t>
+  </si>
+  <si>
+    <t>jrowland@groton.org</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Krasnoff</t>
+  </si>
+  <si>
+    <t>nkrasnoff@groton.org</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Dennie</t>
+  </si>
+  <si>
+    <t>kdennie@groton.org</t>
+  </si>
+  <si>
+    <t>Azmar</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>awilliams@groton.org</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>wgreene@groton.org</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Fitch Dion</t>
+  </si>
+  <si>
+    <t>jdion@groton.org</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Robb</t>
+  </si>
+  <si>
+    <t>brobb@groton.org</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>aweber@groton.org</t>
+  </si>
+  <si>
+    <t>Aleah</t>
+  </si>
+  <si>
+    <t>MacKay</t>
+  </si>
+  <si>
+    <t>amackay@groton.org</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Rambacher</t>
+  </si>
+  <si>
+    <t>crambacher@groton.org</t>
+  </si>
+  <si>
+    <t>Clayton</t>
+  </si>
+  <si>
+    <t>Abrams</t>
+  </si>
+  <si>
+    <t>cabrams@groton.org</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>msanford@groton.org</t>
+  </si>
+  <si>
+    <t>Clifford</t>
+  </si>
+  <si>
+    <t>Kurker</t>
+  </si>
+  <si>
+    <t>ckurker@groton.org</t>
+  </si>
+  <si>
+    <t>Alix</t>
+  </si>
+  <si>
+    <t>Raspe</t>
+  </si>
+  <si>
+    <t>araspe@groton.org</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>hfrancis@groton.org</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>tleroy@groton.org</t>
+  </si>
+  <si>
+    <t>Temba</t>
+  </si>
+  <si>
+    <t>Maqubela</t>
+  </si>
+  <si>
+    <t>tmaqubela@groton.org</t>
+  </si>
+  <si>
+    <t>Vuyelwa</t>
+  </si>
+  <si>
+    <t>vmaqubela@groton.org</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>sfernandez@groton.org</t>
+  </si>
+  <si>
+    <t>Allison</t>
+  </si>
+  <si>
+    <t>MacBride</t>
+  </si>
+  <si>
+    <t>amacbride@groton.org</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Bannard</t>
+  </si>
+  <si>
+    <t>pbannard@groton.org</t>
+  </si>
+  <si>
+    <t>Machan</t>
+  </si>
+  <si>
+    <t>mmachan@groton.org</t>
+  </si>
+  <si>
+    <t>Mary Frances</t>
+  </si>
+  <si>
+    <t>mbannard@groton.org</t>
+  </si>
+  <si>
+    <t>Sheilaann</t>
+  </si>
+  <si>
+    <t>Fritz-Ellis</t>
+  </si>
+  <si>
+    <t>sfritzellis@groton.org</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Lamarre-Vincent</t>
+  </si>
+  <si>
+    <t>nlamarrevincent@groton.org</t>
+  </si>
+  <si>
+    <t>Amily</t>
+  </si>
+  <si>
+    <t>Dunlap</t>
+  </si>
+  <si>
+    <t>adunlap@groton.org</t>
+  </si>
+  <si>
+    <t>kmachan@groton.org</t>
+  </si>
+  <si>
+    <t>rodonnell@groton.org</t>
+  </si>
+  <si>
+    <t>Spierer</t>
+  </si>
+  <si>
+    <t>espierer@groton.org</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>Frantz</t>
+  </si>
+  <si>
+    <t>afrantz@groton.org</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
+    <t>Chica</t>
+  </si>
+  <si>
+    <t>cchica@groton.org</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t>Hamlin</t>
+  </si>
+  <si>
+    <t>ahamlin@groton.org</t>
+  </si>
+  <si>
+    <t>A46314</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>bxiao@groton.org</t>
+  </si>
+  <si>
+    <t>asaball</t>
+  </si>
+  <si>
+    <t>Saball</t>
+  </si>
+  <si>
+    <t>asaball@groton.org</t>
+  </si>
+  <si>
+    <t>azincke</t>
+  </si>
+  <si>
+    <t>Zinck</t>
+  </si>
+  <si>
+    <t>azincke@groton.org</t>
+  </si>
+  <si>
+    <t>bgardner</t>
+  </si>
+  <si>
+    <t>Becky</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>bgardner@groton.org</t>
+  </si>
+  <si>
+    <t>ChildrensCenterBB</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Beghin</t>
+  </si>
+  <si>
+    <t>ccgassistantdirector@groton.org</t>
+  </si>
+  <si>
+    <t>ChildrensCenterJN</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>joanna.nelson@theccg.org</t>
+  </si>
+  <si>
+    <t>ChildrensCenterML</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Levin</t>
+  </si>
+  <si>
+    <t>director.at.ccg@gmail.com</t>
+  </si>
+  <si>
+    <t>criccio</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Riccio</t>
+  </si>
+  <si>
+    <t>criccio@groton.org</t>
+  </si>
+  <si>
+    <t>ctemerson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Temerson</t>
+  </si>
+  <si>
+    <t>ctemerson@groton.org</t>
+  </si>
+  <si>
+    <t>cysmith</t>
+  </si>
+  <si>
+    <t>cysmith@groton.org</t>
+  </si>
+  <si>
+    <t>dgavel</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Gavel</t>
+  </si>
+  <si>
+    <t>dgavel@groton.org</t>
+  </si>
+  <si>
+    <t>dprendiville</t>
+  </si>
+  <si>
+    <t>Prendiville</t>
+  </si>
+  <si>
+    <t>dprendiville@groton.org</t>
+  </si>
+  <si>
+    <t>drecchia</t>
+  </si>
+  <si>
+    <t>Deanna</t>
+  </si>
+  <si>
+    <t>Recchia</t>
+  </si>
+  <si>
+    <t>drecchia@groton.org</t>
+  </si>
+  <si>
+    <t>EE304905-25104</t>
+  </si>
+  <si>
+    <t>Jed</t>
+  </si>
+  <si>
+    <t>Coughlin</t>
+  </si>
+  <si>
+    <t>jcoughlin@groton.org</t>
+  </si>
+  <si>
+    <t>EE304905-45234</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>hprockop@groton.org</t>
+  </si>
+  <si>
+    <t>ewetterwald@groton.org</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Wetterwald</t>
+  </si>
+  <si>
+    <t>F06946_pb</t>
+  </si>
+  <si>
+    <t>Kirsta</t>
+  </si>
+  <si>
+    <t>Davey</t>
+  </si>
+  <si>
+    <t>kdavey@groton.org</t>
+  </si>
+  <si>
+    <t>F12392_pb</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Kauffman</t>
+  </si>
+  <si>
+    <t>victoriakoifman@gmail.com</t>
+  </si>
+  <si>
+    <t>F12537_pa</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>pbenedict@groton.org</t>
+  </si>
+  <si>
+    <t>F13835_pb</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>kdonovan@groton.org</t>
+  </si>
+  <si>
+    <t>F16008_pb</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t>Trieu-Hindle</t>
+  </si>
+  <si>
+    <t>ntrieu-hindle@groton.org</t>
+  </si>
+  <si>
+    <t>F20390_pb</t>
+  </si>
+  <si>
+    <t>Celene</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>cibrahim@groton.org</t>
+  </si>
+  <si>
+    <t>F25085_pb</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>aread@groton.org</t>
+  </si>
+  <si>
+    <t>F26426_pb</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>O'Neil-Britt</t>
+  </si>
+  <si>
+    <t>moneil-britt@groton.org</t>
+  </si>
+  <si>
+    <t>F27580_pa</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>rbai@groton.org</t>
+  </si>
+  <si>
+    <t>F27777_pa</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Moriarty</t>
+  </si>
+  <si>
+    <t>dmoriarty@groton.org</t>
+  </si>
+  <si>
+    <t>F27777_pb</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Corcoran</t>
+  </si>
+  <si>
+    <t>ccorcoran@groton.org</t>
+  </si>
+  <si>
+    <t>F29070_pa</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>wriley@groton.org</t>
+  </si>
+  <si>
+    <t>ghefler</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Hefler</t>
+  </si>
+  <si>
+    <t>ghefler@groton.org</t>
+  </si>
+  <si>
+    <t>gking</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>gking@groton.org</t>
+  </si>
+  <si>
+    <t>Greg.Smith</t>
+  </si>
+  <si>
+    <t>Greg.Smith@groton.org</t>
+  </si>
+  <si>
+    <t>healthcenter</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Health Center</t>
+  </si>
+  <si>
+    <t>healthcenter@groton.org</t>
+  </si>
+  <si>
+    <t>heldredge</t>
+  </si>
+  <si>
+    <t>Eldredge</t>
+  </si>
+  <si>
+    <t>heldredge@groton.org</t>
+  </si>
+  <si>
+    <t>hmamis</t>
+  </si>
+  <si>
+    <t>Hillary</t>
+  </si>
+  <si>
+    <t>Mamis</t>
+  </si>
+  <si>
+    <t>hmamis@groton.org</t>
+  </si>
+  <si>
+    <t>ipierce</t>
+  </si>
+  <si>
+    <t>Irm</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>ipierce@groton.org</t>
+  </si>
+  <si>
+    <t>jbernard</t>
+  </si>
+  <si>
+    <t>Jen</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>jbernard@groton.org</t>
+  </si>
+  <si>
+    <t>jbownfeld</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>jspierer@groton.org</t>
+  </si>
+  <si>
+    <t>jbrailsford</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Brailsford</t>
+  </si>
+  <si>
+    <t>jbrailsford@groton.org</t>
+  </si>
+  <si>
+    <t>jbreen</t>
+  </si>
+  <si>
+    <t>Breen</t>
+  </si>
+  <si>
+    <t>jbreen@groton.org</t>
+  </si>
+  <si>
+    <t>jcarey</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>jcarey@groton.org</t>
+  </si>
+  <si>
+    <t>jcrail</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Crail</t>
+  </si>
+  <si>
+    <t>jcrail@groton.org</t>
+  </si>
+  <si>
+    <t>jhart</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>jhart@groton.org</t>
+  </si>
+  <si>
+    <t>jlebet</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Lebet</t>
+  </si>
+  <si>
+    <t>jlebet@groton.org</t>
+  </si>
+  <si>
+    <t>jmacmillan</t>
+  </si>
+  <si>
+    <t>MacMillan</t>
+  </si>
+  <si>
+    <t>jmacmillan@groton.org</t>
+  </si>
+  <si>
+    <t>jmiller</t>
+  </si>
+  <si>
+    <t>Derby-Miller</t>
+  </si>
+  <si>
+    <t>jmiller@groton.org</t>
+  </si>
+  <si>
+    <t>jraney</t>
+  </si>
+  <si>
+    <t>Raney</t>
+  </si>
+  <si>
+    <t>jraney@groton.org</t>
+  </si>
+  <si>
+    <t>jsmotherman</t>
+  </si>
+  <si>
+    <t>Smotherman</t>
+  </si>
+  <si>
+    <t>jsmotherman@groton.org</t>
+  </si>
+  <si>
+    <t>jtorres</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>jtorres@groton.org</t>
+  </si>
+  <si>
+    <t>kolsen</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Olsen</t>
+  </si>
+  <si>
+    <t>kolsen@groton.org</t>
+  </si>
+  <si>
+    <t>landelman</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Andelman</t>
+  </si>
+  <si>
+    <t>landelman@groton.org</t>
+  </si>
+  <si>
+    <t>lrichmond</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>lrichmond@groton.org</t>
+  </si>
+  <si>
+    <t>Lteduits</t>
+  </si>
+  <si>
+    <t>teDuits</t>
+  </si>
+  <si>
+    <t>lteduits@groton.org</t>
+  </si>
+  <si>
+    <t>lyeaton</t>
+  </si>
+  <si>
+    <t>Yeaton</t>
+  </si>
+  <si>
+    <t>lyeaton@groton.org</t>
+  </si>
+  <si>
+    <t>mbelanger</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Niles</t>
+  </si>
+  <si>
+    <t>mniles@groton.org</t>
+  </si>
+  <si>
+    <t>P1a_271278521</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>ahall@groton.org</t>
+  </si>
+  <si>
+    <t>P1b_432256123</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>rspring@groton.org</t>
+  </si>
+  <si>
+    <t>P1b873009120</t>
+  </si>
+  <si>
+    <t>Gerighty</t>
+  </si>
+  <si>
+    <t>kgerighty@groton.org</t>
+  </si>
+  <si>
+    <t>pcraig</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>pcraig@groton.org</t>
+  </si>
+  <si>
+    <t>pwhite</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>pwhite@groton.org</t>
+  </si>
+  <si>
+    <t>RE13018</t>
+  </si>
+  <si>
+    <t>Gnozzio</t>
+  </si>
+  <si>
+    <t>mgnozzio@groton.org</t>
+  </si>
+  <si>
+    <t>rheymann</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Heymann</t>
+  </si>
+  <si>
+    <t>rheymann@groton.org</t>
+  </si>
+  <si>
+    <t>rhummel</t>
+  </si>
+  <si>
+    <t>Hummel</t>
+  </si>
+  <si>
+    <t>rhummel@groton.org</t>
+  </si>
+  <si>
+    <t>rlalli</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Lalli</t>
+  </si>
+  <si>
+    <t>rlalli@groton.org</t>
+  </si>
+  <si>
+    <t>rleclerc</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>rleclerc@groton.org</t>
+  </si>
+  <si>
+    <t>rmazzaferro</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Mazzaferro</t>
+  </si>
+  <si>
+    <t>rmazzaferro@groton.org</t>
+  </si>
+  <si>
+    <t>routridge</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Outridge</t>
+  </si>
+  <si>
+    <t>routridge@groton.org</t>
+  </si>
+  <si>
+    <t>sminer</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>sminer@groton.org</t>
+  </si>
+  <si>
+    <t>srivetts</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Rivetts</t>
+  </si>
+  <si>
+    <t>srivetts@groton.org</t>
+  </si>
+  <si>
+    <t>tdumont</t>
+  </si>
+  <si>
+    <t>Dumont</t>
+  </si>
+  <si>
+    <t>tdumont@groton.org</t>
+  </si>
+  <si>
     <t>Advisor First Name</t>
   </si>
   <si>
@@ -342,49 +2722,49 @@
     <t>Non-Departmental</t>
   </si>
   <si>
-    <t>Graduation year</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>School year</t>
-  </si>
-  <si>
-    <t>Is incomplete</t>
-  </si>
-  <si>
-    <t>Course title</t>
-  </si>
-  <si>
-    <t>Course code</t>
-  </si>
-  <si>
-    <t>Section identifier</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Departments</t>
-  </si>
-  <si>
-    <t>Enrollment status</t>
-  </si>
-  <si>
-    <t>Enrollment type</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>School Year</t>
+  </si>
+  <si>
+    <t>Term Description</t>
+  </si>
+  <si>
+    <t>Course Title</t>
+  </si>
+  <si>
+    <t>Group Identifier</t>
+  </si>
+  <si>
+    <t>Term name</t>
+  </si>
+  <si>
+    <t>Course Length</t>
+  </si>
+  <si>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Changed Sections</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Credits attempted</t>
+  </si>
+  <si>
+    <t>Credits Earned</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>audit</t>
   </si>
   <si>
     <t>Student</t>
@@ -593,7 +2973,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -697,6 +3077,12 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -712,8 +3098,14 @@
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -870,6 +3262,10 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1169,6 +3565,3924 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="36">
+        <v>18005.0</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="36">
+        <v>18007.0</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="36">
+        <v>18025.0</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="36">
+        <v>18030.0</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="36">
+        <v>18036.0</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36">
+        <v>18049.0</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="36">
+        <v>18058.0</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="36">
+        <v>18118.0</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="36">
+        <v>18121.0</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="36">
+        <v>18129.0</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="36">
+        <v>18131.0</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="36">
+        <v>18176.0</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="36">
+        <v>18177.0</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="36">
+        <v>18188.0</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="36">
+        <v>18189.0</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="36">
+        <v>18245.0</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="36">
+        <v>18257.0</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="36">
+        <v>18258.0</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="36">
+        <v>18259.0</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="36">
+        <v>18260.0</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="36">
+        <v>18264.0</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="36">
+        <v>18322.0</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="36">
+        <v>18706.0</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="36">
+        <v>18710.0</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="36">
+        <v>18713.0</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="36">
+        <v>18720.0</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="36">
+        <v>18735.0</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="36">
+        <v>18740.0</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="36">
+        <v>18757.0</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="36">
+        <v>18762.0</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="36">
+        <v>18762.0</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="36">
+        <v>18774.0</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="36">
+        <v>18788.0</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="36">
+        <v>18825.0</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="36">
+        <v>18836.0</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="36">
+        <v>18920.0</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="36">
+        <v>19001.0</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="36">
+        <v>19005.0</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="36">
+        <v>19522.0</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="36">
+        <v>2909846.0</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="36">
+        <v>2909848.0</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="36">
+        <v>2909857.0</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="36">
+        <v>2909861.0</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="36">
+        <v>2909862.0</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="36">
+        <v>2909863.0</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="36">
+        <v>2955718.0</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="36">
+        <v>2955718.0</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="36">
+        <v>3034323.0</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="36">
+        <v>3185558.0</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="36">
+        <v>3185558.0</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="36">
+        <v>3306786.0</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="36">
+        <v>3306786.0</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="36">
+        <v>3306787.0</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="36">
+        <v>3306787.0</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="36">
+        <v>4082555.0</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="36">
+        <v>4521525.0</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="36">
+        <v>4629670.0</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="36">
+        <v>4676043.0</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="36">
+        <v>4676046.0</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="36">
+        <v>4765970.0</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="36">
+        <v>4792065.0</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="36">
+        <v>4968963.0</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="36">
+        <v>4968963.0</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="36">
+        <v>4997319.0</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="36">
+        <v>5103319.0</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="36">
+        <v>5195266.0</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="36">
+        <v>5342986.0</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="36">
+        <v>5437352.0</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="36">
+        <v>5460037.0</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="36">
+        <v>5463382.0</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="36">
+        <v>5471103.0</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="36">
+        <v>5493233.0</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="36">
+        <v>5564514.0</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="36">
+        <v>5564516.0</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="36">
+        <v>5650835.0</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="36">
+        <v>5650887.0</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="36">
+        <v>5712345.0</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="36">
+        <v>5714962.0</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="36">
+        <v>5718926.0</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="36">
+        <v>5718926.0</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="36">
+        <v>5850704.0</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="36">
+        <v>5850726.0</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="36">
+        <v>5861166.0</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="36">
+        <v>5937573.0</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="36">
+        <v>5947467.0</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="36">
+        <v>5964324.0</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="36">
+        <v>5969377.0</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="36">
+        <v>5996835.0</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="36">
+        <v>5996847.0</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="36">
+        <v>5996866.0</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="36">
+        <v>6004428.0</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="36">
+        <v>6004428.0</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="36">
+        <v>6007892.0</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="36">
+        <v>6027027.0</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="36">
+        <v>6101373.0</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="36">
+        <v>6144468.0</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="36">
+        <v>6308579.0</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="36">
+        <v>6358702.0</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="36">
+        <v>6358703.0</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="36">
+        <v>6463167.0</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="36">
+        <v>6463185.0</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="36">
+        <v>6463203.0</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="36">
+        <v>6467304.0</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="36">
+        <v>6467304.0</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="36">
+        <v>6486487.0</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="36">
+        <v>6511555.0</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="36">
+        <v>6511555.0</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="36">
+        <v>6526155.0</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="36">
+        <v>6526155.0</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="36">
+        <v>6526484.0</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="36">
+        <v>6531777.0</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="36">
+        <v>6552637.0</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="36">
+        <v>6598548.0</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="36">
+        <v>6603925.0</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="36">
+        <v>6603973.0</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="36">
+        <v>6604193.0</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="36">
+        <v>6605960.0</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" s="36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="36">
+        <v>6616104.0</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="36">
+        <v>6616104.0</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="36">
+        <v>6619949.0</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="36">
+        <v>6624745.0</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="36">
+        <v>6652942.0</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="36">
+        <v>6730743.0</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="36">
+        <v>6736089.0</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="36">
+        <v>6819002.0</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="36">
+        <v>6819032.0</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="36">
+        <v>6857075.0</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D148" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="36">
+        <v>6857077.0</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="36">
+        <v>6857152.0</v>
+      </c>
+      <c r="B150" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="D150" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="36">
+        <v>6890366.0</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="D151" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="36">
+        <v>6928953.0</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" s="36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="36">
+        <v>6943967.0</v>
+      </c>
+      <c r="B153" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D153" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="36">
+        <v>6973669.0</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="36">
+        <v>6973669.0</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D155" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="36">
+        <v>6973687.0</v>
+      </c>
+      <c r="B156" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="36">
+        <v>6973687.0</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D157" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="36">
+        <v>6984483.0</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="36">
+        <v>7032479.0</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="36">
+        <v>7048223.0</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D160" s="36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="36">
+        <v>7049859.0</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="36">
+        <v>7061606.0</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="36">
+        <v>7085136.0</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="36">
+        <v>7113020.0</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="36">
+        <v>7113020.0</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D165" s="36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="36">
+        <v>7116037.0</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="D166" s="36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="36">
+        <v>7116048.0</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="36">
+        <v>7117383.0</v>
+      </c>
+      <c r="B168" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="D168" s="36" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="36">
+        <v>7121958.0</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="36">
+        <v>7136187.0</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="D170" s="36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="36">
+        <v>7194863.0</v>
+      </c>
+      <c r="B171" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D171" s="36" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="36">
+        <v>7226436.0</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D172" s="36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="36">
+        <v>7231200.0</v>
+      </c>
+      <c r="B173" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="36">
+        <v>7231211.0</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D174" s="36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="36">
+        <v>7248416.0</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D175" s="36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="36">
+        <v>7271948.0</v>
+      </c>
+      <c r="B176" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D176" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="36">
+        <v>7271948.0</v>
+      </c>
+      <c r="B177" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D177" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="36">
+        <v>7273915.0</v>
+      </c>
+      <c r="B178" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="D178" s="36" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="36">
+        <v>7274949.0</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="D179" s="36" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="36">
+        <v>7274974.0</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="36">
+        <v>7274979.0</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="D181" s="36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="36">
+        <v>7274983.0</v>
+      </c>
+      <c r="B182" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="D182" s="36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="36">
+        <v>7274983.0</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="36">
+        <v>7274990.0</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="D184" s="36" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="36">
+        <v>7274995.0</v>
+      </c>
+      <c r="B185" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D185" s="36" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="36">
+        <v>7275050.0</v>
+      </c>
+      <c r="B186" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="D186" s="36" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="36">
+        <v>7275055.0</v>
+      </c>
+      <c r="B187" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D187" s="36" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="36">
+        <v>7307219.0</v>
+      </c>
+      <c r="B188" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="D188" s="36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="36">
+        <v>7313766.0</v>
+      </c>
+      <c r="B189" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="D189" s="36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="36">
+        <v>7325491.0</v>
+      </c>
+      <c r="B190" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D190" s="36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="36">
+        <v>7327792.0</v>
+      </c>
+      <c r="B191" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="C191" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="D191" s="36" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="36">
+        <v>7327940.0</v>
+      </c>
+      <c r="B192" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="C192" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="D192" s="36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="36">
+        <v>7327940.0</v>
+      </c>
+      <c r="B193" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="C193" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="D193" s="36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="36">
+        <v>88001.0</v>
+      </c>
+      <c r="B194" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="C194" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D194" s="36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="36">
+        <v>88005.0</v>
+      </c>
+      <c r="B195" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C195" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D195" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="36">
+        <v>88012.0</v>
+      </c>
+      <c r="B196" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D196" s="36" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="36">
+        <v>88013.0</v>
+      </c>
+      <c r="B197" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D197" s="36" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="36">
+        <v>88016.0</v>
+      </c>
+      <c r="B198" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="D198" s="36" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="36">
+        <v>88020.0</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="D199" s="36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="36">
+        <v>88023.0</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="D200" s="36" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="36">
+        <v>88027.0</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D201" s="36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="36">
+        <v>88030.0</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="D202" s="36" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="36">
+        <v>88041.0</v>
+      </c>
+      <c r="B203" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="D203" s="36" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="36">
+        <v>88048.0</v>
+      </c>
+      <c r="B204" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="C204" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="D204" s="36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="36">
+        <v>88049.0</v>
+      </c>
+      <c r="B205" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="D205" s="36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="36">
+        <v>88053.0</v>
+      </c>
+      <c r="B206" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D206" s="36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="36">
+        <v>88054.0</v>
+      </c>
+      <c r="B207" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D207" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="36">
+        <v>88054.0</v>
+      </c>
+      <c r="B208" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C208" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D208" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="36">
+        <v>88060.0</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="D209" s="36" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="36">
+        <v>88062.0</v>
+      </c>
+      <c r="B210" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="C210" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="D210" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="36">
+        <v>88066.0</v>
+      </c>
+      <c r="B211" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D211" s="36" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="36">
+        <v>88068.0</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C212" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="D212" s="36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="B213" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="C213" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="D213" s="36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="D214" s="36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="B215" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="D215" s="36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="C216" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="D216" s="36" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="C217" s="36" t="s">
+        <v>608</v>
+      </c>
+      <c r="D217" s="36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B218" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="C218" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D218" s="36" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="B219" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C219" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="D219" s="36" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B220" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="D220" s="36" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="36" t="s">
+        <v>621</v>
+      </c>
+      <c r="B221" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="C221" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="D221" s="36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B222" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="C222" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D222" s="36" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="36" t="s">
+        <v>627</v>
+      </c>
+      <c r="B223" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C223" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="D223" s="36" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="B224" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C224" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="D224" s="36" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B225" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="C225" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="D225" s="36" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="B226" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C226" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="D226" s="36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="B227" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="C227" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D227" s="36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="36" t="s">
+        <v>645</v>
+      </c>
+      <c r="B228" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="C228" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="D228" s="36" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="C229" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="D229" s="36" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="36" t="s">
+        <v>652</v>
+      </c>
+      <c r="B230" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="C230" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D230" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="B231" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C231" s="36" t="s">
+        <v>657</v>
+      </c>
+      <c r="D231" s="36" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="B232" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C232" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="D232" s="36" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="C233" s="36" t="s">
+        <v>664</v>
+      </c>
+      <c r="D233" s="36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="C234" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="D234" s="36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="B235" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C235" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="D235" s="36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="B236" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C236" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="D236" s="36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="B237" s="36" t="s">
+        <v>674</v>
+      </c>
+      <c r="C237" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="D237" s="36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="36" t="s">
+        <v>677</v>
+      </c>
+      <c r="B238" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C238" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="D238" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="B239" s="36" t="s">
+        <v>681</v>
+      </c>
+      <c r="C239" s="36" t="s">
+        <v>682</v>
+      </c>
+      <c r="D239" s="36" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="C240" s="36" t="s">
+        <v>686</v>
+      </c>
+      <c r="D240" s="36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="C241" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="D241" s="36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="B242" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="C242" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="D242" s="36" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="B243" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="C243" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="D243" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="36" t="s">
+        <v>699</v>
+      </c>
+      <c r="B244" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="C244" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D244" s="36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="B245" s="36" t="s">
+        <v>702</v>
+      </c>
+      <c r="C245" s="36" t="s">
+        <v>703</v>
+      </c>
+      <c r="D245" s="36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="36" t="s">
+        <v>705</v>
+      </c>
+      <c r="B246" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C246" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="D246" s="36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="B247" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="C247" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="D247" s="36" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="B248" s="36" t="s">
+        <v>713</v>
+      </c>
+      <c r="C248" s="36" t="s">
+        <v>714</v>
+      </c>
+      <c r="D248" s="36" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>717</v>
+      </c>
+      <c r="C249" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="D249" s="36" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="36" t="s">
+        <v>720</v>
+      </c>
+      <c r="B250" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C250" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="D250" s="36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="C251" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="D251" s="36" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="D252" s="36" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="36" t="s">
+        <v>730</v>
+      </c>
+      <c r="B253" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C253" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D253" s="36" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="B254" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="C254" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="D254" s="36" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C255" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="D255" s="36" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="B256" s="36" t="s">
+        <v>741</v>
+      </c>
+      <c r="C256" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="D256" s="36" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="B257" s="36" t="s">
+        <v>741</v>
+      </c>
+      <c r="C257" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="D257" s="36" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="B258" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C258" s="36" t="s">
+        <v>745</v>
+      </c>
+      <c r="D258" s="36" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="B259" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" s="36" t="s">
+        <v>748</v>
+      </c>
+      <c r="D259" s="36" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="B260" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C260" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="D260" s="36" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="B261" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C261" s="36" t="s">
+        <v>754</v>
+      </c>
+      <c r="D261" s="36" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="B262" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="C262" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="D262" s="36" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="B263" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="C263" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="D263" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B264" s="36" t="s">
+        <v>764</v>
+      </c>
+      <c r="C264" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="D264" s="36" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="B265" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="C265" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="D265" s="36" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C266" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="D266" s="36" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="B267" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C267" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="D267" s="36" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>778</v>
+      </c>
+      <c r="C268" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="D268" s="36" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="B269" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="C269" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="D269" s="36" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="B270" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C270" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="D270" s="36" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="B271" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="C271" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="D271" s="36" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="B272" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C272" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="D272" s="36" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="B273" s="36" t="s">
+        <v>795</v>
+      </c>
+      <c r="C273" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D273" s="36" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C274" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="D274" s="36" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B275" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="C275" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="B276" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C276" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="D276" s="36" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="B277" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="C277" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="D277" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="B278" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>813</v>
+      </c>
+      <c r="D278" s="36" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="B279" s="36" t="s">
+        <v>816</v>
+      </c>
+      <c r="C279" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="D279" s="36" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="36" t="s">
+        <v>819</v>
+      </c>
+      <c r="B280" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="C280" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="D280" s="36" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="B281" s="36" t="s">
+        <v>824</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="D281" s="36" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="36" t="s">
+        <v>827</v>
+      </c>
+      <c r="B282" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C282" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="D282" s="36" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="B283" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C283" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="D283" s="36" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.88"/>
     <col customWidth="1" min="2" max="2" width="7.13"/>
@@ -1182,7 +7496,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="30" t="s">
@@ -1201,10 +7515,10 @@
         <v>39</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>55</v>
+        <v>834</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>56</v>
+        <v>835</v>
       </c>
       <c r="I1" s="20" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"New Advisor",IFNA(xlookup(A:A,'Student List'!A:A,'Student List'!M:M),false))</f>
@@ -1240,7 +7554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1283,10 +7597,10 @@
         <v>39</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>55</v>
+        <v>834</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>56</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2">
@@ -1294,7 +7608,7 @@
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="36"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -1304,7 +7618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1321,39 +7635,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="39" t="str">
+      <c r="E1" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="F1" s="41" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(F:F)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="39" t="str">
+      <c r="G1" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1" s="41" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(E:E)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
         <v>Formatted Description</v>
       </c>
-      <c r="K1" s="39" t="str">
+      <c r="K1" s="41" t="str">
         <f t="array" ref="K1:K2">if(row(K:K)=1,"Available",vlookup(A:A,'Available Courses'!A2:F$3,6,false))</f>
         <v>Available</v>
       </c>
@@ -1396,7 +7710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1413,38 +7727,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>72</v>
+      <c r="A1" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>846</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>850</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="2">
@@ -2221,7 +8535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2236,82 +8550,106 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
+    <col customWidth="1" min="1" max="1" width="10.0"/>
     <col customWidth="1" min="8" max="8" width="37.25"/>
     <col customWidth="1" min="11" max="11" width="27.88"/>
-    <col customWidth="1" min="20" max="20" width="55.38"/>
-    <col customWidth="1" min="21" max="21" width="9.38"/>
+    <col customWidth="1" min="20" max="21" width="23.38"/>
+    <col customWidth="1" min="27" max="27" width="39.63"/>
+    <col customWidth="1" min="28" max="28" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_BaseTitle)=1,""Base Title"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\))$""),0,1),Enrollment_TitleWithTerm))))"),"Base Title")</f>
+      <c r="E1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>854</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>855</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>836</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>856</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>857</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>864</v>
+      </c>
+      <c r="T1" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_TitleWithoutTerm)=1,""Title without Term"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\)\.*)$""),0,1),Enrollment_TitleWi"&amp;"thTerm))))"),"Title without Term")</f>
+        <v>Title without Term</v>
+      </c>
+      <c r="U1" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Base Title"",REGEXEXTRACT(Enrollment_TitleWithoutTerm,""([^(]+)\s?\(?.*\)?"")))"),"Base Title")</f>
         <v>Base Title</v>
       </c>
-      <c r="P1" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_ParentheticalNote)=1,""Parenthetical Note"",ifna(REGEXEXTRACT(Enrollment_BaseTitle,""\((.+)\)""),)))"),"Parenthetical Note")</f>
+      <c r="V1" s="43" t="str">
+        <f t="array" ref="V1:V2">if(row(Enrollment_Order)=1,"Order",switch(Enrollment_TermName,"Fall",1,"Winter",2,"Spring",3,0)-if(Enrollment_Dropped,0.5,0))</f>
+        <v>Order</v>
+      </c>
+      <c r="W1" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_ParentheticalNote)=1,""Parenthetical Note"",ifna(REGEXEXTRACT(Enrollment_TitleWithoutTerm,""\((.+)\)""),)))"),"Parenthetical Note")</f>
         <v>Parenthetical Note</v>
       </c>
-      <c r="Q1" s="39" t="str">
-        <f t="array" ref="Q1:Q2">if(row(Enrollment_Department)=1,"Department",ifna(if(Enrollment_DepartmentList="History and Social Science | Philosophy and Religious Studies","History and Social Science",Enrollment_DepartmentList)))</f>
-        <v>Department</v>
-      </c>
-      <c r="R1" s="39" t="str">
-        <f t="array" ref="R1:R2">if(row(Enrollment_Term)=1,"Term",if(Enrollment_CourseCode=5741,"Fall, Winter",SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "Year","Year")))</f>
+      <c r="X1" s="43" t="str">
+        <f t="array" ref="X1:X2">if(row(Enrollment_Term)=1,"Term",if(Enrollment_CourseCode=5741,"Fall, Winter",SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "","")))</f>
         <v>Term</v>
       </c>
-      <c r="S1" s="39" t="str">
-        <f t="array" ref="S1:S2">if(row(Enrollment_Order)=1,"Order",switch(Enrollment_TermName,"Fall Term",1,"Winter Term",2,"Spring Term",3,0)-if(Enrollment_Status="Dropped",0.5,0))</f>
-        <v>Order</v>
-      </c>
-      <c r="T1" s="39" t="str">
-        <f t="array" ref="T1:T2">if(row(Enrollment_Title)=1,"Formatted Course Title",if(Enrollment_ParentheticalNote&lt;&gt;"",left(Enrollment_BaseTitle, len(Enrollment_BaseTitle)-1),Enrollment_BaseTitle)&amp;if((Enrollment_Type="Audit")+(Enrollment_Status="Dropped")+((Enrollment_Term&lt;&gt;"Year")*(Enrollment_Term&lt;&gt;"")),if(Enrollment_ParentheticalNote&lt;&gt;"",", "," (")&amp;if((Enrollment_Term&lt;&gt;"")*(Enrollment_Term&lt;&gt;"Year"),Enrollment_Term,"")&amp;if((Enrollment_Term&lt;&gt;"")*(Enrollment_Term&lt;&gt;"Year")*(Enrollment_Type="Audit"),", ","")&amp;if(Enrollment_Type="Audit","Audit","")&amp;If((Enrollment_Type="Audit")*(Enrollment_Status="Dropped"),", ","")&amp;if(Enrollment_Status="Dropped","Dropped","")&amp;")",if(Enrollment_ParentheticalNote&lt;&gt;"",")","")))</f>
-        <v>Formatted Course Title</v>
-      </c>
-      <c r="U1" s="40" t="str">
-        <f t="array" ref="U1:U2">if(row(Enrollment_Include)=1,"Include",((Enrollment_Status="Enrolled")+((Enrollment_Status="Dropped")*(countifs(Enrollment_Host_ID,Enrollment_Host_ID,Enrollment_CourseCode,Enrollment_CourseCode,Enrollment_Year,Enrollment_Year,Enrollment_Term,Enrollment_Term,Enrollment_Status,"Enrolled")=0)))&gt;0)</f>
+      <c r="Y1" s="43" t="str">
+        <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Audit",if((Enrollment_CreditsAttempted="")*not(Enrollment_Dropped)*(today()&gt;Q:Q),"audit",))</f>
+        <v>Audit</v>
+      </c>
+      <c r="Z1" s="43" t="str">
+        <f t="array" ref="Z1:Z2">if(row(Z:Z)=1,"Dropped",if(Enrollment_Dropped*not(Enrollment_ChangedSections),"dropped",))</f>
+        <v>Dropped</v>
+      </c>
+      <c r="AA1" s="43" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(AA:AA)=1,""Enrollment Title"",substitute(Enrollment_BaseTitle&amp;"" (""&amp;substitute(trim(transpose(query(transpose(W:Z),,ROWS(AA:AA)))),"" "","", "")&amp;"")"","" ()"","""")))"),"#REF!")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB1" s="44" t="str">
+        <f t="array" ref="AB1:AB2">if(row(Enrollment_Include)=1,"Include",NOT((Enrollment_Department="Philosophy and Religious Studies")*(Enrollment_CourseCode=6100))*(not(Enrollment_Dropped)+Enrollment_Dropped*not(Enrollment_ChangedSections))&gt;0)</f>
         <v>Include</v>
       </c>
     </row>
@@ -2327,31 +8665,43 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="41"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="33">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" s="33">
         <v>0.0</v>
       </c>
-      <c r="T2" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="33" t="b">
-        <v>0</v>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="$A$1:$AB$2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2366,365 +8716,365 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="47" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46" t="str">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("if(A2&lt;&gt;"""",A2,REGEXEXTRACT(A1,""\[(.+)\]$""))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="46" t="str">
+      <c r="C2" s="50" t="str">
         <f t="array" ref="C2">join(" ",INDEX('Student List'!C:D,match(B2,'Student List'!A:A,0),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="46" t="str">
+      <c r="D2" s="50" t="str">
         <f t="array" ref="D2">INDEX('Student List'!E:E,match(B2,'Student List'!A:A,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="48" t="str">
+      <c r="A3" s="51" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" s="52" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="48" t="e">
+      <c r="C3" s="52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="49" t="e">
+      <c r="D3" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="49" t="e">
+      <c r="E3" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="50" t="e">
+      <c r="F3" s="54" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>95</v>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>871</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>872</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>873</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53" t="str">
+      <c r="A5" s="55"/>
+      <c r="B5" s="57" t="str">
         <f t="array" ref="B5:F5">(B3:F3-1)&amp;" - "&amp;B3:F3</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="53" t="e">
+      <c r="C5" s="57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D5" s="53" t="e">
+      <c r="D5" s="57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="53" t="e">
+      <c r="E5" s="57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" s="53" t="e">
+      <c r="F5" s="57" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="55" t="str">
+      <c r="A6" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C6" s="55" t="str">
+      <c r="C6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D6" s="55" t="str">
+      <c r="D6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E6" s="55" t="str">
+      <c r="E6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F6" s="55" t="str">
+      <c r="F6" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="55" t="str">
+      <c r="A7" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C7" s="55" t="str">
+      <c r="C7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D7" s="55" t="str">
+      <c r="D7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E7" s="55" t="str">
+      <c r="E7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F7" s="55" t="str">
+      <c r="F7" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="55" t="str">
+      <c r="A8" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="B8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C8" s="55" t="str">
+      <c r="C8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D8" s="55" t="str">
+      <c r="D8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E8" s="55" t="str">
+      <c r="E8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F8" s="55" t="str">
+      <c r="F8" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="55" t="str">
+      <c r="A9" s="58" t="s">
+        <v>844</v>
+      </c>
+      <c r="B9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C9" s="55" t="str">
+      <c r="C9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D9" s="55" t="str">
+      <c r="D9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E9" s="55" t="str">
+      <c r="E9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F9" s="55" t="str">
+      <c r="F9" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="55" t="str">
+      <c r="A10" s="58" t="s">
+        <v>845</v>
+      </c>
+      <c r="B10" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C10" s="55" t="str">
+      <c r="C10" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D10" s="55" t="str">
+      <c r="D10" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E10" s="55" t="str">
+      <c r="E10" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F10" s="55" t="str">
+      <c r="F10" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="55" t="str">
+      <c r="A11" s="58" t="s">
+        <v>846</v>
+      </c>
+      <c r="B11" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C11" s="55" t="str">
+      <c r="C11" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="55" t="str">
+      <c r="D11" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E11" s="55" t="str">
+      <c r="E11" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F11" s="55" t="str">
+      <c r="F11" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="55" t="str">
+      <c r="A12" s="58" t="s">
+        <v>847</v>
+      </c>
+      <c r="B12" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C12" s="55" t="str">
+      <c r="C12" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D12" s="55" t="str">
+      <c r="D12" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E12" s="55" t="str">
+      <c r="E12" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F12" s="55" t="str">
+      <c r="F12" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="55" t="str">
+      <c r="A13" s="58" t="s">
+        <v>848</v>
+      </c>
+      <c r="B13" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D13" s="55" t="str">
+      <c r="D13" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E13" s="55" t="str">
+      <c r="E13" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F13" s="55" t="str">
+      <c r="F13" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="55" t="str">
+      <c r="A14" s="58" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D14" s="55" t="str">
+      <c r="D14" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E14" s="55" t="str">
+      <c r="E14" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="55" t="str">
+      <c r="F14" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="55" t="str">
+      <c r="A15" s="58" t="s">
+        <v>850</v>
+      </c>
+      <c r="B15" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D15" s="55" t="str">
+      <c r="D15" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E15" s="55" t="str">
+      <c r="E15" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F15" s="55" t="str">
+      <c r="F15" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="55" t="str">
+      <c r="A16" s="58" t="s">
+        <v>851</v>
+      </c>
+      <c r="B16" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C16" s="55" t="str">
+      <c r="C16" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D16" s="55" t="str">
+      <c r="D16" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E16" s="55" t="str">
+      <c r="E16" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F16" s="55" t="str">
+      <c r="F16" s="59" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
@@ -2936,13 +9286,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$F$3">
-    <sortState ref="A2:F3">
-      <sortCondition ref="D2:D3"/>
-      <sortCondition ref="B2:B3"/>
-      <sortCondition ref="C2:C3"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$2:$F$3"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -3104,6 +9448,31 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$S$2">
+    <sortState ref="A1:S2">
+      <sortCondition ref="G1:G2"/>
+      <sortCondition ref="F1:F2"/>
+      <sortCondition ref="E1:E2"/>
+    </sortState>
+  </autoFilter>
+  <customSheetViews>
+    <customSheetView guid="{580BB1D6-D2BB-48BE-966E-32C03E52A03B}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$S$2">
+        <filterColumn colId="14">
+          <filters>
+            <filter val="TRUE"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{73B25A2C-1AF9-4D3B-9BE0-533A2CFAA2D6}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$S$2">
+        <filterColumn colId="6">
+          <filters/>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="O2:P2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FALSE"</formula>
@@ -3196,6 +9565,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$J$2">
+    <sortState ref="A1:J2">
+      <sortCondition ref="G1:G2"/>
+      <sortCondition ref="F1:F2"/>
+      <sortCondition ref="E1:E2"/>
+    </sortState>
+  </autoFilter>
+  <customSheetViews>
+    <customSheetView guid="{73B25A2C-1AF9-4D3B-9BE0-533A2CFAA2D6}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$2"/>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="H2:I2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FALSE"</formula>
@@ -3248,7 +9629,7 @@
         <v>Advisor Last Name</v>
       </c>
       <c r="F1" s="20" t="str">
-        <f t="array" ref="F1:F2">if(row(F:F)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Advisor List'!F:F,1,false))),TRUE,FALSE))</f>
+        <f t="array" ref="F1:F2">if(row(F:F)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Faculty List'!D:D,1,false))),TRUE,FALSE))</f>
         <v>Inactive</v>
       </c>
     </row>
@@ -3269,6 +9650,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$F$2">
+    <sortState ref="A1:F2">
+      <sortCondition ref="E1:E2"/>
+      <sortCondition ref="D1:D2"/>
+    </sortState>
+  </autoFilter>
+  <customSheetViews>
+    <customSheetView guid="{73B25A2C-1AF9-4D3B-9BE0-533A2CFAA2D6}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$2">
+        <filterColumn colId="5">
+          <filters>
+            <filter val="FALSE"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <conditionalFormatting sqref="F2">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FALSE"</formula>
@@ -3512,7 +9910,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0BFF3F9D-97B4-4BC6-8BD3-60603390DAE2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{580BB1D6-D2BB-48BE-966E-32C03E52A03B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>
@@ -3521,7 +9919,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{7F298578-268A-4785-9187-44C66E84FF9F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{73B25A2C-1AF9-4D3B-9BE0-533A2CFAA2D6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -79,17 +79,17 @@
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Student Folder Inventory'!$A$1:$J$2</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'Student Enrollments'!$A$1:$AB$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_35BE0E9B_D9C9_4DAD_B0EB_7B86A10CD432_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="Z_35BE0E9B_D9C9_4DAD_B0EB_7B86A10CD432_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
-    <definedName hidden="1" localSheetId="6" name="Z_35BE0E9B_D9C9_4DAD_B0EB_7B86A10CD432_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_35BE0E9B_D9C9_4DAD_B0EB_7B86A10CD432_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_B5D0B006_69D8_4080_A127_E21D1A14FCB7_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_B5D0B006_69D8_4080_A127_E21D1A14FCB7_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
+    <definedName hidden="1" localSheetId="6" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_673A4590_BC65_4BC5_8F96_361B74C7351F_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_673A4590_BC65_4BC5_8F96_361B74C7351F_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B5D0B006-69D8-4080-A127-E21D1A14FCB7}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{35BE0E9B-D9C9-4DAD-B0EB-7B86A10CD432}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -147,7 +147,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Course List" 4/3/2024, 2:15:27 PM</t>
+        <t xml:space="preserve">Last updated from "Course List" 4/4/2024, 12:05:47 PM</t>
       </text>
     </comment>
   </commentList>
@@ -162,7 +162,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Student Enrollments" 4/3/2024, 10:52:31 AM</t>
+        <t xml:space="preserve">Last updated from "Student Enrollments" 4/4/2024, 10:57:46 AM</t>
       </text>
     </comment>
   </commentList>
@@ -3752,7 +3752,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B5D0B006-69D8-4080-A127-E21D1A14FCB7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>
@@ -3761,7 +3761,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{35BE0E9B-D9C9-4DAD-B0EB-7B86A10CD432}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>
@@ -8050,7 +8050,7 @@
         <v>Cross-registered</v>
       </c>
       <c r="N1" s="22" t="str">
-        <f t="array" ref="N1:N2">byrow({B:B,D:D,M:M},lambda(row,if(index(row,1,1)="Course Code","Display Department",if(index(row,1,3),index(CrossRegistered_Department,match(index(row,1,1),CrossRegistered_CourseCode,0),0),INDEX(row,1,2)))))</f>
+        <f t="array" ref="N1:N2">byrow({B:B,D:D,M:M},lambda(row,if(index(row,1,1)="Course Code","Display Department",if(index(row,1,3),if(index(CrossRegistered_Department,match(index(row,1,1),CrossRegistered_CourseCode,0),0)&lt;&gt;"",index(CrossRegistered_Department,match(index(row,1,1),CrossRegistered_CourseCode,0),0),index(row,1,2)),INDEX(row,1,2)))))</f>
         <v>Display Department</v>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
         <v>#REF!</v>
       </c>
       <c r="AB1" s="54" t="str">
-        <f t="array" ref="AB1:AB2">if(row(Enrollment_Include)=1,"Include",NOT(vlookup(Enrollment_CourseCode,'Course List'!B:M,12,false)*(Enrollment_Department&lt;&gt;vlookup(Enrollment_CourseCode,'Course List'!B:N,13,false)))*(not(Enrollment_Dropped)+Enrollment_Dropped*not(Enrollment_ChangedSections))&gt;0)</f>
+        <f t="array" ref="AB1:AB2">if(row(Enrollment_Include)=1,"Include",NOT(vlookup(Enrollment_CourseCode,'Course List'!B:M,12,false)*((countifs('Course List'!B:B,Enrollment_CourseCode,'Course List'!N:N,Enrollment_Department)=0)))*(not(Enrollment_Dropped)+Enrollment_Dropped*not(Enrollment_ChangedSections))&gt;0)</f>
         <v>Include</v>
       </c>
     </row>
@@ -9636,7 +9636,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="24" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A2:A3,lambda(code,if(code=""Course Code"",""Registered Departments"",if(code&lt;&gt;"""",sort(unique({transpose(filter('Course List'!D:D,'Course List'!B:B=code)),""Non-Departmental""})),))))"),"Registered Departments")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A2:A3,lambda(code,if(code=""Course Code"",""Registered Departments"",if(code&lt;&gt;"""",transpose(sort(unique(filter('Course List'!D:D,'Course List'!B:B=code)))),))))"),"Registered Departments")</f>
         <v>Registered Departments</v>
       </c>
       <c r="E2" s="24"/>
@@ -9833,7 +9833,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B5D0B006-69D8-4080-A127-E21D1A14FCB7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$2">
         <filterColumn colId="14">
           <filters>
@@ -9842,7 +9842,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{35BE0E9B-D9C9-4DAD-B0EB-7B86A10CD432}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$2">
         <filterColumn colId="6">
           <filters/>
@@ -9954,7 +9954,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{35BE0E9B-D9C9-4DAD-B0EB-7B86A10CD432}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$J$2"/>
     </customSheetView>
   </customSheetViews>
@@ -10038,7 +10038,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{35BE0E9B-D9C9-4DAD-B0EB-7B86A10CD432}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$2">
         <filterColumn colId="5">
           <filters>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -79,17 +79,17 @@
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Student Folder Inventory'!$A$1:$J$2</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">'Student Enrollments'!$A$1:$AB$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
-    <definedName hidden="1" localSheetId="6" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_19212B59_ADC0_4C7C_B33B_E4180A0A832B_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_673A4590_BC65_4BC5_8F96_361B74C7351F_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_673A4590_BC65_4BC5_8F96_361B74C7351F_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_0D1BABFC_5A64_4F6D_B3B2_985CB56A84C6_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="Z_0D1BABFC_5A64_4F6D_B3B2_985CB56A84C6_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
+    <definedName hidden="1" localSheetId="6" name="Z_0D1BABFC_5A64_4F6D_B3B2_985CB56A84C6_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_0D1BABFC_5A64_4F6D_B3B2_985CB56A84C6_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_A955676D_EF55_4F9A_978F_61A99DC86708_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_A955676D_EF55_4F9A_978F_61A99DC86708_.wvu.FilterData">'Student List'!$A$1:$N$2</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A955676D-EF55-4F9A-978F-61A99DC86708}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0D1BABFC-5A64-4F6D-B3B2-985CB56A84C6}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -147,7 +147,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Course List" 4/4/2024, 12:05:47 PM</t>
+        <t xml:space="preserve">Last updated from "Course List" 4/10/2024, 8:49:52 AM</t>
       </text>
     </comment>
   </commentList>
@@ -3752,7 +3752,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A955676D-EF55-4F9A-978F-61A99DC86708}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>
@@ -3761,7 +3761,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0D1BABFC-5A64-4F6D-B3B2-985CB56A84C6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$2">
         <filterColumn colId="13">
           <filters>
@@ -8038,7 +8038,7 @@
         <v>853</v>
       </c>
       <c r="K1" s="22" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(F:F)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(F:F,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(F:F)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
         <v>Formatted Description</v>
       </c>
       <c r="L1" s="22" t="str">
@@ -8077,8 +8077,8 @@
         <v/>
       </c>
       <c r="K2" s="37" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FALSE")</f>
-        <v>FALSE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
+        <v/>
       </c>
       <c r="L2" s="37" t="e">
         <v>#N/A</v>
@@ -9508,8 +9508,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.88"/>
     <col customWidth="1" min="2" max="2" width="11.38"/>
-    <col customWidth="1" min="3" max="3" width="53.75"/>
+    <col customWidth="1" min="3" max="3" width="37.38"/>
     <col customWidth="1" min="4" max="4" width="27.88"/>
+    <col customWidth="1" min="5" max="5" width="47.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9833,7 +9834,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{673A4590-BC65-4BC5-8F96-361B74C7351F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A955676D-EF55-4F9A-978F-61A99DC86708}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$2">
         <filterColumn colId="14">
           <filters>
@@ -9842,7 +9843,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0D1BABFC-5A64-4F6D-B3B2-985CB56A84C6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$S$2">
         <filterColumn colId="6">
           <filters/>
@@ -9954,7 +9955,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0D1BABFC-5A64-4F6D-B3B2-985CB56A84C6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$J$2"/>
     </customSheetView>
   </customSheetViews>
@@ -10038,7 +10039,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{19212B59-ADC0-4C7C-B33B-E4180A0A832B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0D1BABFC-5A64-4F6D-B3B2-985CB56A84C6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$2">
         <filterColumn colId="5">
           <filters>

--- a/schema/sheets/Course Planning Data.xlsx
+++ b/schema/sheets/Course Planning Data.xlsx
@@ -40,16 +40,18 @@
     <definedName name="Student_First_Name">'Student List'!$C:$C</definedName>
     <definedName name="Grad_Year">'Student List'!$E:$E</definedName>
     <definedName name="Param_CollegeCounselingOffice">Parameters!$B$10</definedName>
-    <definedName name="StudentList_StudentEmail">'Student List'!$B:$B</definedName>
+    <definedName name="Student_Email">'Student List'!$B:$B</definedName>
     <definedName name="Enrollment_TitleWithTerm">'Student Enrollments'!$H:$H</definedName>
     <definedName name="IEH_NumericalYears">'Individual Enrollment History'!$B$3:$F$3</definedName>
     <definedName name="IEH_Departments">'Individual Enrollment History'!$A$6:$A$16</definedName>
     <definedName name="Label_StudentFirstName">'Student List'!$C$1</definedName>
+    <definedName name="Student_Grad_Year">'Student List'!$E:$E</definedName>
     <definedName name="Enrollment_ParentheticalNote">'Student Enrollments'!$W:$W</definedName>
     <definedName name="Param_CoursePlanTemplate">Parameters!$B$11</definedName>
     <definedName name="Enrollment_TermName">'Student Enrollments'!$K:$K</definedName>
     <definedName name="Course_Title">'Course List'!$C$2</definedName>
     <definedName name="Enrollment_TitleWithoutTerm">'Student Enrollments'!$T:$T</definedName>
+    <definedName name="Student_Menu_Listing">'Student List'!$H:$H</definedName>
     <definedName name="Faculty_Host_ID">'Faculty List'!$A:$A</definedName>
     <definedName name="Param_AcademicOffice">Parameters!$B$8</definedName>
     <definedName name="Faculty_Email">'Faculty List'!$D:$D</definedName>
@@ -62,17 +64,17 @@
     <definedName name="Course_Available">'Course List'!$L$2</definedName>
     <definedName name="Advisor_Email">'Advisor List'!$G:$G</definedName>
     <definedName name="CrossRegistered_Department">'Cross-registered Courses'!$C$3</definedName>
+    <definedName name="Student_Inactive">'Student List'!$G:$G</definedName>
     <definedName name="Enrollment_Order">'Student Enrollments'!$V:$V</definedName>
     <definedName name="Student_Last_Name">'Student List'!$D:$D</definedName>
     <definedName name="Enrollment_Dropped">'Student Enrollments'!$O:$O</definedName>
     <definedName name="Course_Department">'Course List'!$N$2</definedName>
     <definedName name="Param_StudiesCommittee">Parameters!$B$9</definedName>
     <definedName name="Clean_AvailableCourses">'Available Courses'!$A$3</definedName>
-    <definedName name="RollOver_CoursePlanPermissions">#REF!</definedName>
+    <definedName name="Advisor_Most_Likely_Advisor">'Advisor List'!$K:$K</definedName>
     <definedName name="Enrollment_BaseTitle">'Student Enrollments'!$U:$U</definedName>
     <definedName name="Param_AdvisorFolderNameFormat">Parameters!$B$6</definedName>
     <definedName name="Course_CrossRegistered">'Course List'!$M$2</definedName>
-    <definedName name="Param_RollOverAcademicYear">Parameters!$B$12</definedName>
     <definedName name="Enrollment_CreditsAttempted">'Student Enrollments'!$R:$R</definedName>
     <definedName name="Advisor_Host_ID">'Advisor List'!$A:$A</definedName>
     <definedName name="CrossRegistered_CourseCode">'Cross-registered Courses'!$A$3</definedName>
@@ -84,9 +86,7 @@
     <definedName name="Grad_Year_Label">'Student List'!$E$1</definedName>
     <definedName name="Student_Host_ID_Label">'Student List'!$A$1</definedName>
     <definedName name="Enrollment_Enrolled">'Student Enrollments'!$N:$N</definedName>
-    <definedName name="Enrollment_Type">#REF!</definedName>
     <definedName name="Param_NumOptionsPerDepartment">Parameters!$B$1</definedName>
-    <definedName name="RollOver_StudentFolderPermissions">#REF!</definedName>
     <definedName name="Course_Plan_Host_ID">'Course Plan Inventory'!$A:$A</definedName>
     <definedName name="Enrollment_Annotation">'Student Enrollments'!$W:$Z</definedName>
     <definedName name="Faculty_First_Name_Label">'Faculty List'!$B$1</definedName>
@@ -94,23 +94,24 @@
     <definedName name="Enrollment_Term">'Student Enrollments'!$X:$X</definedName>
     <definedName name="Clean_IEH">'Individual Enrollment History'!$A$1:$A$2</definedName>
     <definedName name="Current_Advisor">'Advisor List'!$J:$J</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$1:$F$3</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Available Courses'!$A$2:$F$3</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Cross-registered Courses'!$A$2:$P$3</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Course Plan Inventory'!$A$1:$R$2</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Student Folder Inventory'!$A$1:$K$2</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'Advisor List'!$A$1:$J$2</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">'Student Enrollments'!$A$1:$AB$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_6AD4D4A6_ED0D_40E6_8DEF_5D96ED6B85A3_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_6AD4D4A6_ED0D_40E6_8DEF_5D96ED6B85A3_.wvu.FilterData">'Student List'!$A$1:$F$2</definedName>
-    <definedName hidden="1" localSheetId="4" name="Z_3FBFD739_53C5_42AA_9D25_C0C9F903DD50_.wvu.FilterData">'Course Plan Inventory'!$A$1:$S$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="Z_3FBFD739_53C5_42AA_9D25_C0C9F903DD50_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
-    <definedName hidden="1" localSheetId="6" name="Z_3FBFD739_53C5_42AA_9D25_C0C9F903DD50_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="Z_3FBFD739_53C5_42AA_9D25_C0C9F903DD50_.wvu.FilterData">'Student List'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_8A0215D2_B727_4E45_BA43_9D0FF4AE1D0C_.wvu.FilterData">'Course Plan Inventory'!$A$1:$R$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_8A0215D2_B727_4E45_BA43_9D0FF4AE1D0C_.wvu.FilterData">'Student List'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="4" name="Z_C8DFF587_8138_47F6_882F_E53E2855F909_.wvu.FilterData">'Course Plan Inventory'!$A$1:$R$2</definedName>
+    <definedName hidden="1" localSheetId="5" name="Z_C8DFF587_8138_47F6_882F_E53E2855F909_.wvu.FilterData">'Student Folder Inventory'!$A$1:$J$2</definedName>
+    <definedName hidden="1" localSheetId="6" name="Z_C8DFF587_8138_47F6_882F_E53E2855F909_.wvu.FilterData">'Advisor Folder Inventory'!$A$1:$F$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="Z_C8DFF587_8138_47F6_882F_E53E2855F909_.wvu.FilterData">'Student List'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6AD4D4A6-ED0D-40E6-8DEF-5D96ED6B85A3}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3FBFD739-53C5-42AA-9D25-C0C9F903DD50}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8A0215D2-B727-4E45-BA43-9D0FF4AE1D0C}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C8DFF587-8138-47F6-882F-E53E2855F909}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -123,7 +124,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Student List" 9/19/2025, 2:51:14 PM</t>
+        <t xml:space="preserve">Last updated from "Student List" 10/21/2025, 9:42:30 AM</t>
       </text>
     </comment>
   </commentList>
@@ -138,7 +139,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Faculty List" 8/15/2025, 9:16:37 AM</t>
+        <t xml:space="preserve">Last updated from "Faculty List" 10/21/2025, 9:42:15 AM</t>
       </text>
     </comment>
   </commentList>
@@ -153,7 +154,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Advisor List" 9/9/2025, 1:24:22 PM</t>
+        <t xml:space="preserve">Last updated from "Advisor List" 10/21/2025, 9:41:43 AM</t>
       </text>
     </comment>
   </commentList>
@@ -168,7 +169,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Course List" 8/15/2025, 9:02:22 AM</t>
+        <t xml:space="preserve">Last updated from "Course List" 10/21/2025, 9:41:08 AM</t>
       </text>
     </comment>
   </commentList>
@@ -183,7 +184,7 @@
   <commentList>
     <comment authorId="0" ref="A1">
       <text>
-        <t xml:space="preserve">Last updated from "Student Enrollments" 8/15/2025, 8:59:00 AM</t>
+        <t xml:space="preserve">Last updated from "Student Enrollments" 10/21/2025, 9:40:08 AM</t>
       </text>
     </comment>
   </commentList>
@@ -253,7 +254,7 @@
     <t>Academic Office</t>
   </si>
   <si>
-    <t>email@example.com</t>
+    <t>cp-ao@groton.org</t>
   </si>
   <si>
     <t>Studies Committee</t>
@@ -265,12 +266,6 @@
     <t>Course Plan Template</t>
   </si>
   <si>
-    <t>Roll-over Academic Year</t>
-  </si>
-  <si>
-    <t>2024-08-21T15:24:52.401Z</t>
-  </si>
-  <si>
     <t>Course ID</t>
   </si>
   <si>
@@ -310,6 +305,9 @@
     <t>Incomplete</t>
   </si>
   <si>
+    <t>rholmes@groton.org</t>
+  </si>
+  <si>
     <t>Student Folder ID</t>
   </si>
   <si>
@@ -362,6 +360,9 @@
   </si>
   <si>
     <t>Grad Year</t>
+  </si>
+  <si>
+    <t>,  []</t>
   </si>
   <si>
     <t>Preferred or First Name</t>
@@ -503,9 +504,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -699,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -734,9 +734,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -790,9 +787,6 @@
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -804,9 +798,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -829,7 +820,7 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1339,43 +1330,58 @@
     <col customWidth="1" min="3" max="3" width="11.25"/>
     <col customWidth="1" min="4" max="4" width="17.88"/>
     <col customWidth="1" min="5" max="5" width="4.88"/>
-    <col customWidth="1" min="6" max="6" width="6.13"/>
+    <col customWidth="1" min="6" max="7" width="6.13"/>
+    <col customWidth="1" min="8" max="8" width="34.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="30" t="str">
+      <c r="F1" s="29" t="str">
         <f t="array" ref="F1:F2">if(row(F:F)=1,"Has Plan",not(isna(vlookup(A:A,'Course Plan Inventory'!A:A,1,false))))</f>
         <v>Has Plan</v>
       </c>
+      <c r="G1" s="29" t="str">
+        <f t="array" ref="G1:G2">if(row(G:G)=1,"Inactive",not(E:E&gt;(year(today())+if(month(today())&gt;6,1,0))))</f>
+        <v>Inactive</v>
+      </c>
+      <c r="H1" s="29" t="str">
+        <f t="array" ref="H1:H2">if(row(H:H)=1,"Menu Listing",D:D&amp;", "&amp;C:C&amp;" ["&amp;A:A&amp;"]")</f>
+        <v>Menu Listing</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="26" t="b">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="25" t="b">
         <v>0</v>
+      </c>
+      <c r="G2" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{6AD4D4A6-ED0D-40E6-8DEF-5D96ED6B85A3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8A0215D2-B727-4E45-BA43-9D0FF4AE1D0C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$2">
         <filterColumn colId="5">
           <filters>
@@ -1384,7 +1390,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3FBFD739-53C5-42AA-9D25-C0C9F903DD50}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C8DFF587-8138-47F6-882F-E53E2855F909}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$2">
         <filterColumn colId="5">
           <filters>
@@ -1394,12 +1400,12 @@
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F2:H2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
+  <conditionalFormatting sqref="F2:H2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
@@ -1423,24 +1429,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>59</v>
       </c>
+      <c r="E1" s="42"/>
     </row>
     <row r="2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -1475,72 +1483,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="30" t="str">
+      <c r="J1" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("byrow({A:A,F:F},lambda(enrollment,if(index(enrollment,1,1)=$A$1,""Current Advisor"",index(enrollment,1,2)=max(filter({A:A,F:F},A:A=index(enrollment,1,1))))))"),"Current Advisor")</f>
         <v>Current Advisor</v>
       </c>
-      <c r="K1" s="30" t="str">
+      <c r="K1" s="29" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("BYROW(A:I,lambda(data,if(index(data,1,1)=$A$1,""Most Likely Advisor"",max(filter(F:F,A:A=index(data,1,1)))=index(data,1,6))))"),"Most Likely Advisor")</f>
         <v>Most Likely Advisor</v>
       </c>
-      <c r="L1" s="30" t="str">
-        <f t="array" ref="L1:L2">byrow(A:I,lambda(data,if(index(data,1,1)=$A$1,"Advisor on Course Plan",xlookup(index(data,1,1),'Course Plan Inventory'!A:A,'Course Plan Inventory'!Q:Q)=index(data,1,7))))</f>
+      <c r="L1" s="29" t="str">
+        <f t="array" ref="L1:L2">byrow(A:I,lambda(data,if(index(data,1,1)=$A$1,"Advisor on Course Plan",xlookup(index(data,1,1),'Course Plan Inventory'!A:A,'Course Plan Inventory'!P:P)=index(data,1,7))))</f>
         <v>Advisor on Course Plan</v>
       </c>
-      <c r="M1" s="30" t="str">
+      <c r="M1" s="29" t="str">
         <f t="array" ref="M1:M2">xlookup(G:G,'Advisor Folder Inventory'!A:A,'Advisor Folder Inventory'!C:C)</f>
         <v>Advisor Folder URL</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="26" t="b">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="25" t="b">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),TRUE)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="25" t="b">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),TRUE)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="26" t="e">
+      <c r="L2" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M2" s="26" t="e">
+      <c r="M2" s="25" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -1587,85 +1595,85 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="22" t="str">
+      <c r="G1" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(G:G)=1,""Course Title"",iferror(index(REGEXEXTRACT(C:C,""^(.+) \([FWSY]\)""),0,0))))"),"Course Title")</f>
         <v>Course Title</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="22" t="str">
+      <c r="K1" s="21" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula(if(row(F:F)=1,""Formatted Description"",trim(REGEXREPLACE(SUBSTITUTE(substitute(E:E,""&lt;br /&gt;"",char(10)),""&amp;#160;"","" ""),""&lt;\/\w+&gt;|&lt;\w+.*?&gt;"",""""))))"),"Formatted Description")</f>
         <v>Formatted Description</v>
       </c>
-      <c r="L1" s="22" t="str">
+      <c r="L1" s="21" t="str">
         <f t="array" ref="L1:L2">if(row(L:L)=1,"Available",if(F:F,false,vlookup(A:A,'Available Courses'!A2:F$3,6,false)))</f>
         <v>Available</v>
       </c>
-      <c r="M1" s="22" t="str">
+      <c r="M1" s="21" t="str">
         <f t="array" ref="M1:M2">if(row(M:M)=1,"Cross-registered",countif($B$2:$B2,B:B)&lt;&gt;countifs($B$2:$B2,B:B,$D$2:$D2,D:D))</f>
         <v>Cross-registered</v>
       </c>
-      <c r="N1" s="22" t="str">
+      <c r="N1" s="21" t="str">
         <f t="array" ref="N1:N2">byrow({B:B,D:D,M:M},lambda(row,if(index(row,1,1)="Course Code","Display Department",if(index(row,1,3),if(index(CrossRegistered_Department,match(index(row,1,1),CrossRegistered_CourseCode,0),0)&lt;&gt;"",index(CrossRegistered_Department,match(index(row,1,1),CrossRegistered_CourseCode,0),0),index(row,1,2)),INDEX(row,1,2)))))</f>
         <v>Display Department</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="str">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="str">
         <f t="array" ref="H2">SWITCH(right(C2,3),"(F)","Fall","(W)","Winter","(S)","Spring",)</f>
         <v/>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="35">
         <f t="array" ref="I2">switch(H2,"Fall",1,"Winter",2,"Spring",3,0)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="38" t="str">
+      <c r="J2" s="35" t="str">
         <f t="array" ref="J2">if(H2&lt;&gt;"",if(countif(Course_Title,G2&amp;" (Y)"),,G2&amp;" ("&amp;H2&amp;")"),G2)</f>
         <v/>
       </c>
-      <c r="K2" s="38" t="str">
+      <c r="K2" s="35" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="L2" s="38" t="e">
+      <c r="L2" s="35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M2" s="38" t="b">
+      <c r="M2" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:N2">
@@ -1695,223 +1703,730 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="A2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=A1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="B2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="B2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=B1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="C2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=C1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="D2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=D1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="E2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=E1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="F2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=F1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="G2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="G2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=G1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="H2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=H1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="I2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=I1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="J2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=J1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="50" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J5,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
+      <c r="K2" s="47" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("arrayformula({unique(index(sort(filter('Course List'!$G$2:$J44,Course_Department=K1,Course_Available),3,true,1,true),,4));"""";""[Elective]"";""[Tutorial]""})"),"#N/A")</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="C3" s="50" t="str">
+      <c r="C3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="D3" s="50" t="str">
+      <c r="D3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="E3" s="50" t="str">
+      <c r="E3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="F3" s="50" t="str">
+      <c r="F3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="G3" s="50" t="str">
+      <c r="G3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="H3" s="50" t="str">
+      <c r="H3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="I3" s="50" t="str">
+      <c r="I3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="J3" s="50" t="str">
+      <c r="J3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
-      <c r="K3" s="50" t="str">
+      <c r="K3" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="str">
+      <c r="A4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="C4" s="50" t="str">
+      <c r="C4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="D4" s="50" t="str">
+      <c r="D4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="E4" s="50" t="str">
+      <c r="E4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="G4" s="50" t="str">
+      <c r="G4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="H4" s="50" t="str">
+      <c r="H4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="I4" s="50" t="str">
+      <c r="I4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="J4" s="50" t="str">
+      <c r="J4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
-      <c r="K4" s="50" t="str">
+      <c r="K4" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Elective]")</f>
         <v>[Elective]</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="str">
+      <c r="A5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="B5" s="50" t="str">
+      <c r="B5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="C5" s="50" t="str">
+      <c r="C5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="D5" s="50" t="str">
+      <c r="D5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="E5" s="50" t="str">
+      <c r="E5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="F5" s="50" t="str">
+      <c r="F5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="G5" s="50" t="str">
+      <c r="G5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="H5" s="50" t="str">
+      <c r="H5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="I5" s="50" t="str">
+      <c r="I5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="J5" s="50" t="str">
+      <c r="J5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
-      <c r="K5" s="50" t="str">
+      <c r="K5" s="47" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Tutorial]")</f>
         <v>[Tutorial]</v>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1942,138 +2457,138 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="52" t="s">
+      <c r="I1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="52" t="s">
+      <c r="M1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="53" t="str">
+      <c r="T1" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_TitleWithoutTerm)=1,""Title without Term"",if(Enrollment_CourseCode=5741,""Advanced Physics: Electricity and Magnetism"",iferror(index(REGEXEXTRACT(Enrollment_TitleWithTerm,""^(.+)( \([FWSY]\)\.*)$""),0,1),Enrollment_TitleWi"&amp;"thTerm))))"),"Title without Term")</f>
         <v>Title without Term</v>
       </c>
-      <c r="U1" s="53" t="str">
+      <c r="U1" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(U:U)=1,""Base Title"",REGEXEXTRACT(Enrollment_TitleWithoutTerm,""([^(]+)\s?\(?.*\)?"")))"),"Base Title")</f>
         <v>Base Title</v>
       </c>
-      <c r="V1" s="53" t="str">
+      <c r="V1" s="50" t="str">
         <f t="array" ref="V1:V2">if(row(Enrollment_Order)=1,"Order",switch(Enrollment_TermName,"Fall",1,"Winter",2,"Spring",3,0)-if(Enrollment_Dropped,0.5,0))</f>
         <v>Order</v>
       </c>
-      <c r="W1" s="53" t="str">
+      <c r="W1" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(Enrollment_ParentheticalNote)=1,""Parenthetical Note"",ifna(REGEXEXTRACT(Enrollment_TitleWithoutTerm,""\((.+)\)""),)))"),"Parenthetical Note")</f>
         <v>Parenthetical Note</v>
       </c>
-      <c r="X1" s="53" t="str">
+      <c r="X1" s="50" t="str">
         <f t="array" ref="X1:X2">if(row(Enrollment_Term)=1,"Term",if(Enrollment_CourseCode=5741,"Fall, Winter",SWITCH(right(Enrollment_TitleWithTerm,3),"(F)","Fall","(W)","Winter","(S)","Spring","(Y)", "","")))</f>
         <v>Term</v>
       </c>
-      <c r="Y1" s="53" t="str">
+      <c r="Y1" s="50" t="str">
         <f t="array" ref="Y1:Y2">if(row(Y:Y)=1,"Audit",if((Enrollment_CreditsAttempted="")*not(Enrollment_Dropped)*(today()&gt;Q:Q),"audit",))</f>
         <v>Audit</v>
       </c>
-      <c r="Z1" s="53" t="str">
+      <c r="Z1" s="50" t="str">
         <f t="array" ref="Z1:Z2">if(row(Z:Z)=1,"Dropped",if(Enrollment_Dropped*not(Enrollment_ChangedSections),"dropped",))</f>
         <v>Dropped</v>
       </c>
-      <c r="AA1" s="53" t="str">
+      <c r="AA1" s="50" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(if(row(AA:AA)=1,""Enrollment Title"",substitute(Enrollment_BaseTitle&amp;"" (""&amp;substitute(trim(transpose(query(transpose(W:Z),,ROWS(AA:AA)))),"" "","", "")&amp;"")"","" ()"","""")))"),"#REF!")</f>
         <v>#REF!</v>
       </c>
-      <c r="AB1" s="54" t="str">
+      <c r="AB1" s="51" t="str">
         <f t="array" ref="AB1:AB2">if(row(Enrollment_Include)=1,"Include",NOT(vlookup(Enrollment_CourseCode,'Course List'!B:M,12,false)*((countifs('Course List'!B:B,Enrollment_CourseCode,'Course List'!N:N,Enrollment_Department)=0)))*(not(Enrollment_Dropped)+Enrollment_Dropped*not(Enrollment_ChangedSections))&gt;0)</f>
         <v>Include</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26" t="str">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="25">
         <v>0.0</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26" t="e">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2099,365 +2614,365 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="str">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("if(A2&lt;&gt;"""",A2,REGEXEXTRACT(A1,""\[(.+)\]$""))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="C2" s="59" t="str">
+      <c r="C2" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("join("" "",INDEX('Student List'!C:D,match(B2,'Student List'!A:A,0),0))"),"#N/A")</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="59" t="str">
+      <c r="D2" s="56" t="str">
         <f t="array" ref="D2">INDEX('Student List'!E:E,match(B2,'Student List'!A:A,0),0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="58" t="str">
         <f t="array" ref="B3:F3">IEH_GradYear-(6-COLUMN(B5:F5))</f>
         <v>#N/A</v>
       </c>
-      <c r="C3" s="61" t="e">
+      <c r="C3" s="58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="62" t="e">
+      <c r="D3" s="59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="62" t="e">
+      <c r="E3" s="59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F3" s="63" t="e">
+      <c r="F3" s="60" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="62" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="66" t="str">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63" t="str">
         <f t="array" ref="B5:F5">(B3:F3-1)&amp;" - "&amp;B3:F3</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="66" t="e">
+      <c r="C5" s="63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D5" s="66" t="e">
+      <c r="D5" s="63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E5" s="66" t="e">
+      <c r="E5" s="63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F5" s="66" t="e">
+      <c r="F5" s="63" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="68" t="str">
+      <c r="B6" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C6" s="68" t="str">
+      <c r="C6" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D6" s="68" t="str">
+      <c r="D6" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E6" s="68" t="str">
+      <c r="E6" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F6" s="68" t="str">
+      <c r="F6" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A6),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C7" s="68" t="str">
+      <c r="C7" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D7" s="68" t="str">
+      <c r="D7" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E7" s="68" t="str">
+      <c r="E7" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F7" s="68" t="str">
+      <c r="F7" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A7),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="68" t="str">
+      <c r="B8" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C8" s="68" t="str">
+      <c r="C8" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D8" s="68" t="str">
+      <c r="D8" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E8" s="68" t="str">
+      <c r="E8" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F8" s="68" t="str">
+      <c r="F8" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A8),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="68" t="str">
+      <c r="B9" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C9" s="68" t="str">
+      <c r="C9" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D9" s="68" t="str">
+      <c r="D9" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E9" s="68" t="str">
+      <c r="E9" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F9" s="68" t="str">
+      <c r="F9" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A9),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="68" t="str">
+      <c r="B10" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C10" s="68" t="str">
+      <c r="C10" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D10" s="68" t="str">
+      <c r="D10" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E10" s="68" t="str">
+      <c r="E10" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F10" s="68" t="str">
+      <c r="F10" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A10),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="68" t="str">
+      <c r="B11" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C11" s="68" t="str">
+      <c r="C11" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D11" s="68" t="str">
+      <c r="D11" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E11" s="68" t="str">
+      <c r="E11" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F11" s="68" t="str">
+      <c r="F11" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A11),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="68" t="str">
+      <c r="B12" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C12" s="68" t="str">
+      <c r="C12" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D12" s="68" t="str">
+      <c r="D12" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E12" s="68" t="str">
+      <c r="E12" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F12" s="68" t="str">
+      <c r="F12" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A12),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C13" s="68" t="str">
+      <c r="C13" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D13" s="68" t="str">
+      <c r="D13" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E13" s="68" t="str">
+      <c r="E13" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F13" s="68" t="str">
+      <c r="F13" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A13),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="68" t="str">
+      <c r="B14" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C14" s="68" t="str">
+      <c r="C14" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D14" s="68" t="str">
+      <c r="D14" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E14" s="68" t="str">
+      <c r="E14" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F14" s="68" t="str">
+      <c r="F14" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A14),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="68" t="str">
+      <c r="B15" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C15" s="68" t="str">
+      <c r="C15" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D15" s="68" t="str">
+      <c r="D15" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E15" s="68" t="str">
+      <c r="E15" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F15" s="68" t="str">
+      <c r="F15" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A15),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="68" t="str">
+      <c r="B16" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=B$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="C16" s="68" t="str">
+      <c r="C16" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=C$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="D16" s="68" t="str">
+      <c r="D16" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=D$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="E16" s="68" t="str">
+      <c r="E16" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=E$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
-      <c r="F16" s="68" t="str">
+      <c r="F16" s="65" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IFNA(JOIN(CHAR(10),UNIQUE(INDEX(SORT(FILTER({Enrollment_Title, Enrollment_Order},Enrollment_Include,Enrollment_Host_ID=IEH_HostID,Enrollment_Year=F$5,Enrollment_Department=$A16),2,true,1,true),,1))),)"),"")</f>
         <v/>
       </c>
@@ -2465,7 +2980,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1">
-      <formula1>#REF!</formula1>
+      <formula1>'Student List'!$H$2:$H16</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -2571,14 +3086,6 @@
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B11">
@@ -2592,9 +3099,6 @@
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B2">
       <formula1>2.0</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B12">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(B12))), AND(ISNUMBER(B12), LEFT(CELL("format", B12))="D"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B8:B10">
       <formula1>IFERROR(ISEMAIL(B8), true)</formula1>
@@ -2625,44 +3129,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="str">
+      <c r="A1" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ifna(""Missing: ""&amp;join("", "",filter(Course_Title,isna(Course_Available))),""All courses synced from Blackbaud are shown in this list. Scan the list for red/yellow highlighted duplicates if necessary."")"),"Missing: ")</f>
         <v>Missing: </v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="15" t="str">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14" t="str">
         <f t="array" ref="B2:E3">vlookup($A2:$A3,{'Course List'!$A:$D,'Course List'!$K:$K},column(B:E),false)</f>
         <v>Course Code</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="e">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" s="18" t="e">
+      <c r="C3" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D3" s="18" t="e">
+      <c r="D3" s="17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="18" t="e">
+      <c r="E3" s="17" t="e">
         <v>#N/A</v>
       </c>
       <c r="F3" s="7" t="b">
@@ -2670,7 +3174,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$3"/>
+  <autoFilter ref="$A$2:$F$3"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -2718,71 +3222,71 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="str">
+      <c r="A1" s="18" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ifna(""Missing: ""&amp;join("", "",sort(unique(filter(Course_Code,isna(Course_Department))))),""All detected cross-registered courses are shown in this list."")"),"All detected cross-registered courses are shown in this list.")</f>
         <v>All detected cross-registered courses are shown in this list.</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="22" t="str">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21" t="str">
         <f t="array" ref="B2:B3">if(row(B2:B3)=2,"Course Title",vlookup(A2:A3,'Course List'!B:C,2,false))</f>
         <v>Course Title</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="24" t="str">
+      <c r="C2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A2:A3,lambda(code,if(code=""Course Code"",""Registered Departments"",if(code&lt;&gt;"""",transpose(sort(unique(filter('Course List'!D:D,'Course List'!B:B=code)))),))))"),"Registered Departments")</f>
         <v>Registered Departments</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="e">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$P$3">
@@ -2826,141 +3330,140 @@
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="7" max="7" width="7.63"/>
     <col customWidth="1" min="8" max="8" width="11.25"/>
-    <col customWidth="1" min="9" max="9" width="9.88"/>
-    <col customWidth="1" min="10" max="10" width="12.25"/>
-    <col customWidth="1" min="11" max="11" width="13.25"/>
-    <col customWidth="1" min="12" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="13" width="11.13"/>
-    <col customWidth="1" min="14" max="14" width="13.25"/>
-    <col customWidth="1" min="15" max="15" width="9.63"/>
-    <col customWidth="1" min="16" max="17" width="9.88"/>
-    <col customWidth="1" min="18" max="18" width="9.63"/>
-    <col customWidth="1" min="19" max="19" width="12.38"/>
+    <col customWidth="1" min="9" max="9" width="12.25"/>
+    <col customWidth="1" min="10" max="10" width="13.25"/>
+    <col customWidth="1" min="11" max="11" width="10.63"/>
+    <col customWidth="1" min="12" max="12" width="11.13"/>
+    <col customWidth="1" min="13" max="13" width="13.25"/>
+    <col customWidth="1" min="14" max="14" width="9.63"/>
+    <col customWidth="1" min="15" max="16" width="9.88"/>
+    <col customWidth="1" min="17" max="17" width="9.63"/>
+    <col customWidth="1" min="18" max="19" width="12.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="30" t="str">
-        <f t="array" ref="D1:D2">ifna(if(row(E:E)=1,Label_StudentEmail,ifna(xlookup(Course_Plan_Host_ID,Student_Host_ID,StudentList_StudentEmail),)),"")</f>
+      <c r="D1" s="29" t="str">
+        <f t="array" ref="D1:D2">ifna(if(row(E:E)=1,Label_StudentEmail,ifna(xlookup(Course_Plan_Host_ID,Student_Host_ID,Student_Email),)),"")</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="30" t="str">
+      <c r="E1" s="29" t="str">
         <f t="array" ref="E1:E2">ifna(if(row(F:F)=1,Label_StudentFirstName,ifna(xlookup(Course_Plan_Host_ID,Student_Host_ID,Student_First_Name),)),"")</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="30" t="str">
+      <c r="F1" s="29" t="str">
         <f t="array" ref="F1:F2">ifna(if(row(G:G)=1,Student_Last_Name_Label,ifna(xlookup(Course_Plan_Host_ID,Student_Host_ID,Student_Last_Name),)),"")</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="30" t="str">
+      <c r="G1" s="29" t="str">
         <f t="array" ref="G1:G2">ifna(if(row(H:H)=1,Grad_Year_Label,ifna(xlookup(Course_Plan_Host_ID,Student_Host_ID,Grad_Year),)),"")</f>
         <v>Grad Year</v>
       </c>
-      <c r="H1" s="31" t="str">
+      <c r="H1" s="30" t="str">
         <f t="array" ref="H1:H2">ifna(if(row(H:H)=1,'Student Folder Inventory'!B1,vlookup($A:$A,'Student Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Student Folder ID</v>
       </c>
-      <c r="I1" s="32" t="str">
-        <f t="array" ref="I1:I2">if(row(J:J)=1,'Advisor List'!G1,ifna(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!G:G),))</f>
+      <c r="I1" s="29" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A:A,lambda(host_id,if(host_id=$A$1,""Advisor Email"",ifna(filter(Advisor_Email,Advisor_Host_ID=host_id,Advisor_Most_Likely_Advisor),))))"),"Advisor Email")</f>
         <v>Advisor Email</v>
       </c>
-      <c r="J1" s="30" t="str">
-        <f t="array" ref="J1:J2">if(row(J:J)=1,'Advisor List'!G1,ifna(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!G:G),))</f>
-        <v>Advisor Email</v>
-      </c>
-      <c r="K1" s="30" t="str">
-        <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor List'!I1,ifna(vlookup($A:$A,'Advisor List'!$A:$I,COLUMN()-3,false),)),)</f>
+      <c r="J1" s="29" t="str">
+        <f t="array" ref="J1:J2">ifna(if(row(J:J)=1,'Advisor List'!I1,ifna(vlookup($A:$A,'Advisor List'!$A:$I,COLUMN()-3,false),)),)</f>
         <v>Advisor Last Name</v>
       </c>
-      <c r="L1" s="30" t="str">
-        <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Advisor Folder Inventory'!B1,vlookup($I:$I,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
+      <c r="K1" s="29" t="str">
+        <f t="array" ref="K1:K2">ifna(if(row(K:K)=1,'Advisor Folder Inventory'!B1,vlookup(J:J,'Advisor Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Advisor Folder ID</v>
       </c>
-      <c r="M1" s="30" t="str">
-        <f t="array" ref="M1:M2">ifna(if(row(M:M)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
+      <c r="L1" s="29" t="str">
+        <f t="array" ref="L1:L2">ifna(if(row(L:L)=1,'Plans Form Folder Inventory'!B1,vlookup($G:$G,'Plans Form Folder Inventory'!$A:$B,2,false)),)</f>
         <v>Form Folder ID</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="30" t="str">
-        <f t="array" ref="O1:O2">if(row(O:O)=1,"Inactive", isna(vlookup(A:A,'Student List'!A:A,1,false)))</f>
+      <c r="N1" s="29" t="str">
+        <f t="array" ref="N1:N2">if(row(N:N)=1,"Inactive",IFNA(not(xlookup(A:A,'Student List'!A:A,not('Student List'!G:G))),true))</f>
         <v>Inactive</v>
       </c>
-      <c r="P1" s="30" t="str">
-        <f t="array" ref="P1:P2">if(row(P:P)=1,"New Advisor",J:J&lt;&gt;Q:Q)</f>
+      <c r="O1" s="29" t="str">
+        <f t="array" ref="O1:O2">if(row(O:O)=1,"New Advisor",I:I&lt;&gt;P:P)</f>
         <v>New Advisor</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="N2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$R$2"/>
   <customSheetViews>
-    <customSheetView guid="{6AD4D4A6-ED0D-40E6-8DEF-5D96ED6B85A3}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$S$2">
-        <filterColumn colId="14">
+    <customSheetView guid="{8A0215D2-B727-4E45-BA43-9D0FF4AE1D0C}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$R$2">
+        <filterColumn colId="13">
           <filters>
             <filter val="TRUE"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3FBFD739-53C5-42AA-9D25-C0C9F903DD50}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$S$2">
+    <customSheetView guid="{C8DFF587-8138-47F6-882F-E53E2855F909}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$R$2">
         <filterColumn colId="6">
           <filters/>
         </filterColumn>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="O2:Q2">
+  <conditionalFormatting sqref="N2:P2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:Q2">
+  <conditionalFormatting sqref="N2:P2">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
@@ -2995,63 +3498,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="40" t="str">
+      <c r="D1" s="37" t="str">
         <f t="array" ref="D1:D2">ifna(if(row(E:E)=1,'Student List'!B1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!B:B),)),"")</f>
         <v>Student Email</v>
       </c>
-      <c r="E1" s="40" t="str">
+      <c r="E1" s="37" t="str">
         <f t="array" ref="E1:E2">ifna(if(row(F:F)=1,'Student List'!C1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!C:C),)),"")</f>
         <v>Student First Name</v>
       </c>
-      <c r="F1" s="40" t="str">
+      <c r="F1" s="37" t="str">
         <f t="array" ref="F1:F2">ifna(if(row(H:H)=1,'Student List'!D1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!D:D),)),"")</f>
         <v>Student Last Name</v>
       </c>
-      <c r="G1" s="40" t="str">
+      <c r="G1" s="37" t="str">
         <f t="array" ref="G1:G2">ifna(if(row(J:J)=1,'Student List'!E1,ifna(xlookup($A:$A,'Student List'!$A:$A,'Student List'!E:E),)),"")</f>
         <v>Grad Year</v>
       </c>
-      <c r="H1" s="30" t="str">
-        <f t="array" ref="H1:H2">if(row(H:H)=1,"Inactive",isna(vlookup(A:A,'Student List'!A:A,1,false)))</f>
+      <c r="H1" s="29" t="str">
+        <f t="array" ref="H1:H2">if(row(H:H)=1,"Inactive",ifna(not(xlookup(A:A,'Student List'!A:A,not('Student List'!G:G))),true))</f>
         <v>Inactive</v>
       </c>
-      <c r="I1" s="30" t="str">
+      <c r="I1" s="29" t="str">
         <f t="array" ref="I1:I2">if(row(I:I)=1,"New Advisor",J:J&lt;&gt;K:K)</f>
         <v>New Advisor</v>
       </c>
-      <c r="J1" s="30" t="str">
-        <f t="array" ref="J1:J2">if(row(J:J)=1,"Current Advisor",ifna(xlookup(A:A,'Advisor List'!A:A,'Advisor List'!G:G),))</f>
-        <v>Current Advisor</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>41</v>
+      <c r="J1" s="29" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A:A,lambda(host_id,if(host_id=$A$1,""Advisor Email"",ifna(filter(Advisor_Email,Advisor_Host_ID=host_id,Advisor_Most_Likely_Advisor),))))"),"Advisor Email")</f>
+        <v>Advisor Email</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="b">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="38" t="b">
+      <c r="I2" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$K$2">
@@ -3061,7 +3564,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{3FBFD739-53C5-42AA-9D25-C0C9F903DD50}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C8DFF587-8138-47F6-882F-E53E2855F909}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$J$2"/>
     </customSheetView>
   </customSheetViews>
@@ -3100,41 +3603,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="30" t="str">
-        <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$F:$I,COLUMN()-2,false),)),)</f>
+      <c r="D1" s="29" t="str">
+        <f t="array" ref="D1:D2">ifna(if(row(D:D)=1,'Advisor List'!G1,ifna(vlookup($A:$A,'Advisor List'!$G:$I,COLUMN()-3,false),)),)</f>
         <v>Advisor Email</v>
       </c>
-      <c r="E1" s="30" t="str">
-        <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!I1,ifna(vlookup($A:$A,'Advisor List'!$F:$I,COLUMN()-2,false),)),)</f>
+      <c r="E1" s="29" t="str">
+        <f t="array" ref="E1:E2">ifna(if(row(E:E)=1,'Advisor List'!I1,ifna(vlookup($A:$A,'Advisor List'!$G:$I,COLUMN()-2,false),)),)</f>
         <v>Advisor Last Name</v>
       </c>
-      <c r="F1" s="30" t="str">
+      <c r="F1" s="29" t="str">
         <f t="array" ref="F1:F2">if(row(F:F)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Faculty List'!D:D,1,false))),TRUE,FALSE))</f>
         <v>Inactive</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="b">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3146,7 +3649,7 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{3FBFD739-53C5-42AA-9D25-C0C9F903DD50}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C8DFF587-8138-47F6-882F-E53E2855F909}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$2">
         <filterColumn colId="5">
           <filters>
@@ -3191,31 +3694,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="30" t="str">
-        <f t="array" ref="D1:D2">if(row(D:D)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Student List'!E:E,1,false))),TRUE,FALSE))</f>
+      <c r="D1" s="29" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A:A,lambda(form,if(form=$A$1,""Inactive"",and(form&lt;&gt;""ROOT"",isna(filter(Student_Host_ID,Student_Grad_Year=form,not(Student_Inactive)))))))"),"Inactive")</f>
         <v>Inactive</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="36" t="b">
+      <c r="D2" s="34" t="b">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -3255,31 +3759,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="30" t="str">
-        <f t="array" ref="D1:D2">if(row(D:D)=1,"Inactive",IF((A:A&lt;&gt;"ROOT")*(isna(vlookup(A:A,'Student List'!E:E,1,false))),TRUE,FALSE))</f>
+      <c r="D1" s="29" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("byrow(A:A,lambda(form,if(form=$A$1,""Inactive"",AND(form&lt;&gt;""ROOT"",isna(filter(Student_Host_ID,Student_Grad_Year=form,not(Student_Inactive)))))))"),"Inactive")</f>
         <v>Inactive</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="36" t="b">
+      <c r="D2" s="34" t="b">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),FALSE)</f>
         <v>0</v>
       </c>
     </row>
